--- a/BackTest/2020-01-22 BackTest AOA.xlsx
+++ b/BackTest/2020-01-22 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:M240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="C2" t="n">
-        <v>1.752</v>
+        <v>1.753</v>
       </c>
       <c r="D2" t="n">
-        <v>1.752</v>
+        <v>1.768</v>
       </c>
       <c r="E2" t="n">
-        <v>1.752</v>
+        <v>1.753</v>
       </c>
       <c r="F2" t="n">
-        <v>35333.2007</v>
+        <v>676770</v>
       </c>
       <c r="G2" t="n">
-        <v>1.770733333333335</v>
+        <v>1.771266666666668</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.765</v>
+        <v>1.752</v>
       </c>
       <c r="C3" t="n">
-        <v>1.765</v>
+        <v>1.752</v>
       </c>
       <c r="D3" t="n">
-        <v>1.765</v>
+        <v>1.752</v>
       </c>
       <c r="E3" t="n">
-        <v>1.765</v>
+        <v>1.752</v>
       </c>
       <c r="F3" t="n">
-        <v>290</v>
+        <v>35333.2007</v>
       </c>
       <c r="G3" t="n">
-        <v>1.770416666666668</v>
+        <v>1.770733333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.764</v>
+        <v>1.765</v>
       </c>
       <c r="C4" t="n">
-        <v>1.764</v>
+        <v>1.765</v>
       </c>
       <c r="D4" t="n">
-        <v>1.764</v>
+        <v>1.765</v>
       </c>
       <c r="E4" t="n">
-        <v>1.764</v>
+        <v>1.765</v>
       </c>
       <c r="F4" t="n">
         <v>290</v>
       </c>
       <c r="G4" t="n">
-        <v>1.770333333333334</v>
+        <v>1.770416666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.753</v>
+        <v>1.764</v>
       </c>
       <c r="C5" t="n">
-        <v>1.753</v>
+        <v>1.764</v>
       </c>
       <c r="D5" t="n">
-        <v>1.753</v>
+        <v>1.764</v>
       </c>
       <c r="E5" t="n">
-        <v>1.753</v>
+        <v>1.764</v>
       </c>
       <c r="F5" t="n">
-        <v>32710</v>
+        <v>290</v>
       </c>
       <c r="G5" t="n">
-        <v>1.769816666666667</v>
+        <v>1.770333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.765</v>
+        <v>1.753</v>
       </c>
       <c r="C6" t="n">
-        <v>1.765</v>
+        <v>1.753</v>
       </c>
       <c r="D6" t="n">
-        <v>1.765</v>
+        <v>1.753</v>
       </c>
       <c r="E6" t="n">
-        <v>1.765</v>
+        <v>1.753</v>
       </c>
       <c r="F6" t="n">
-        <v>290</v>
+        <v>32710</v>
       </c>
       <c r="G6" t="n">
-        <v>1.769750000000001</v>
+        <v>1.769816666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,19 +620,23 @@
         <v>1.765</v>
       </c>
       <c r="F7" t="n">
-        <v>280602.0079</v>
+        <v>290</v>
       </c>
       <c r="G7" t="n">
-        <v>1.769683333333334</v>
+        <v>1.769750000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.753</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -643,22 +647,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.783</v>
+        <v>1.765</v>
       </c>
       <c r="C8" t="n">
-        <v>1.783</v>
+        <v>1.765</v>
       </c>
       <c r="D8" t="n">
-        <v>1.783</v>
+        <v>1.765</v>
       </c>
       <c r="E8" t="n">
-        <v>1.766</v>
+        <v>1.765</v>
       </c>
       <c r="F8" t="n">
-        <v>2638281</v>
+        <v>280602.0079</v>
       </c>
       <c r="G8" t="n">
-        <v>1.769916666666667</v>
+        <v>1.769683333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,8 +671,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,32 +688,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E9" t="n">
         <v>1.766</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
+        <v>2638281</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.769916666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1.765</v>
       </c>
-      <c r="D9" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1357007.6812</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.769583333333334</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +731,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.764</v>
+        <v>1.766</v>
       </c>
       <c r="C10" t="n">
-        <v>1.764</v>
+        <v>1.765</v>
       </c>
       <c r="D10" t="n">
-        <v>1.764</v>
+        <v>1.783</v>
       </c>
       <c r="E10" t="n">
-        <v>1.764</v>
+        <v>1.765</v>
       </c>
       <c r="F10" t="n">
-        <v>290</v>
+        <v>1357007.6812</v>
       </c>
       <c r="G10" t="n">
-        <v>1.769233333333334</v>
+        <v>1.769583333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.783</v>
+        <v>1.764</v>
       </c>
       <c r="C11" t="n">
-        <v>1.783</v>
+        <v>1.764</v>
       </c>
       <c r="D11" t="n">
-        <v>1.783</v>
+        <v>1.764</v>
       </c>
       <c r="E11" t="n">
-        <v>1.762</v>
+        <v>1.764</v>
       </c>
       <c r="F11" t="n">
-        <v>912883</v>
+        <v>290</v>
       </c>
       <c r="G11" t="n">
-        <v>1.769200000000001</v>
+        <v>1.769233333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,10 +801,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.762</v>
+        <v>1.783</v>
       </c>
       <c r="C12" t="n">
-        <v>1.762</v>
+        <v>1.783</v>
       </c>
       <c r="D12" t="n">
         <v>1.783</v>
@@ -795,10 +813,10 @@
         <v>1.762</v>
       </c>
       <c r="F12" t="n">
-        <v>2721241</v>
+        <v>912883</v>
       </c>
       <c r="G12" t="n">
-        <v>1.769083333333334</v>
+        <v>1.769200000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +836,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.784</v>
+        <v>1.762</v>
       </c>
       <c r="C13" t="n">
-        <v>1.784</v>
+        <v>1.762</v>
       </c>
       <c r="D13" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="E13" t="n">
-        <v>1.784</v>
+        <v>1.762</v>
       </c>
       <c r="F13" t="n">
-        <v>648.6585</v>
+        <v>2721241</v>
       </c>
       <c r="G13" t="n">
-        <v>1.769333333333334</v>
+        <v>1.769083333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +871,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="C14" t="n">
-        <v>1.782</v>
+        <v>1.784</v>
       </c>
       <c r="D14" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="E14" t="n">
-        <v>1.764</v>
+        <v>1.784</v>
       </c>
       <c r="F14" t="n">
-        <v>2401184.189568144</v>
+        <v>648.6585</v>
       </c>
       <c r="G14" t="n">
-        <v>1.769300000000001</v>
+        <v>1.769333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.764</v>
+        <v>1.783</v>
       </c>
       <c r="C15" t="n">
-        <v>1.764</v>
+        <v>1.782</v>
       </c>
       <c r="D15" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="E15" t="n">
         <v>1.764</v>
       </c>
       <c r="F15" t="n">
-        <v>1305576</v>
+        <v>2401184.189568144</v>
       </c>
       <c r="G15" t="n">
-        <v>1.769216666666667</v>
+        <v>1.769300000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.782</v>
+        <v>1.764</v>
       </c>
       <c r="C16" t="n">
-        <v>1.782</v>
+        <v>1.764</v>
       </c>
       <c r="D16" t="n">
         <v>1.782</v>
       </c>
       <c r="E16" t="n">
-        <v>1.782</v>
+        <v>1.764</v>
       </c>
       <c r="F16" t="n">
-        <v>285</v>
+        <v>1305576</v>
       </c>
       <c r="G16" t="n">
-        <v>1.76945</v>
+        <v>1.769216666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +976,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="C17" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="D17" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="E17" t="n">
-        <v>1.764</v>
+        <v>1.782</v>
       </c>
       <c r="F17" t="n">
-        <v>673118</v>
+        <v>285</v>
       </c>
       <c r="G17" t="n">
-        <v>1.7694</v>
+        <v>1.76945</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1023,10 @@
         <v>1.764</v>
       </c>
       <c r="F18" t="n">
-        <v>3173780</v>
+        <v>673118</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7696</v>
+        <v>1.7694</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1046,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.764</v>
+        <v>1.781</v>
       </c>
       <c r="C19" t="n">
-        <v>1.764</v>
+        <v>1.781</v>
       </c>
       <c r="D19" t="n">
-        <v>1.764</v>
+        <v>1.781</v>
       </c>
       <c r="E19" t="n">
         <v>1.764</v>
       </c>
       <c r="F19" t="n">
-        <v>496280</v>
+        <v>3173780</v>
       </c>
       <c r="G19" t="n">
-        <v>1.769516666666667</v>
+        <v>1.7696</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.78</v>
+        <v>1.764</v>
       </c>
       <c r="C20" t="n">
-        <v>1.78</v>
+        <v>1.764</v>
       </c>
       <c r="D20" t="n">
-        <v>1.78</v>
+        <v>1.764</v>
       </c>
       <c r="E20" t="n">
-        <v>1.78</v>
+        <v>1.764</v>
       </c>
       <c r="F20" t="n">
-        <v>285</v>
+        <v>496280</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7697</v>
+        <v>1.769516666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1128,10 @@
         <v>1.78</v>
       </c>
       <c r="F21" t="n">
-        <v>99461.825</v>
+        <v>285</v>
       </c>
       <c r="G21" t="n">
-        <v>1.769633333333333</v>
+        <v>1.7697</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1151,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.785</v>
+        <v>1.78</v>
       </c>
       <c r="C22" t="n">
-        <v>1.785</v>
+        <v>1.78</v>
       </c>
       <c r="D22" t="n">
-        <v>1.785</v>
+        <v>1.78</v>
       </c>
       <c r="E22" t="n">
-        <v>1.785</v>
+        <v>1.78</v>
       </c>
       <c r="F22" t="n">
-        <v>285</v>
+        <v>99461.825</v>
       </c>
       <c r="G22" t="n">
-        <v>1.769916666666667</v>
+        <v>1.769633333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,19 +1186,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="C23" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="D23" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="E23" t="n">
-        <v>1.766</v>
+        <v>1.785</v>
       </c>
       <c r="F23" t="n">
-        <v>1841328.2152</v>
+        <v>285</v>
       </c>
       <c r="G23" t="n">
         <v>1.769916666666667</v>
@@ -1203,7 +1221,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.767</v>
+        <v>1.784</v>
       </c>
       <c r="C24" t="n">
         <v>1.784</v>
@@ -1215,10 +1233,10 @@
         <v>1.766</v>
       </c>
       <c r="F24" t="n">
-        <v>1926579</v>
+        <v>1841328.2152</v>
       </c>
       <c r="G24" t="n">
-        <v>1.770166666666667</v>
+        <v>1.769916666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1256,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.783</v>
+        <v>1.767</v>
       </c>
       <c r="C25" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="D25" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="E25" t="n">
-        <v>1.783</v>
+        <v>1.766</v>
       </c>
       <c r="F25" t="n">
-        <v>285</v>
+        <v>1926579</v>
       </c>
       <c r="G25" t="n">
-        <v>1.77015</v>
+        <v>1.770166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1282,13 +1300,13 @@
         <v>1.783</v>
       </c>
       <c r="E26" t="n">
-        <v>1.766</v>
+        <v>1.783</v>
       </c>
       <c r="F26" t="n">
-        <v>1525852</v>
+        <v>285</v>
       </c>
       <c r="G26" t="n">
-        <v>1.770383333333333</v>
+        <v>1.77015</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,7 +1329,7 @@
         <v>1.783</v>
       </c>
       <c r="C27" t="n">
-        <v>1.766</v>
+        <v>1.783</v>
       </c>
       <c r="D27" t="n">
         <v>1.783</v>
@@ -1320,10 +1338,10 @@
         <v>1.766</v>
       </c>
       <c r="F27" t="n">
-        <v>2144544</v>
+        <v>1525852</v>
       </c>
       <c r="G27" t="n">
-        <v>1.770083333333333</v>
+        <v>1.770383333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1364,19 @@
         <v>1.783</v>
       </c>
       <c r="C28" t="n">
-        <v>1.783</v>
+        <v>1.766</v>
       </c>
       <c r="D28" t="n">
         <v>1.783</v>
       </c>
       <c r="E28" t="n">
-        <v>1.783</v>
+        <v>1.766</v>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>2144544</v>
       </c>
       <c r="G28" t="n">
-        <v>1.770066666666666</v>
+        <v>1.770083333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="C29" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="D29" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="E29" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="F29" t="n">
-        <v>130000</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="n">
-        <v>1.770316666666666</v>
+        <v>1.770066666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="C30" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="D30" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="E30" t="n">
-        <v>1.766</v>
+        <v>1.784</v>
       </c>
       <c r="F30" t="n">
-        <v>3240239</v>
+        <v>130000</v>
       </c>
       <c r="G30" t="n">
-        <v>1.77055</v>
+        <v>1.770316666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,10 +1466,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.766</v>
+        <v>1.783</v>
       </c>
       <c r="C31" t="n">
-        <v>1.766</v>
+        <v>1.783</v>
       </c>
       <c r="D31" t="n">
         <v>1.783</v>
@@ -1460,10 +1478,10 @@
         <v>1.766</v>
       </c>
       <c r="F31" t="n">
-        <v>1126887</v>
+        <v>3240239</v>
       </c>
       <c r="G31" t="n">
-        <v>1.7705</v>
+        <v>1.77055</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1501,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.782</v>
+        <v>1.766</v>
       </c>
       <c r="C32" t="n">
         <v>1.766</v>
       </c>
       <c r="D32" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="E32" t="n">
         <v>1.766</v>
       </c>
       <c r="F32" t="n">
-        <v>704978</v>
+        <v>1126887</v>
       </c>
       <c r="G32" t="n">
-        <v>1.7702</v>
+        <v>1.7705</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1524,16 +1542,16 @@
         <v>1.766</v>
       </c>
       <c r="D33" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="E33" t="n">
         <v>1.766</v>
       </c>
       <c r="F33" t="n">
-        <v>2897626.2328</v>
+        <v>704978</v>
       </c>
       <c r="G33" t="n">
-        <v>1.770166666666666</v>
+        <v>1.7702</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.784</v>
+        <v>1.782</v>
       </c>
       <c r="C34" t="n">
-        <v>1.784</v>
+        <v>1.766</v>
       </c>
       <c r="D34" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="E34" t="n">
         <v>1.766</v>
       </c>
       <c r="F34" t="n">
-        <v>1590180</v>
+        <v>2897626.2328</v>
       </c>
       <c r="G34" t="n">
-        <v>1.770433333333333</v>
+        <v>1.770166666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,10 +1606,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.766</v>
+        <v>1.784</v>
       </c>
       <c r="C35" t="n">
-        <v>1.766</v>
+        <v>1.784</v>
       </c>
       <c r="D35" t="n">
         <v>1.784</v>
@@ -1600,10 +1618,10 @@
         <v>1.766</v>
       </c>
       <c r="F35" t="n">
-        <v>2064599</v>
+        <v>1590180</v>
       </c>
       <c r="G35" t="n">
-        <v>1.7704</v>
+        <v>1.770433333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.767</v>
+        <v>1.766</v>
       </c>
       <c r="C36" t="n">
-        <v>1.764</v>
+        <v>1.766</v>
       </c>
       <c r="D36" t="n">
-        <v>1.767</v>
+        <v>1.784</v>
       </c>
       <c r="E36" t="n">
-        <v>1.764</v>
+        <v>1.766</v>
       </c>
       <c r="F36" t="n">
-        <v>38784.03</v>
+        <v>2064599</v>
       </c>
       <c r="G36" t="n">
-        <v>1.77035</v>
+        <v>1.7704</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.762</v>
+        <v>1.767</v>
       </c>
       <c r="C37" t="n">
-        <v>1.762</v>
+        <v>1.764</v>
       </c>
       <c r="D37" t="n">
-        <v>1.762</v>
+        <v>1.767</v>
       </c>
       <c r="E37" t="n">
-        <v>1.762</v>
+        <v>1.764</v>
       </c>
       <c r="F37" t="n">
-        <v>772.371</v>
+        <v>38784.03</v>
       </c>
       <c r="G37" t="n">
-        <v>1.7703</v>
+        <v>1.77035</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.783</v>
+        <v>1.762</v>
       </c>
       <c r="C38" t="n">
-        <v>1.783</v>
+        <v>1.762</v>
       </c>
       <c r="D38" t="n">
-        <v>1.783</v>
+        <v>1.762</v>
       </c>
       <c r="E38" t="n">
-        <v>1.783</v>
+        <v>1.762</v>
       </c>
       <c r="F38" t="n">
-        <v>285</v>
+        <v>772.371</v>
       </c>
       <c r="G38" t="n">
-        <v>1.7706</v>
+        <v>1.7703</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1746,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="C39" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="D39" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="E39" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="F39" t="n">
-        <v>227267.3959</v>
+        <v>285</v>
       </c>
       <c r="G39" t="n">
-        <v>1.77095</v>
+        <v>1.7706</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1781,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="C40" t="n">
-        <v>1.766</v>
+        <v>1.784</v>
       </c>
       <c r="D40" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="E40" t="n">
-        <v>1.765</v>
+        <v>1.782</v>
       </c>
       <c r="F40" t="n">
-        <v>3568356.7289</v>
+        <v>227267.3959</v>
       </c>
       <c r="G40" t="n">
-        <v>1.771033333333333</v>
+        <v>1.77095</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C41" t="n">
         <v>1.766</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.782</v>
-      </c>
       <c r="D41" t="n">
         <v>1.783</v>
       </c>
       <c r="E41" t="n">
-        <v>1.766</v>
+        <v>1.765</v>
       </c>
       <c r="F41" t="n">
-        <v>287427.2711</v>
+        <v>3568356.7289</v>
       </c>
       <c r="G41" t="n">
-        <v>1.771383333333333</v>
+        <v>1.771033333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.783</v>
+        <v>1.766</v>
       </c>
       <c r="C42" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="D42" t="n">
         <v>1.783</v>
       </c>
       <c r="E42" t="n">
-        <v>1.783</v>
+        <v>1.766</v>
       </c>
       <c r="F42" t="n">
-        <v>4715</v>
+        <v>287427.2711</v>
       </c>
       <c r="G42" t="n">
-        <v>1.77175</v>
+        <v>1.771383333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,19 +1886,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="C43" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="D43" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="E43" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="F43" t="n">
-        <v>638.9186999999999</v>
+        <v>4715</v>
       </c>
       <c r="G43" t="n">
         <v>1.77175</v>
@@ -1915,10 +1933,10 @@
         <v>1.784</v>
       </c>
       <c r="F44" t="n">
-        <v>50322.2073</v>
+        <v>638.9186999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>1.772083333333334</v>
+        <v>1.77175</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1968,10 @@
         <v>1.784</v>
       </c>
       <c r="F45" t="n">
-        <v>75483.87149999999</v>
+        <v>50322.2073</v>
       </c>
       <c r="G45" t="n">
-        <v>1.772383333333334</v>
+        <v>1.772083333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1991,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.77</v>
+        <v>1.784</v>
       </c>
       <c r="C46" t="n">
-        <v>1.77</v>
+        <v>1.784</v>
       </c>
       <c r="D46" t="n">
-        <v>1.77</v>
+        <v>1.784</v>
       </c>
       <c r="E46" t="n">
-        <v>1.77</v>
+        <v>1.784</v>
       </c>
       <c r="F46" t="n">
-        <v>4926.2151</v>
+        <v>75483.87149999999</v>
       </c>
       <c r="G46" t="n">
-        <v>1.77245</v>
+        <v>1.772383333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2026,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.783</v>
+        <v>1.77</v>
       </c>
       <c r="C47" t="n">
-        <v>1.783</v>
+        <v>1.77</v>
       </c>
       <c r="D47" t="n">
-        <v>1.783</v>
+        <v>1.77</v>
       </c>
       <c r="E47" t="n">
-        <v>1.783</v>
+        <v>1.77</v>
       </c>
       <c r="F47" t="n">
-        <v>1033.871</v>
+        <v>4926.2151</v>
       </c>
       <c r="G47" t="n">
-        <v>1.772433333333333</v>
+        <v>1.77245</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2061,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.77</v>
+        <v>1.783</v>
       </c>
       <c r="C48" t="n">
-        <v>1.762</v>
+        <v>1.783</v>
       </c>
       <c r="D48" t="n">
-        <v>1.77</v>
+        <v>1.783</v>
       </c>
       <c r="E48" t="n">
-        <v>1.762</v>
+        <v>1.783</v>
       </c>
       <c r="F48" t="n">
-        <v>1214397.9177</v>
+        <v>1033.871</v>
       </c>
       <c r="G48" t="n">
-        <v>1.772366666666667</v>
+        <v>1.772433333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2096,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.782</v>
+        <v>1.77</v>
       </c>
       <c r="C49" t="n">
-        <v>1.763</v>
+        <v>1.762</v>
       </c>
       <c r="D49" t="n">
-        <v>1.782</v>
+        <v>1.77</v>
       </c>
       <c r="E49" t="n">
-        <v>1.763</v>
+        <v>1.762</v>
       </c>
       <c r="F49" t="n">
-        <v>2103740</v>
+        <v>1214397.9177</v>
       </c>
       <c r="G49" t="n">
-        <v>1.772</v>
+        <v>1.772366666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2134,19 @@
         <v>1.782</v>
       </c>
       <c r="C50" t="n">
-        <v>1.762</v>
+        <v>1.763</v>
       </c>
       <c r="D50" t="n">
         <v>1.782</v>
       </c>
       <c r="E50" t="n">
-        <v>1.762</v>
+        <v>1.763</v>
       </c>
       <c r="F50" t="n">
-        <v>2858986.761</v>
+        <v>2103740</v>
       </c>
       <c r="G50" t="n">
-        <v>1.771883333333333</v>
+        <v>1.772</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2169,19 @@
         <v>1.782</v>
       </c>
       <c r="C51" t="n">
-        <v>1.782</v>
+        <v>1.762</v>
       </c>
       <c r="D51" t="n">
         <v>1.782</v>
       </c>
       <c r="E51" t="n">
-        <v>1.782</v>
+        <v>1.762</v>
       </c>
       <c r="F51" t="n">
-        <v>982.8407999999999</v>
+        <v>2858986.761</v>
       </c>
       <c r="G51" t="n">
-        <v>1.7721</v>
+        <v>1.771883333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2204,19 @@
         <v>1.782</v>
       </c>
       <c r="C52" t="n">
-        <v>1.765</v>
+        <v>1.782</v>
       </c>
       <c r="D52" t="n">
         <v>1.782</v>
       </c>
       <c r="E52" t="n">
-        <v>1.765</v>
+        <v>1.782</v>
       </c>
       <c r="F52" t="n">
-        <v>1567835</v>
+        <v>982.8407999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>1.77205</v>
+        <v>1.7721</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2248,10 @@
         <v>1.765</v>
       </c>
       <c r="F53" t="n">
-        <v>2160533</v>
+        <v>1567835</v>
       </c>
       <c r="G53" t="n">
-        <v>1.772066666666667</v>
+        <v>1.77205</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2274,19 @@
         <v>1.782</v>
       </c>
       <c r="C54" t="n">
-        <v>1.782</v>
+        <v>1.765</v>
       </c>
       <c r="D54" t="n">
         <v>1.782</v>
       </c>
       <c r="E54" t="n">
-        <v>1.782</v>
+        <v>1.765</v>
       </c>
       <c r="F54" t="n">
-        <v>283.3264</v>
+        <v>2160533</v>
       </c>
       <c r="G54" t="n">
-        <v>1.772416666666667</v>
+        <v>1.772066666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="C55" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="D55" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="E55" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="F55" t="n">
-        <v>292.5875</v>
+        <v>283.3264</v>
       </c>
       <c r="G55" t="n">
-        <v>1.772666666666667</v>
+        <v>1.772416666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2353,10 @@
         <v>1.783</v>
       </c>
       <c r="F56" t="n">
-        <v>1512.6528</v>
+        <v>292.5875</v>
       </c>
       <c r="G56" t="n">
-        <v>1.773166666666667</v>
+        <v>1.772666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2388,10 @@
         <v>1.783</v>
       </c>
       <c r="F57" t="n">
-        <v>1256.173</v>
+        <v>1512.6528</v>
       </c>
       <c r="G57" t="n">
-        <v>1.7734</v>
+        <v>1.773166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2423,10 @@
         <v>1.783</v>
       </c>
       <c r="F58" t="n">
-        <v>384.1614</v>
+        <v>1256.173</v>
       </c>
       <c r="G58" t="n">
-        <v>1.773633333333333</v>
+        <v>1.7734</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="C59" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="D59" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="E59" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="F59" t="n">
-        <v>311.2878</v>
+        <v>384.1614</v>
       </c>
       <c r="G59" t="n">
-        <v>1.774116666666667</v>
+        <v>1.773633333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="C60" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="D60" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="E60" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="F60" t="n">
-        <v>331.5647</v>
+        <v>311.2878</v>
       </c>
       <c r="G60" t="n">
-        <v>1.774333333333333</v>
+        <v>1.774116666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="C61" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="D61" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="E61" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="F61" t="n">
-        <v>697.3178</v>
+        <v>331.5647</v>
       </c>
       <c r="G61" t="n">
-        <v>1.774783333333333</v>
+        <v>1.774333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="C62" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="D62" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="E62" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="F62" t="n">
-        <v>447.1364</v>
+        <v>697.3178</v>
       </c>
       <c r="G62" t="n">
-        <v>1.775233333333333</v>
+        <v>1.774783333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2586,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="C63" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="D63" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="E63" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="F63" t="n">
-        <v>631.838</v>
+        <v>447.1364</v>
       </c>
       <c r="G63" t="n">
-        <v>1.77545</v>
+        <v>1.775233333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="C64" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="D64" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="E64" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="F64" t="n">
-        <v>3791.7564</v>
+        <v>631.838</v>
       </c>
       <c r="G64" t="n">
-        <v>1.775666666666667</v>
+        <v>1.77545</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.776</v>
+        <v>1.777</v>
       </c>
       <c r="C65" t="n">
-        <v>1.775</v>
+        <v>1.777</v>
       </c>
       <c r="D65" t="n">
-        <v>1.776</v>
+        <v>1.777</v>
       </c>
       <c r="E65" t="n">
-        <v>1.775</v>
+        <v>1.777</v>
       </c>
       <c r="F65" t="n">
-        <v>1375.6347</v>
+        <v>3791.7564</v>
       </c>
       <c r="G65" t="n">
-        <v>1.776033333333334</v>
+        <v>1.775666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2691,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.774</v>
+        <v>1.776</v>
       </c>
       <c r="C66" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="D66" t="n">
-        <v>1.774</v>
+        <v>1.776</v>
       </c>
       <c r="E66" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="F66" t="n">
-        <v>47878.5845</v>
+        <v>1375.6347</v>
       </c>
       <c r="G66" t="n">
-        <v>1.77615</v>
+        <v>1.776033333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2726,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="C67" t="n">
         <v>1.772</v>
       </c>
-      <c r="C67" t="n">
-        <v>1.771</v>
-      </c>
       <c r="D67" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="E67" t="n">
         <v>1.772</v>
       </c>
-      <c r="E67" t="n">
-        <v>1.771</v>
-      </c>
       <c r="F67" t="n">
-        <v>62052.7896</v>
+        <v>47878.5845</v>
       </c>
       <c r="G67" t="n">
-        <v>1.77625</v>
+        <v>1.77615</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,32 +2761,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C68" t="n">
         <v>1.771</v>
       </c>
-      <c r="C68" t="n">
-        <v>1.773</v>
-      </c>
       <c r="D68" t="n">
-        <v>1.773</v>
+        <v>1.772</v>
       </c>
       <c r="E68" t="n">
         <v>1.771</v>
       </c>
       <c r="F68" t="n">
-        <v>10792.4518</v>
+        <v>62052.7896</v>
       </c>
       <c r="G68" t="n">
-        <v>1.776083333333333</v>
+        <v>1.77625</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +2802,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C69" t="n">
         <v>1.773</v>
       </c>
-      <c r="C69" t="n">
-        <v>1.775</v>
-      </c>
       <c r="D69" t="n">
-        <v>1.775</v>
+        <v>1.773</v>
       </c>
       <c r="E69" t="n">
-        <v>1.773</v>
+        <v>1.771</v>
       </c>
       <c r="F69" t="n">
-        <v>41326.0422</v>
+        <v>10792.4518</v>
       </c>
       <c r="G69" t="n">
-        <v>1.77625</v>
+        <v>1.776083333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.771</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,7 +2843,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.774</v>
+        <v>1.773</v>
       </c>
       <c r="C70" t="n">
         <v>1.775</v>
@@ -2822,13 +2852,13 @@
         <v>1.775</v>
       </c>
       <c r="E70" t="n">
-        <v>1.774</v>
+        <v>1.773</v>
       </c>
       <c r="F70" t="n">
-        <v>2874.3322</v>
+        <v>41326.0422</v>
       </c>
       <c r="G70" t="n">
-        <v>1.776433333333334</v>
+        <v>1.77625</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2868,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2882,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.77</v>
+        <v>1.774</v>
       </c>
       <c r="C71" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="D71" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="E71" t="n">
-        <v>1.77</v>
+        <v>1.774</v>
       </c>
       <c r="F71" t="n">
-        <v>4059.9225</v>
+        <v>2874.3322</v>
       </c>
       <c r="G71" t="n">
-        <v>1.776216666666667</v>
+        <v>1.776433333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2907,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2921,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="C72" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="D72" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="E72" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="F72" t="n">
-        <v>15287.2384</v>
+        <v>4059.9225</v>
       </c>
       <c r="G72" t="n">
-        <v>1.776333333333334</v>
+        <v>1.776216666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +2946,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +2960,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="C73" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="D73" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E73" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="F73" t="n">
-        <v>2408.7643</v>
+        <v>15287.2384</v>
       </c>
       <c r="G73" t="n">
-        <v>1.776066666666667</v>
+        <v>1.776333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +2985,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +2999,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="C74" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="D74" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="E74" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="F74" t="n">
-        <v>11829.5225</v>
+        <v>2408.7643</v>
       </c>
       <c r="G74" t="n">
-        <v>1.775850000000001</v>
+        <v>1.776066666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3024,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3038,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.774</v>
+        <v>1.769</v>
       </c>
       <c r="C75" t="n">
-        <v>1.774</v>
+        <v>1.769</v>
       </c>
       <c r="D75" t="n">
-        <v>1.774</v>
+        <v>1.769</v>
       </c>
       <c r="E75" t="n">
-        <v>1.774</v>
+        <v>1.769</v>
       </c>
       <c r="F75" t="n">
-        <v>13335.5011</v>
+        <v>11829.5225</v>
       </c>
       <c r="G75" t="n">
-        <v>1.776016666666667</v>
+        <v>1.775850000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3063,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3035,10 +3089,10 @@
         <v>1.774</v>
       </c>
       <c r="F76" t="n">
-        <v>35932.7197</v>
+        <v>13335.5011</v>
       </c>
       <c r="G76" t="n">
-        <v>1.775883333333334</v>
+        <v>1.776016666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3102,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3116,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.775</v>
+        <v>1.774</v>
       </c>
       <c r="C77" t="n">
-        <v>1.775</v>
+        <v>1.774</v>
       </c>
       <c r="D77" t="n">
-        <v>1.775</v>
+        <v>1.774</v>
       </c>
       <c r="E77" t="n">
-        <v>1.775</v>
+        <v>1.774</v>
       </c>
       <c r="F77" t="n">
-        <v>150000</v>
+        <v>35932.7197</v>
       </c>
       <c r="G77" t="n">
-        <v>1.775783333333334</v>
+        <v>1.775883333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3141,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3105,10 +3167,10 @@
         <v>1.775</v>
       </c>
       <c r="F78" t="n">
-        <v>133168.1377</v>
+        <v>150000</v>
       </c>
       <c r="G78" t="n">
-        <v>1.775683333333334</v>
+        <v>1.775783333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3180,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3206,10 @@
         <v>1.775</v>
       </c>
       <c r="F79" t="n">
-        <v>45340.4011</v>
+        <v>133168.1377</v>
       </c>
       <c r="G79" t="n">
-        <v>1.775866666666668</v>
+        <v>1.775683333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3219,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3245,10 @@
         <v>1.775</v>
       </c>
       <c r="F80" t="n">
-        <v>84999.2855</v>
+        <v>45340.4011</v>
       </c>
       <c r="G80" t="n">
-        <v>1.775783333333334</v>
+        <v>1.775866666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3258,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3272,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.777</v>
+        <v>1.775</v>
       </c>
       <c r="C81" t="n">
-        <v>1.777</v>
+        <v>1.775</v>
       </c>
       <c r="D81" t="n">
-        <v>1.777</v>
+        <v>1.775</v>
       </c>
       <c r="E81" t="n">
-        <v>1.777</v>
+        <v>1.775</v>
       </c>
       <c r="F81" t="n">
-        <v>285</v>
+        <v>84999.2855</v>
       </c>
       <c r="G81" t="n">
-        <v>1.775733333333334</v>
+        <v>1.775783333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3297,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3323,10 @@
         <v>1.777</v>
       </c>
       <c r="F82" t="n">
-        <v>54205.4637</v>
+        <v>285</v>
       </c>
       <c r="G82" t="n">
-        <v>1.775600000000001</v>
+        <v>1.775733333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3336,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3350,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="C83" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="D83" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="E83" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="F83" t="n">
-        <v>285</v>
+        <v>54205.4637</v>
       </c>
       <c r="G83" t="n">
-        <v>1.775500000000001</v>
+        <v>1.775600000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3375,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3315,10 +3401,10 @@
         <v>1.778</v>
       </c>
       <c r="F84" t="n">
-        <v>71888.85430000001</v>
+        <v>285</v>
       </c>
       <c r="G84" t="n">
-        <v>1.775400000000001</v>
+        <v>1.775500000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3414,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3428,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.776</v>
+        <v>1.778</v>
       </c>
       <c r="C85" t="n">
-        <v>1.776</v>
+        <v>1.778</v>
       </c>
       <c r="D85" t="n">
-        <v>1.776</v>
+        <v>1.778</v>
       </c>
       <c r="E85" t="n">
-        <v>1.776</v>
+        <v>1.778</v>
       </c>
       <c r="F85" t="n">
-        <v>285</v>
+        <v>71888.85430000001</v>
       </c>
       <c r="G85" t="n">
-        <v>1.775283333333334</v>
+        <v>1.775400000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3453,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3467,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="C86" t="n">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="D86" t="n">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="E86" t="n">
-        <v>1.775</v>
+        <v>1.776</v>
       </c>
       <c r="F86" t="n">
-        <v>1462.7397</v>
+        <v>285</v>
       </c>
       <c r="G86" t="n">
-        <v>1.775150000000001</v>
+        <v>1.775283333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3492,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3506,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="C87" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="D87" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="E87" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="F87" t="n">
-        <v>22261.0248</v>
+        <v>1462.7397</v>
       </c>
       <c r="G87" t="n">
-        <v>1.775216666666668</v>
+        <v>1.775150000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3531,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3545,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="C88" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="D88" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="E88" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="F88" t="n">
-        <v>568.5048</v>
+        <v>22261.0248</v>
       </c>
       <c r="G88" t="n">
-        <v>1.774966666666667</v>
+        <v>1.775216666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3570,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3584,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="C89" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="D89" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="E89" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="F89" t="n">
-        <v>27933</v>
+        <v>568.5048</v>
       </c>
       <c r="G89" t="n">
-        <v>1.774716666666667</v>
+        <v>1.774966666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3609,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3623,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.77</v>
+        <v>1.769</v>
       </c>
       <c r="C90" t="n">
-        <v>1.77</v>
+        <v>1.769</v>
       </c>
       <c r="D90" t="n">
-        <v>1.77</v>
+        <v>1.769</v>
       </c>
       <c r="E90" t="n">
-        <v>1.77</v>
+        <v>1.769</v>
       </c>
       <c r="F90" t="n">
-        <v>10059.6462</v>
+        <v>27933</v>
       </c>
       <c r="G90" t="n">
-        <v>1.774500000000001</v>
+        <v>1.774716666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3648,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,36 +3662,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.775</v>
+        <v>1.77</v>
       </c>
       <c r="C91" t="n">
-        <v>1.775</v>
+        <v>1.77</v>
       </c>
       <c r="D91" t="n">
-        <v>1.775</v>
+        <v>1.77</v>
       </c>
       <c r="E91" t="n">
-        <v>1.775</v>
+        <v>1.77</v>
       </c>
       <c r="F91" t="n">
-        <v>5560.6423</v>
+        <v>10059.6462</v>
       </c>
       <c r="G91" t="n">
-        <v>1.774650000000001</v>
+        <v>1.774500000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3587,38 +3701,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="C92" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="D92" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="E92" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="F92" t="n">
-        <v>67369.46000000001</v>
+        <v>5560.6423</v>
       </c>
       <c r="G92" t="n">
-        <v>1.774750000000001</v>
+        <v>1.774650000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3642,26 +3752,22 @@
         <v>1.772</v>
       </c>
       <c r="F93" t="n">
-        <v>28525.87</v>
+        <v>67369.46000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>1.774850000000001</v>
+        <v>1.774750000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3673,22 +3779,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.768</v>
+        <v>1.772</v>
       </c>
       <c r="C94" t="n">
-        <v>1.768</v>
+        <v>1.772</v>
       </c>
       <c r="D94" t="n">
-        <v>1.768</v>
+        <v>1.772</v>
       </c>
       <c r="E94" t="n">
-        <v>1.768</v>
+        <v>1.772</v>
       </c>
       <c r="F94" t="n">
-        <v>18114.2732</v>
+        <v>28525.87</v>
       </c>
       <c r="G94" t="n">
-        <v>1.774583333333334</v>
+        <v>1.774850000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,7 +3804,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3708,36 +3818,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.767</v>
+        <v>1.768</v>
       </c>
       <c r="C95" t="n">
-        <v>1.765</v>
+        <v>1.768</v>
       </c>
       <c r="D95" t="n">
-        <v>1.767</v>
+        <v>1.768</v>
       </c>
       <c r="E95" t="n">
-        <v>1.765</v>
+        <v>1.768</v>
       </c>
       <c r="F95" t="n">
-        <v>36519.3326</v>
+        <v>18114.2732</v>
       </c>
       <c r="G95" t="n">
-        <v>1.774566666666667</v>
+        <v>1.774583333333334</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1.768</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3749,32 +3857,30 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.764</v>
+        <v>1.767</v>
       </c>
       <c r="C96" t="n">
-        <v>1.764</v>
+        <v>1.765</v>
       </c>
       <c r="D96" t="n">
-        <v>1.764</v>
+        <v>1.767</v>
       </c>
       <c r="E96" t="n">
-        <v>1.764</v>
+        <v>1.765</v>
       </c>
       <c r="F96" t="n">
-        <v>25730.1217</v>
+        <v>36519.3326</v>
       </c>
       <c r="G96" t="n">
         <v>1.774566666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1.765</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3790,32 +3896,30 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.773</v>
+        <v>1.764</v>
       </c>
       <c r="C97" t="n">
-        <v>1.772</v>
+        <v>1.764</v>
       </c>
       <c r="D97" t="n">
-        <v>1.773</v>
+        <v>1.764</v>
       </c>
       <c r="E97" t="n">
-        <v>1.772</v>
+        <v>1.764</v>
       </c>
       <c r="F97" t="n">
-        <v>570</v>
+        <v>25730.1217</v>
       </c>
       <c r="G97" t="n">
-        <v>1.774733333333334</v>
+        <v>1.774566666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1.764</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -3831,22 +3935,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.764</v>
+        <v>1.773</v>
       </c>
       <c r="C98" t="n">
-        <v>1.764</v>
+        <v>1.772</v>
       </c>
       <c r="D98" t="n">
-        <v>1.764</v>
+        <v>1.773</v>
       </c>
       <c r="E98" t="n">
-        <v>1.764</v>
+        <v>1.772</v>
       </c>
       <c r="F98" t="n">
-        <v>1544.4579</v>
+        <v>570</v>
       </c>
       <c r="G98" t="n">
-        <v>1.774416666666667</v>
+        <v>1.774733333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3870,22 +3974,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.772</v>
+        <v>1.764</v>
       </c>
       <c r="C99" t="n">
-        <v>1.772</v>
+        <v>1.764</v>
       </c>
       <c r="D99" t="n">
-        <v>1.772</v>
+        <v>1.764</v>
       </c>
       <c r="E99" t="n">
-        <v>1.772</v>
+        <v>1.764</v>
       </c>
       <c r="F99" t="n">
-        <v>9774.646199999999</v>
+        <v>1544.4579</v>
       </c>
       <c r="G99" t="n">
-        <v>1.774216666666667</v>
+        <v>1.774416666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3924,17 +4028,15 @@
         <v>9774.646199999999</v>
       </c>
       <c r="G100" t="n">
-        <v>1.774316666666667</v>
+        <v>1.774216666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1.772</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -3950,32 +4052,30 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.773</v>
+        <v>1.772</v>
       </c>
       <c r="C101" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="D101" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="E101" t="n">
-        <v>1.773</v>
+        <v>1.772</v>
       </c>
       <c r="F101" t="n">
-        <v>447992.1648</v>
+        <v>9774.646199999999</v>
       </c>
       <c r="G101" t="n">
-        <v>1.774200000000001</v>
+        <v>1.774316666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1.772</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -3991,7 +4091,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.775</v>
+        <v>1.773</v>
       </c>
       <c r="C102" t="n">
         <v>1.775</v>
@@ -4000,23 +4100,21 @@
         <v>1.775</v>
       </c>
       <c r="E102" t="n">
-        <v>1.775</v>
+        <v>1.773</v>
       </c>
       <c r="F102" t="n">
-        <v>35643.7708</v>
+        <v>447992.1648</v>
       </c>
       <c r="G102" t="n">
-        <v>1.774066666666667</v>
+        <v>1.774200000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1.775</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4044,20 +4142,18 @@
         <v>1.775</v>
       </c>
       <c r="F103" t="n">
-        <v>87403.17170000001</v>
+        <v>35643.7708</v>
       </c>
       <c r="G103" t="n">
-        <v>1.773916666666667</v>
+        <v>1.774066666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1.775</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4073,32 +4169,30 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.765</v>
+        <v>1.775</v>
       </c>
       <c r="C104" t="n">
-        <v>1.776</v>
+        <v>1.775</v>
       </c>
       <c r="D104" t="n">
-        <v>1.776</v>
+        <v>1.775</v>
       </c>
       <c r="E104" t="n">
-        <v>1.765</v>
+        <v>1.775</v>
       </c>
       <c r="F104" t="n">
-        <v>2252514.0367</v>
+        <v>87403.17170000001</v>
       </c>
       <c r="G104" t="n">
-        <v>1.773783333333334</v>
+        <v>1.773916666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1.775</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4114,22 +4208,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.778</v>
+        <v>1.765</v>
       </c>
       <c r="C105" t="n">
-        <v>1.782</v>
+        <v>1.776</v>
       </c>
       <c r="D105" t="n">
-        <v>1.782</v>
+        <v>1.776</v>
       </c>
       <c r="E105" t="n">
-        <v>1.778</v>
+        <v>1.765</v>
       </c>
       <c r="F105" t="n">
-        <v>82933.9869</v>
+        <v>2252514.0367</v>
       </c>
       <c r="G105" t="n">
-        <v>1.77375</v>
+        <v>1.773783333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4153,32 +4247,30 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.781</v>
+        <v>1.778</v>
       </c>
       <c r="C106" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="D106" t="n">
-        <v>1.781</v>
+        <v>1.782</v>
       </c>
       <c r="E106" t="n">
-        <v>1.781</v>
+        <v>1.778</v>
       </c>
       <c r="F106" t="n">
-        <v>285</v>
+        <v>82933.9869</v>
       </c>
       <c r="G106" t="n">
-        <v>1.773933333333334</v>
+        <v>1.77375</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1.782</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4194,61 +4286,61 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="C107" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="D107" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="E107" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="F107" t="n">
         <v>285</v>
       </c>
       <c r="G107" t="n">
-        <v>1.773883333333334</v>
+        <v>1.773933333333334</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.781</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.776</v>
+        <v>1.78</v>
       </c>
       <c r="C108" t="n">
-        <v>1.776</v>
+        <v>1.78</v>
       </c>
       <c r="D108" t="n">
-        <v>1.776</v>
+        <v>1.78</v>
       </c>
       <c r="E108" t="n">
-        <v>1.776</v>
+        <v>1.78</v>
       </c>
       <c r="F108" t="n">
-        <v>126857.4116</v>
+        <v>285</v>
       </c>
       <c r="G108" t="n">
-        <v>1.774116666666667</v>
+        <v>1.773883333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4257,12 +4349,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1.782</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -4286,10 +4376,10 @@
         <v>1.776</v>
       </c>
       <c r="F109" t="n">
-        <v>32590.1602</v>
+        <v>126857.4116</v>
       </c>
       <c r="G109" t="n">
-        <v>1.774333333333334</v>
+        <v>1.774116666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4299,7 +4389,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4321,10 +4415,10 @@
         <v>1.776</v>
       </c>
       <c r="F110" t="n">
-        <v>98129.3388</v>
+        <v>32590.1602</v>
       </c>
       <c r="G110" t="n">
-        <v>1.774566666666667</v>
+        <v>1.774333333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4334,7 +4428,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4356,10 +4454,10 @@
         <v>1.776</v>
       </c>
       <c r="F111" t="n">
-        <v>961069.2446</v>
+        <v>98129.3388</v>
       </c>
       <c r="G111" t="n">
-        <v>1.774466666666667</v>
+        <v>1.774566666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4369,7 +4467,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4379,22 +4481,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.78</v>
+        <v>1.776</v>
       </c>
       <c r="C112" t="n">
-        <v>1.78</v>
+        <v>1.776</v>
       </c>
       <c r="D112" t="n">
-        <v>1.78</v>
+        <v>1.776</v>
       </c>
       <c r="E112" t="n">
-        <v>1.78</v>
+        <v>1.776</v>
       </c>
       <c r="F112" t="n">
-        <v>1282677.5028</v>
+        <v>961069.2446</v>
       </c>
       <c r="G112" t="n">
-        <v>1.774716666666667</v>
+        <v>1.774466666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4404,7 +4506,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4426,10 +4532,10 @@
         <v>1.78</v>
       </c>
       <c r="F113" t="n">
-        <v>382274.4318</v>
+        <v>1282677.5028</v>
       </c>
       <c r="G113" t="n">
-        <v>1.774966666666667</v>
+        <v>1.774716666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4439,7 +4545,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4452,16 +4562,16 @@
         <v>1.78</v>
       </c>
       <c r="C114" t="n">
-        <v>1.782</v>
+        <v>1.78</v>
       </c>
       <c r="D114" t="n">
-        <v>1.782</v>
+        <v>1.78</v>
       </c>
       <c r="E114" t="n">
         <v>1.78</v>
       </c>
       <c r="F114" t="n">
-        <v>313789.8423</v>
+        <v>382274.4318</v>
       </c>
       <c r="G114" t="n">
         <v>1.774966666666667</v>
@@ -4474,7 +4584,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4487,19 +4601,19 @@
         <v>1.78</v>
       </c>
       <c r="C115" t="n">
-        <v>1.768</v>
+        <v>1.782</v>
       </c>
       <c r="D115" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="E115" t="n">
         <v>1.78</v>
       </c>
-      <c r="E115" t="n">
-        <v>1.768</v>
-      </c>
       <c r="F115" t="n">
-        <v>534758</v>
+        <v>313789.8423</v>
       </c>
       <c r="G115" t="n">
-        <v>1.774716666666667</v>
+        <v>1.774966666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4509,7 +4623,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4519,22 +4637,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.782</v>
+        <v>1.78</v>
       </c>
       <c r="C116" t="n">
-        <v>1.782</v>
+        <v>1.768</v>
       </c>
       <c r="D116" t="n">
-        <v>1.782</v>
+        <v>1.78</v>
       </c>
       <c r="E116" t="n">
-        <v>1.782</v>
+        <v>1.768</v>
       </c>
       <c r="F116" t="n">
-        <v>968.5774</v>
+        <v>534758</v>
       </c>
       <c r="G116" t="n">
-        <v>1.7747</v>
+        <v>1.774716666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4544,7 +4662,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4554,19 +4676,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="C117" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="D117" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="E117" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="F117" t="n">
-        <v>455.3602</v>
+        <v>968.5774</v>
       </c>
       <c r="G117" t="n">
         <v>1.7747</v>
@@ -4579,7 +4701,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4601,7 +4727,7 @@
         <v>1.783</v>
       </c>
       <c r="F118" t="n">
-        <v>559454.6093</v>
+        <v>455.3602</v>
       </c>
       <c r="G118" t="n">
         <v>1.7747</v>
@@ -4614,7 +4740,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4624,22 +4754,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.769</v>
+        <v>1.783</v>
       </c>
       <c r="C119" t="n">
-        <v>1.769</v>
+        <v>1.783</v>
       </c>
       <c r="D119" t="n">
-        <v>1.769</v>
+        <v>1.783</v>
       </c>
       <c r="E119" t="n">
-        <v>1.769</v>
+        <v>1.783</v>
       </c>
       <c r="F119" t="n">
-        <v>972.701</v>
+        <v>559454.6093</v>
       </c>
       <c r="G119" t="n">
-        <v>1.774483333333334</v>
+        <v>1.7747</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4649,10 +4779,12 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4671,10 +4803,10 @@
         <v>1.769</v>
       </c>
       <c r="F120" t="n">
-        <v>402.0081</v>
+        <v>972.701</v>
       </c>
       <c r="G120" t="n">
-        <v>1.774283333333334</v>
+        <v>1.774483333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4706,10 +4838,10 @@
         <v>1.769</v>
       </c>
       <c r="F121" t="n">
-        <v>620.7566</v>
+        <v>402.0081</v>
       </c>
       <c r="G121" t="n">
-        <v>1.7741</v>
+        <v>1.774283333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4729,22 +4861,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.783</v>
+        <v>1.769</v>
       </c>
       <c r="C122" t="n">
-        <v>1.783</v>
+        <v>1.769</v>
       </c>
       <c r="D122" t="n">
-        <v>1.783</v>
+        <v>1.769</v>
       </c>
       <c r="E122" t="n">
-        <v>1.783</v>
+        <v>1.769</v>
       </c>
       <c r="F122" t="n">
-        <v>196965.9921</v>
+        <v>620.7566</v>
       </c>
       <c r="G122" t="n">
-        <v>1.774166666666667</v>
+        <v>1.7741</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4764,22 +4896,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.77</v>
+        <v>1.783</v>
       </c>
       <c r="C123" t="n">
-        <v>1.769</v>
+        <v>1.783</v>
       </c>
       <c r="D123" t="n">
-        <v>1.77</v>
+        <v>1.783</v>
       </c>
       <c r="E123" t="n">
-        <v>1.769</v>
+        <v>1.783</v>
       </c>
       <c r="F123" t="n">
-        <v>288655.4093</v>
+        <v>196965.9921</v>
       </c>
       <c r="G123" t="n">
-        <v>1.774016666666667</v>
+        <v>1.774166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4799,22 +4931,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.782</v>
+        <v>1.77</v>
       </c>
       <c r="C124" t="n">
-        <v>1.782</v>
+        <v>1.769</v>
       </c>
       <c r="D124" t="n">
-        <v>1.782</v>
+        <v>1.77</v>
       </c>
       <c r="E124" t="n">
-        <v>1.782</v>
+        <v>1.769</v>
       </c>
       <c r="F124" t="n">
-        <v>10000</v>
+        <v>288655.4093</v>
       </c>
       <c r="G124" t="n">
-        <v>1.7741</v>
+        <v>1.774016666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4834,22 +4966,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="C125" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="D125" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="E125" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="F125" t="n">
-        <v>285</v>
+        <v>10000</v>
       </c>
       <c r="G125" t="n">
-        <v>1.774233333333334</v>
+        <v>1.7741</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4869,22 +5001,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="C126" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="D126" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="E126" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="F126" t="n">
-        <v>90000</v>
+        <v>285</v>
       </c>
       <c r="G126" t="n">
-        <v>1.7744</v>
+        <v>1.774233333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4904,28 +5036,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="D127" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="E127" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="F127" t="n">
-        <v>736.5389</v>
+        <v>90000</v>
       </c>
       <c r="G127" t="n">
-        <v>1.7746</v>
+        <v>1.7744</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4939,22 +5071,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.772</v>
+        <v>1.783</v>
       </c>
       <c r="C128" t="n">
-        <v>1.772</v>
+        <v>1.783</v>
       </c>
       <c r="D128" t="n">
-        <v>1.772</v>
+        <v>1.783</v>
       </c>
       <c r="E128" t="n">
-        <v>1.772</v>
+        <v>1.783</v>
       </c>
       <c r="F128" t="n">
-        <v>70000</v>
+        <v>736.5389</v>
       </c>
       <c r="G128" t="n">
-        <v>1.774583333333334</v>
+        <v>1.7746</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4974,22 +5106,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.783</v>
+        <v>1.772</v>
       </c>
       <c r="C129" t="n">
-        <v>1.783</v>
+        <v>1.772</v>
       </c>
       <c r="D129" t="n">
-        <v>1.783</v>
+        <v>1.772</v>
       </c>
       <c r="E129" t="n">
-        <v>1.783</v>
+        <v>1.772</v>
       </c>
       <c r="F129" t="n">
-        <v>138582.1648906338</v>
+        <v>70000</v>
       </c>
       <c r="G129" t="n">
-        <v>1.774716666666667</v>
+        <v>1.774583333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5021,10 +5153,10 @@
         <v>1.783</v>
       </c>
       <c r="F130" t="n">
-        <v>34975.8306</v>
+        <v>138582.1648906338</v>
       </c>
       <c r="G130" t="n">
-        <v>1.77485</v>
+        <v>1.774716666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5053,13 +5185,13 @@
         <v>1.783</v>
       </c>
       <c r="E131" t="n">
-        <v>1.772</v>
+        <v>1.783</v>
       </c>
       <c r="F131" t="n">
-        <v>290376.9301</v>
+        <v>34975.8306</v>
       </c>
       <c r="G131" t="n">
-        <v>1.775066666666667</v>
+        <v>1.77485</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5088,13 +5220,13 @@
         <v>1.783</v>
       </c>
       <c r="E132" t="n">
-        <v>1.783</v>
+        <v>1.772</v>
       </c>
       <c r="F132" t="n">
-        <v>77707.63219999999</v>
+        <v>290376.9301</v>
       </c>
       <c r="G132" t="n">
-        <v>1.7753</v>
+        <v>1.775066666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5126,10 +5258,10 @@
         <v>1.783</v>
       </c>
       <c r="F133" t="n">
-        <v>54317.5897</v>
+        <v>77707.63219999999</v>
       </c>
       <c r="G133" t="n">
-        <v>1.77555</v>
+        <v>1.7753</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5152,19 +5284,19 @@
         <v>1.783</v>
       </c>
       <c r="C134" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="D134" t="n">
         <v>1.783</v>
       </c>
       <c r="E134" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="F134" t="n">
-        <v>52867.5727</v>
+        <v>54317.5897</v>
       </c>
       <c r="G134" t="n">
-        <v>1.775766666666667</v>
+        <v>1.77555</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5184,22 +5316,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="C135" t="n">
         <v>1.782</v>
       </c>
       <c r="D135" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="E135" t="n">
         <v>1.782</v>
       </c>
       <c r="F135" t="n">
-        <v>32732.6017</v>
+        <v>52867.5727</v>
       </c>
       <c r="G135" t="n">
-        <v>1.7759</v>
+        <v>1.775766666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5231,10 +5363,10 @@
         <v>1.782</v>
       </c>
       <c r="F136" t="n">
-        <v>80165.08229999999</v>
+        <v>32732.6017</v>
       </c>
       <c r="G136" t="n">
-        <v>1.776033333333333</v>
+        <v>1.7759</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5257,19 +5389,19 @@
         <v>1.782</v>
       </c>
       <c r="C137" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="D137" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="E137" t="n">
         <v>1.782</v>
       </c>
       <c r="F137" t="n">
-        <v>694958.8753093663</v>
+        <v>80165.08229999999</v>
       </c>
       <c r="G137" t="n">
-        <v>1.776166666666666</v>
+        <v>1.776033333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5289,7 +5421,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="C138" t="n">
         <v>1.783</v>
@@ -5298,13 +5430,13 @@
         <v>1.783</v>
       </c>
       <c r="E138" t="n">
-        <v>1.783</v>
+        <v>1.782</v>
       </c>
       <c r="F138" t="n">
-        <v>607635.7543906338</v>
+        <v>694958.8753093663</v>
       </c>
       <c r="G138" t="n">
-        <v>1.7763</v>
+        <v>1.776166666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5324,22 +5456,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="C139" t="n">
-        <v>1.786</v>
+        <v>1.783</v>
       </c>
       <c r="D139" t="n">
-        <v>1.786</v>
+        <v>1.783</v>
       </c>
       <c r="E139" t="n">
-        <v>1.784</v>
+        <v>1.783</v>
       </c>
       <c r="F139" t="n">
-        <v>26992.4553</v>
+        <v>607635.7543906338</v>
       </c>
       <c r="G139" t="n">
-        <v>1.776483333333333</v>
+        <v>1.7763</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5359,22 +5491,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C140" t="n">
         <v>1.786</v>
       </c>
-      <c r="C140" t="n">
-        <v>1.788</v>
-      </c>
       <c r="D140" t="n">
-        <v>1.788</v>
+        <v>1.786</v>
       </c>
       <c r="E140" t="n">
-        <v>1.786</v>
+        <v>1.784</v>
       </c>
       <c r="F140" t="n">
-        <v>982104.2226</v>
+        <v>26992.4553</v>
       </c>
       <c r="G140" t="n">
-        <v>1.7767</v>
+        <v>1.776483333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5394,7 +5526,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.788</v>
+        <v>1.786</v>
       </c>
       <c r="C141" t="n">
         <v>1.788</v>
@@ -5403,13 +5535,13 @@
         <v>1.788</v>
       </c>
       <c r="E141" t="n">
-        <v>1.788</v>
+        <v>1.786</v>
       </c>
       <c r="F141" t="n">
-        <v>12381.1657</v>
+        <v>982104.2226</v>
       </c>
       <c r="G141" t="n">
-        <v>1.776883333333333</v>
+        <v>1.7767</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5441,10 +5573,10 @@
         <v>1.788</v>
       </c>
       <c r="F142" t="n">
-        <v>25550.1915</v>
+        <v>12381.1657</v>
       </c>
       <c r="G142" t="n">
-        <v>1.777066666666666</v>
+        <v>1.776883333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5476,10 +5608,10 @@
         <v>1.788</v>
       </c>
       <c r="F143" t="n">
-        <v>11557.4099</v>
+        <v>25550.1915</v>
       </c>
       <c r="G143" t="n">
-        <v>1.777233333333333</v>
+        <v>1.777066666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5511,10 +5643,10 @@
         <v>1.788</v>
       </c>
       <c r="F144" t="n">
-        <v>10890.1722</v>
+        <v>11557.4099</v>
       </c>
       <c r="G144" t="n">
-        <v>1.777399999999999</v>
+        <v>1.777233333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5546,10 +5678,10 @@
         <v>1.788</v>
       </c>
       <c r="F145" t="n">
-        <v>7262.9653</v>
+        <v>10890.1722</v>
       </c>
       <c r="G145" t="n">
-        <v>1.777599999999999</v>
+        <v>1.777399999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5581,10 +5713,10 @@
         <v>1.788</v>
       </c>
       <c r="F146" t="n">
-        <v>5438.2675</v>
+        <v>7262.9653</v>
       </c>
       <c r="G146" t="n">
-        <v>1.777816666666666</v>
+        <v>1.777599999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5616,10 +5748,10 @@
         <v>1.788</v>
       </c>
       <c r="F147" t="n">
-        <v>5955.7557</v>
+        <v>5438.2675</v>
       </c>
       <c r="G147" t="n">
-        <v>1.778116666666666</v>
+        <v>1.777816666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5651,10 +5783,10 @@
         <v>1.788</v>
       </c>
       <c r="F148" t="n">
-        <v>1950.1201</v>
+        <v>5955.7557</v>
       </c>
       <c r="G148" t="n">
-        <v>1.778449999999999</v>
+        <v>1.778116666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5674,22 +5806,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="C149" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="D149" t="n">
-        <v>1.787</v>
+        <v>1.788</v>
       </c>
       <c r="E149" t="n">
-        <v>1.77</v>
+        <v>1.788</v>
       </c>
       <c r="F149" t="n">
-        <v>1333538.2742</v>
+        <v>1950.1201</v>
       </c>
       <c r="G149" t="n">
-        <v>1.778749999999999</v>
+        <v>1.778449999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5712,19 +5844,19 @@
         <v>1.787</v>
       </c>
       <c r="C150" t="n">
-        <v>1.771</v>
+        <v>1.787</v>
       </c>
       <c r="D150" t="n">
         <v>1.787</v>
       </c>
       <c r="E150" t="n">
-        <v>1.771</v>
+        <v>1.77</v>
       </c>
       <c r="F150" t="n">
-        <v>2310406</v>
+        <v>1333538.2742</v>
       </c>
       <c r="G150" t="n">
-        <v>1.778766666666666</v>
+        <v>1.778749999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5747,19 +5879,19 @@
         <v>1.787</v>
       </c>
       <c r="C151" t="n">
-        <v>1.768</v>
+        <v>1.771</v>
       </c>
       <c r="D151" t="n">
         <v>1.787</v>
       </c>
       <c r="E151" t="n">
-        <v>1.768</v>
+        <v>1.771</v>
       </c>
       <c r="F151" t="n">
-        <v>2059266</v>
+        <v>2310406</v>
       </c>
       <c r="G151" t="n">
-        <v>1.778649999999999</v>
+        <v>1.778766666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5791,10 +5923,10 @@
         <v>1.768</v>
       </c>
       <c r="F152" t="n">
-        <v>1357488</v>
+        <v>2059266</v>
       </c>
       <c r="G152" t="n">
-        <v>1.778583333333332</v>
+        <v>1.778649999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5814,22 +5946,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.77</v>
+        <v>1.787</v>
       </c>
       <c r="C153" t="n">
-        <v>1.77</v>
+        <v>1.768</v>
       </c>
       <c r="D153" t="n">
-        <v>1.77</v>
+        <v>1.787</v>
       </c>
       <c r="E153" t="n">
-        <v>1.77</v>
+        <v>1.768</v>
       </c>
       <c r="F153" t="n">
-        <v>140890.2376</v>
+        <v>1357488</v>
       </c>
       <c r="G153" t="n">
-        <v>1.778549999999999</v>
+        <v>1.778583333333332</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5849,22 +5981,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.786</v>
+        <v>1.77</v>
       </c>
       <c r="C154" t="n">
-        <v>1.786</v>
+        <v>1.77</v>
       </c>
       <c r="D154" t="n">
-        <v>1.786</v>
+        <v>1.77</v>
       </c>
       <c r="E154" t="n">
-        <v>1.768</v>
+        <v>1.77</v>
       </c>
       <c r="F154" t="n">
-        <v>3152058</v>
+        <v>140890.2376</v>
       </c>
       <c r="G154" t="n">
-        <v>1.778849999999999</v>
+        <v>1.778549999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5884,22 +6016,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="C155" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="D155" t="n">
-        <v>1.769</v>
+        <v>1.786</v>
       </c>
       <c r="E155" t="n">
-        <v>1.769</v>
+        <v>1.768</v>
       </c>
       <c r="F155" t="n">
-        <v>512214</v>
+        <v>3152058</v>
       </c>
       <c r="G155" t="n">
-        <v>1.778916666666665</v>
+        <v>1.778849999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5919,22 +6051,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.785</v>
+        <v>1.769</v>
       </c>
       <c r="C156" t="n">
-        <v>1.785</v>
+        <v>1.769</v>
       </c>
       <c r="D156" t="n">
-        <v>1.785</v>
+        <v>1.769</v>
       </c>
       <c r="E156" t="n">
-        <v>1.785</v>
+        <v>1.769</v>
       </c>
       <c r="F156" t="n">
-        <v>663.9815</v>
+        <v>512214</v>
       </c>
       <c r="G156" t="n">
-        <v>1.779266666666665</v>
+        <v>1.778916666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5966,10 +6098,10 @@
         <v>1.785</v>
       </c>
       <c r="F157" t="n">
-        <v>50000</v>
+        <v>663.9815</v>
       </c>
       <c r="G157" t="n">
-        <v>1.779483333333332</v>
+        <v>1.779266666666665</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5989,22 +6121,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="D158" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="E158" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="F158" t="n">
-        <v>2123657.4854</v>
+        <v>50000</v>
       </c>
       <c r="G158" t="n">
-        <v>1.779583333333332</v>
+        <v>1.779483333333332</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6024,22 +6156,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="C159" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="D159" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="E159" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="F159" t="n">
-        <v>299.3424</v>
+        <v>2123657.4854</v>
       </c>
       <c r="G159" t="n">
-        <v>1.779799999999998</v>
+        <v>1.779583333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6059,22 +6191,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="C160" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="D160" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="E160" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="F160" t="n">
-        <v>7023.1094</v>
+        <v>299.3424</v>
       </c>
       <c r="G160" t="n">
-        <v>1.779766666666665</v>
+        <v>1.779799999999998</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6097,19 +6229,19 @@
         <v>1.77</v>
       </c>
       <c r="C161" t="n">
-        <v>1.784</v>
+        <v>1.77</v>
       </c>
       <c r="D161" t="n">
-        <v>1.784</v>
+        <v>1.77</v>
       </c>
       <c r="E161" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="F161" t="n">
-        <v>1027630.1384</v>
+        <v>7023.1094</v>
       </c>
       <c r="G161" t="n">
-        <v>1.779916666666665</v>
+        <v>1.779766666666665</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6129,22 +6261,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="C162" t="n">
-        <v>1.785</v>
+        <v>1.784</v>
       </c>
       <c r="D162" t="n">
-        <v>1.785</v>
+        <v>1.784</v>
       </c>
       <c r="E162" t="n">
-        <v>1.785</v>
+        <v>1.769</v>
       </c>
       <c r="F162" t="n">
-        <v>285</v>
+        <v>1027630.1384</v>
       </c>
       <c r="G162" t="n">
-        <v>1.780083333333331</v>
+        <v>1.779916666666665</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6164,7 +6296,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="C163" t="n">
         <v>1.785</v>
@@ -6173,13 +6305,13 @@
         <v>1.785</v>
       </c>
       <c r="E163" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="F163" t="n">
-        <v>570</v>
+        <v>285</v>
       </c>
       <c r="G163" t="n">
-        <v>1.780249999999998</v>
+        <v>1.780083333333331</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6211,26 +6343,20 @@
         <v>1.784</v>
       </c>
       <c r="F164" t="n">
-        <v>2000</v>
+        <v>570</v>
       </c>
       <c r="G164" t="n">
-        <v>1.780399999999998</v>
+        <v>1.780249999999998</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>1.785</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6240,22 +6366,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.77</v>
+        <v>1.784</v>
       </c>
       <c r="C165" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="D165" t="n">
-        <v>1.77</v>
+        <v>1.785</v>
       </c>
       <c r="E165" t="n">
-        <v>1.77</v>
+        <v>1.784</v>
       </c>
       <c r="F165" t="n">
-        <v>476.5413</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="n">
-        <v>1.780199999999998</v>
+        <v>1.780399999999998</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6265,11 +6391,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6279,22 +6401,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="C166" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="D166" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="E166" t="n">
-        <v>1.785</v>
+        <v>1.77</v>
       </c>
       <c r="F166" t="n">
-        <v>427.3375</v>
+        <v>476.5413</v>
       </c>
       <c r="G166" t="n">
-        <v>1.780266666666665</v>
+        <v>1.780199999999998</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6304,11 +6426,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6318,7 +6436,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="C167" t="n">
         <v>1.785</v>
@@ -6327,13 +6445,13 @@
         <v>1.785</v>
       </c>
       <c r="E167" t="n">
-        <v>1.784</v>
+        <v>1.785</v>
       </c>
       <c r="F167" t="n">
-        <v>20806.7673</v>
+        <v>427.3375</v>
       </c>
       <c r="G167" t="n">
-        <v>1.780349999999998</v>
+        <v>1.780266666666665</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6343,11 +6461,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6357,22 +6471,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C168" t="n">
         <v>1.785</v>
       </c>
-      <c r="C168" t="n">
-        <v>1.786</v>
-      </c>
       <c r="D168" t="n">
-        <v>1.786</v>
+        <v>1.785</v>
       </c>
       <c r="E168" t="n">
-        <v>1.785</v>
+        <v>1.784</v>
       </c>
       <c r="F168" t="n">
-        <v>1000000</v>
+        <v>20806.7673</v>
       </c>
       <c r="G168" t="n">
-        <v>1.780516666666665</v>
+        <v>1.780349999999998</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6382,11 +6496,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6396,22 +6506,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.772</v>
+        <v>1.785</v>
       </c>
       <c r="C169" t="n">
-        <v>1.772</v>
+        <v>1.786</v>
       </c>
       <c r="D169" t="n">
-        <v>1.772</v>
+        <v>1.786</v>
       </c>
       <c r="E169" t="n">
-        <v>1.772</v>
+        <v>1.785</v>
       </c>
       <c r="F169" t="n">
-        <v>3435.5179</v>
+        <v>1000000</v>
       </c>
       <c r="G169" t="n">
-        <v>1.780449999999998</v>
+        <v>1.780516666666665</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6421,11 +6531,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6447,10 +6553,10 @@
         <v>1.772</v>
       </c>
       <c r="F170" t="n">
-        <v>1000</v>
+        <v>3435.5179</v>
       </c>
       <c r="G170" t="n">
-        <v>1.780383333333332</v>
+        <v>1.780449999999998</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6460,11 +6566,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6474,22 +6576,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.785</v>
+        <v>1.772</v>
       </c>
       <c r="C171" t="n">
-        <v>1.785</v>
+        <v>1.772</v>
       </c>
       <c r="D171" t="n">
-        <v>1.785</v>
+        <v>1.772</v>
       </c>
       <c r="E171" t="n">
-        <v>1.785</v>
+        <v>1.772</v>
       </c>
       <c r="F171" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="G171" t="n">
-        <v>1.780533333333332</v>
+        <v>1.780383333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6499,11 +6601,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6525,10 +6623,10 @@
         <v>1.785</v>
       </c>
       <c r="F172" t="n">
-        <v>112044.8179271709</v>
+        <v>290</v>
       </c>
       <c r="G172" t="n">
-        <v>1.780616666666665</v>
+        <v>1.780533333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6538,11 +6636,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6555,19 +6649,19 @@
         <v>1.785</v>
       </c>
       <c r="C173" t="n">
-        <v>1.786</v>
+        <v>1.785</v>
       </c>
       <c r="D173" t="n">
-        <v>1.786</v>
+        <v>1.785</v>
       </c>
       <c r="E173" t="n">
         <v>1.785</v>
       </c>
       <c r="F173" t="n">
-        <v>58115.44132658053</v>
+        <v>112044.8179271709</v>
       </c>
       <c r="G173" t="n">
-        <v>1.780716666666665</v>
+        <v>1.780616666666665</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6577,11 +6671,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6591,7 +6681,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.786</v>
+        <v>1.785</v>
       </c>
       <c r="C174" t="n">
         <v>1.786</v>
@@ -6600,13 +6690,13 @@
         <v>1.786</v>
       </c>
       <c r="E174" t="n">
-        <v>1.786</v>
+        <v>1.785</v>
       </c>
       <c r="F174" t="n">
-        <v>279955.2071668533</v>
+        <v>58115.44132658053</v>
       </c>
       <c r="G174" t="n">
-        <v>1.780783333333332</v>
+        <v>1.780716666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6616,11 +6706,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6642,10 +6728,10 @@
         <v>1.786</v>
       </c>
       <c r="F175" t="n">
-        <v>4911.7966</v>
+        <v>279955.2071668533</v>
       </c>
       <c r="G175" t="n">
-        <v>1.781083333333332</v>
+        <v>1.780783333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6655,11 +6741,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6669,22 +6751,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.776</v>
+        <v>1.786</v>
       </c>
       <c r="C176" t="n">
-        <v>1.773</v>
+        <v>1.786</v>
       </c>
       <c r="D176" t="n">
-        <v>1.776</v>
+        <v>1.786</v>
       </c>
       <c r="E176" t="n">
-        <v>1.773</v>
+        <v>1.786</v>
       </c>
       <c r="F176" t="n">
-        <v>107772.0786</v>
+        <v>4911.7966</v>
       </c>
       <c r="G176" t="n">
-        <v>1.780933333333331</v>
+        <v>1.781083333333332</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6694,11 +6776,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6708,22 +6786,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.786</v>
+        <v>1.776</v>
       </c>
       <c r="C177" t="n">
-        <v>1.786</v>
+        <v>1.773</v>
       </c>
       <c r="D177" t="n">
-        <v>1.786</v>
+        <v>1.776</v>
       </c>
       <c r="E177" t="n">
-        <v>1.786</v>
+        <v>1.773</v>
       </c>
       <c r="F177" t="n">
-        <v>35878.6348</v>
+        <v>107772.0786</v>
       </c>
       <c r="G177" t="n">
-        <v>1.780983333333332</v>
+        <v>1.780933333333331</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6733,11 +6811,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6759,10 +6833,10 @@
         <v>1.786</v>
       </c>
       <c r="F178" t="n">
-        <v>14447.8782</v>
+        <v>35878.6348</v>
       </c>
       <c r="G178" t="n">
-        <v>1.781033333333332</v>
+        <v>1.780983333333332</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6772,11 +6846,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6798,10 +6868,10 @@
         <v>1.786</v>
       </c>
       <c r="F179" t="n">
-        <v>13231.7061</v>
+        <v>14447.8782</v>
       </c>
       <c r="G179" t="n">
-        <v>1.781316666666665</v>
+        <v>1.781033333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6811,11 +6881,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6837,10 +6903,10 @@
         <v>1.786</v>
       </c>
       <c r="F180" t="n">
-        <v>12651.4797</v>
+        <v>13231.7061</v>
       </c>
       <c r="G180" t="n">
-        <v>1.781599999999998</v>
+        <v>1.781316666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6850,11 +6916,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6876,10 +6938,10 @@
         <v>1.786</v>
       </c>
       <c r="F181" t="n">
-        <v>48805.9764</v>
+        <v>12651.4797</v>
       </c>
       <c r="G181" t="n">
-        <v>1.781883333333331</v>
+        <v>1.781599999999998</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6889,11 +6951,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6915,10 +6973,10 @@
         <v>1.786</v>
       </c>
       <c r="F182" t="n">
-        <v>7889.3304</v>
+        <v>48805.9764</v>
       </c>
       <c r="G182" t="n">
-        <v>1.781933333333331</v>
+        <v>1.781883333333331</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6928,11 +6986,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6954,10 +7008,10 @@
         <v>1.786</v>
       </c>
       <c r="F183" t="n">
-        <v>55171.514</v>
+        <v>7889.3304</v>
       </c>
       <c r="G183" t="n">
-        <v>1.782216666666665</v>
+        <v>1.781933333333331</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6967,11 +7021,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6981,22 +7031,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.787</v>
+        <v>1.786</v>
       </c>
       <c r="C184" t="n">
-        <v>1.787</v>
+        <v>1.786</v>
       </c>
       <c r="D184" t="n">
-        <v>1.787</v>
+        <v>1.786</v>
       </c>
       <c r="E184" t="n">
-        <v>1.787</v>
+        <v>1.786</v>
       </c>
       <c r="F184" t="n">
-        <v>17176.8827</v>
+        <v>55171.514</v>
       </c>
       <c r="G184" t="n">
-        <v>1.782299999999998</v>
+        <v>1.782216666666665</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7006,11 +7056,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7020,22 +7066,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="C185" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="D185" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="E185" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="F185" t="n">
-        <v>23052.7831</v>
+        <v>17176.8827</v>
       </c>
       <c r="G185" t="n">
-        <v>1.782383333333331</v>
+        <v>1.782299999999998</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7045,11 +7091,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7071,10 +7113,10 @@
         <v>1.788</v>
       </c>
       <c r="F186" t="n">
-        <v>19775.772</v>
+        <v>23052.7831</v>
       </c>
       <c r="G186" t="n">
-        <v>1.782483333333331</v>
+        <v>1.782383333333331</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7084,11 +7126,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7098,22 +7136,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.775</v>
+        <v>1.788</v>
       </c>
       <c r="C187" t="n">
-        <v>1.775</v>
+        <v>1.788</v>
       </c>
       <c r="D187" t="n">
-        <v>1.775</v>
+        <v>1.788</v>
       </c>
       <c r="E187" t="n">
-        <v>1.775</v>
+        <v>1.788</v>
       </c>
       <c r="F187" t="n">
-        <v>459541.6519</v>
+        <v>19775.772</v>
       </c>
       <c r="G187" t="n">
-        <v>1.782349999999998</v>
+        <v>1.782483333333331</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7123,11 +7161,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7137,22 +7171,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.788</v>
+        <v>1.775</v>
       </c>
       <c r="C188" t="n">
-        <v>1.788</v>
+        <v>1.775</v>
       </c>
       <c r="D188" t="n">
-        <v>1.788</v>
+        <v>1.775</v>
       </c>
       <c r="E188" t="n">
-        <v>1.788</v>
+        <v>1.775</v>
       </c>
       <c r="F188" t="n">
-        <v>365.7737</v>
+        <v>459541.6519</v>
       </c>
       <c r="G188" t="n">
-        <v>1.782616666666665</v>
+        <v>1.782349999999998</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7162,11 +7196,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7179,19 +7209,19 @@
         <v>1.788</v>
       </c>
       <c r="C189" t="n">
-        <v>1.775</v>
+        <v>1.788</v>
       </c>
       <c r="D189" t="n">
         <v>1.788</v>
       </c>
       <c r="E189" t="n">
-        <v>1.775</v>
+        <v>1.788</v>
       </c>
       <c r="F189" t="n">
-        <v>500662.2855</v>
+        <v>365.7737</v>
       </c>
       <c r="G189" t="n">
-        <v>1.782483333333331</v>
+        <v>1.782616666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7201,11 +7231,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7218,19 +7244,19 @@
         <v>1.788</v>
       </c>
       <c r="C190" t="n">
-        <v>1.788</v>
+        <v>1.775</v>
       </c>
       <c r="D190" t="n">
         <v>1.788</v>
       </c>
       <c r="E190" t="n">
-        <v>1.788</v>
+        <v>1.775</v>
       </c>
       <c r="F190" t="n">
-        <v>223401.8484</v>
+        <v>500662.2855</v>
       </c>
       <c r="G190" t="n">
-        <v>1.782566666666665</v>
+        <v>1.782483333333331</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7240,11 +7266,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7266,10 +7288,10 @@
         <v>1.788</v>
       </c>
       <c r="F191" t="n">
-        <v>363966.3665</v>
+        <v>223401.8484</v>
       </c>
       <c r="G191" t="n">
-        <v>1.782649999999998</v>
+        <v>1.782566666666665</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7279,11 +7301,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7305,10 +7323,10 @@
         <v>1.788</v>
       </c>
       <c r="F192" t="n">
-        <v>146989.4763</v>
+        <v>363966.3665</v>
       </c>
       <c r="G192" t="n">
-        <v>1.782733333333331</v>
+        <v>1.782649999999998</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7318,11 +7336,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7344,10 +7358,10 @@
         <v>1.788</v>
       </c>
       <c r="F193" t="n">
-        <v>71331.6413</v>
+        <v>146989.4763</v>
       </c>
       <c r="G193" t="n">
-        <v>1.782816666666664</v>
+        <v>1.782733333333331</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7357,11 +7371,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7383,10 +7393,10 @@
         <v>1.788</v>
       </c>
       <c r="F194" t="n">
-        <v>65264.3072</v>
+        <v>71331.6413</v>
       </c>
       <c r="G194" t="n">
-        <v>1.782916666666664</v>
+        <v>1.782816666666664</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7396,11 +7406,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7413,19 +7419,19 @@
         <v>1.788</v>
       </c>
       <c r="C195" t="n">
-        <v>1.776</v>
+        <v>1.788</v>
       </c>
       <c r="D195" t="n">
         <v>1.788</v>
       </c>
       <c r="E195" t="n">
-        <v>1.776</v>
+        <v>1.788</v>
       </c>
       <c r="F195" t="n">
-        <v>701417.5868</v>
+        <v>65264.3072</v>
       </c>
       <c r="G195" t="n">
-        <v>1.782816666666664</v>
+        <v>1.782916666666664</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7435,11 +7441,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7452,19 +7454,19 @@
         <v>1.788</v>
       </c>
       <c r="C196" t="n">
-        <v>1.788</v>
+        <v>1.776</v>
       </c>
       <c r="D196" t="n">
         <v>1.788</v>
       </c>
       <c r="E196" t="n">
-        <v>1.788</v>
+        <v>1.776</v>
       </c>
       <c r="F196" t="n">
-        <v>264784.17</v>
+        <v>701417.5868</v>
       </c>
       <c r="G196" t="n">
-        <v>1.782916666666664</v>
+        <v>1.782816666666664</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7474,11 +7476,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7500,10 +7498,10 @@
         <v>1.788</v>
       </c>
       <c r="F197" t="n">
-        <v>83872.83259999999</v>
+        <v>264784.17</v>
       </c>
       <c r="G197" t="n">
-        <v>1.782999999999998</v>
+        <v>1.782916666666664</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7513,11 +7511,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7539,10 +7533,10 @@
         <v>1.788</v>
       </c>
       <c r="F198" t="n">
-        <v>267677.7627</v>
+        <v>83872.83259999999</v>
       </c>
       <c r="G198" t="n">
-        <v>1.783083333333331</v>
+        <v>1.782999999999998</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7552,11 +7546,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7569,19 +7559,19 @@
         <v>1.788</v>
       </c>
       <c r="C199" t="n">
-        <v>1.777</v>
+        <v>1.788</v>
       </c>
       <c r="D199" t="n">
-        <v>1.793</v>
+        <v>1.788</v>
       </c>
       <c r="E199" t="n">
-        <v>1.777</v>
+        <v>1.788</v>
       </c>
       <c r="F199" t="n">
-        <v>2138917.5426</v>
+        <v>267677.7627</v>
       </c>
       <c r="G199" t="n">
-        <v>1.782933333333331</v>
+        <v>1.783083333333331</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7591,11 +7581,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7605,22 +7591,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.792</v>
+        <v>1.788</v>
       </c>
       <c r="C200" t="n">
         <v>1.777</v>
       </c>
       <c r="D200" t="n">
-        <v>1.794</v>
+        <v>1.793</v>
       </c>
       <c r="E200" t="n">
         <v>1.777</v>
       </c>
       <c r="F200" t="n">
-        <v>2153939.1576</v>
+        <v>2138917.5426</v>
       </c>
       <c r="G200" t="n">
-        <v>1.782749999999998</v>
+        <v>1.782933333333331</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7630,11 +7616,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7644,22 +7626,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.794</v>
+        <v>1.792</v>
       </c>
       <c r="C201" t="n">
-        <v>1.776</v>
+        <v>1.777</v>
       </c>
       <c r="D201" t="n">
         <v>1.794</v>
       </c>
       <c r="E201" t="n">
-        <v>1.776</v>
+        <v>1.777</v>
       </c>
       <c r="F201" t="n">
-        <v>676950.7306</v>
+        <v>2153939.1576</v>
       </c>
       <c r="G201" t="n">
-        <v>1.782549999999998</v>
+        <v>1.782749999999998</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7669,11 +7651,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7683,22 +7661,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="C202" t="n">
-        <v>1.793</v>
+        <v>1.776</v>
       </c>
       <c r="D202" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="E202" t="n">
-        <v>1.793</v>
+        <v>1.776</v>
       </c>
       <c r="F202" t="n">
-        <v>282.2394</v>
+        <v>676950.7306</v>
       </c>
       <c r="G202" t="n">
-        <v>1.782633333333331</v>
+        <v>1.782549999999998</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7708,11 +7686,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7722,22 +7696,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.776</v>
+        <v>1.793</v>
       </c>
       <c r="C203" t="n">
-        <v>1.777</v>
+        <v>1.793</v>
       </c>
       <c r="D203" t="n">
-        <v>1.792</v>
+        <v>1.793</v>
       </c>
       <c r="E203" t="n">
-        <v>1.776</v>
+        <v>1.793</v>
       </c>
       <c r="F203" t="n">
-        <v>1141705.9855</v>
+        <v>282.2394</v>
       </c>
       <c r="G203" t="n">
-        <v>1.782449999999998</v>
+        <v>1.782633333333331</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7747,11 +7721,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7761,7 +7731,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.792</v>
+        <v>1.776</v>
       </c>
       <c r="C204" t="n">
         <v>1.777</v>
@@ -7770,13 +7740,13 @@
         <v>1.792</v>
       </c>
       <c r="E204" t="n">
-        <v>1.777</v>
+        <v>1.776</v>
       </c>
       <c r="F204" t="n">
-        <v>1345696</v>
+        <v>1141705.9855</v>
       </c>
       <c r="G204" t="n">
-        <v>1.782266666666665</v>
+        <v>1.782449999999998</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7786,11 +7756,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7803,7 +7769,7 @@
         <v>1.792</v>
       </c>
       <c r="C205" t="n">
-        <v>1.791</v>
+        <v>1.777</v>
       </c>
       <c r="D205" t="n">
         <v>1.792</v>
@@ -7812,10 +7778,10 @@
         <v>1.777</v>
       </c>
       <c r="F205" t="n">
-        <v>1380136</v>
+        <v>1345696</v>
       </c>
       <c r="G205" t="n">
-        <v>1.782316666666665</v>
+        <v>1.782266666666665</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7825,11 +7791,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7839,22 +7801,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="E206" t="n">
         <v>1.777</v>
       </c>
-      <c r="C206" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1.775</v>
-      </c>
       <c r="F206" t="n">
-        <v>606456.5257</v>
+        <v>1380136</v>
       </c>
       <c r="G206" t="n">
-        <v>1.782099999999998</v>
+        <v>1.782316666666665</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7864,11 +7826,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7878,22 +7836,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.791</v>
+        <v>1.777</v>
       </c>
       <c r="C207" t="n">
-        <v>1.776</v>
+        <v>1.775</v>
       </c>
       <c r="D207" t="n">
-        <v>1.791</v>
+        <v>1.777</v>
       </c>
       <c r="E207" t="n">
-        <v>1.776</v>
+        <v>1.775</v>
       </c>
       <c r="F207" t="n">
-        <v>752545</v>
+        <v>606456.5257</v>
       </c>
       <c r="G207" t="n">
-        <v>1.781899999999998</v>
+        <v>1.782099999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7903,11 +7861,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7920,19 +7874,19 @@
         <v>1.791</v>
       </c>
       <c r="C208" t="n">
-        <v>1.791</v>
+        <v>1.776</v>
       </c>
       <c r="D208" t="n">
         <v>1.791</v>
       </c>
       <c r="E208" t="n">
-        <v>1.791</v>
+        <v>1.776</v>
       </c>
       <c r="F208" t="n">
-        <v>113508.6181031267</v>
+        <v>752545</v>
       </c>
       <c r="G208" t="n">
-        <v>1.781949999999998</v>
+        <v>1.781899999999998</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7942,11 +7896,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7959,19 +7909,19 @@
         <v>1.791</v>
       </c>
       <c r="C209" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="D209" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="E209" t="n">
         <v>1.791</v>
       </c>
       <c r="F209" t="n">
-        <v>111937.0929781791</v>
+        <v>113508.6181031267</v>
       </c>
       <c r="G209" t="n">
-        <v>1.782033333333331</v>
+        <v>1.781949999999998</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7981,11 +7931,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8007,10 +7953,10 @@
         <v>1.791</v>
       </c>
       <c r="F210" t="n">
-        <v>33482.70089285714</v>
+        <v>111937.0929781791</v>
       </c>
       <c r="G210" t="n">
-        <v>1.782383333333331</v>
+        <v>1.782033333333331</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8020,11 +7966,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8034,7 +7976,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="C211" t="n">
         <v>1.792</v>
@@ -8043,13 +7985,13 @@
         <v>1.792</v>
       </c>
       <c r="E211" t="n">
-        <v>1.792</v>
+        <v>1.791</v>
       </c>
       <c r="F211" t="n">
-        <v>16741.07142857143</v>
+        <v>33482.70089285714</v>
       </c>
       <c r="G211" t="n">
-        <v>1.782783333333331</v>
+        <v>1.782383333333331</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8059,11 +8001,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8073,22 +8011,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.78</v>
+        <v>1.792</v>
       </c>
       <c r="C212" t="n">
-        <v>1.78</v>
+        <v>1.792</v>
       </c>
       <c r="D212" t="n">
-        <v>1.78</v>
+        <v>1.792</v>
       </c>
       <c r="E212" t="n">
-        <v>1.78</v>
+        <v>1.792</v>
       </c>
       <c r="F212" t="n">
-        <v>5888.7554</v>
+        <v>16741.07142857143</v>
       </c>
       <c r="G212" t="n">
-        <v>1.782983333333331</v>
+        <v>1.782783333333331</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8098,11 +8036,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8112,22 +8046,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.792</v>
+        <v>1.78</v>
       </c>
       <c r="C213" t="n">
-        <v>1.792</v>
+        <v>1.78</v>
       </c>
       <c r="D213" t="n">
-        <v>1.792</v>
+        <v>1.78</v>
       </c>
       <c r="E213" t="n">
-        <v>1.792</v>
+        <v>1.78</v>
       </c>
       <c r="F213" t="n">
-        <v>5634.1844</v>
+        <v>5888.7554</v>
       </c>
       <c r="G213" t="n">
-        <v>1.783349999999998</v>
+        <v>1.782983333333331</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8137,11 +8071,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8154,19 +8084,19 @@
         <v>1.792</v>
       </c>
       <c r="C214" t="n">
-        <v>1.793</v>
+        <v>1.792</v>
       </c>
       <c r="D214" t="n">
-        <v>1.793</v>
+        <v>1.792</v>
       </c>
       <c r="E214" t="n">
         <v>1.792</v>
       </c>
       <c r="F214" t="n">
-        <v>17028.10453831415</v>
+        <v>5634.1844</v>
       </c>
       <c r="G214" t="n">
-        <v>1.783466666666665</v>
+        <v>1.783349999999998</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8176,11 +8106,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8190,22 +8116,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="C215" t="n">
         <v>1.793</v>
       </c>
-      <c r="C215" t="n">
-        <v>1.795</v>
-      </c>
       <c r="D215" t="n">
-        <v>1.795</v>
+        <v>1.793</v>
       </c>
       <c r="E215" t="n">
-        <v>1.793</v>
+        <v>1.792</v>
       </c>
       <c r="F215" t="n">
-        <v>237643.5087589515</v>
+        <v>17028.10453831415</v>
       </c>
       <c r="G215" t="n">
-        <v>1.783899999999998</v>
+        <v>1.783466666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8215,11 +8141,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8229,22 +8151,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="C216" t="n">
         <v>1.795</v>
       </c>
-      <c r="C216" t="n">
-        <v>1.796</v>
-      </c>
       <c r="D216" t="n">
-        <v>1.796</v>
+        <v>1.795</v>
       </c>
       <c r="E216" t="n">
-        <v>1.795</v>
+        <v>1.793</v>
       </c>
       <c r="F216" t="n">
-        <v>23351.5204</v>
+        <v>237643.5087589515</v>
       </c>
       <c r="G216" t="n">
-        <v>1.784083333333332</v>
+        <v>1.783899999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8254,11 +8176,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8268,22 +8186,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.794</v>
+        <v>1.795</v>
       </c>
       <c r="C217" t="n">
-        <v>1.794</v>
+        <v>1.796</v>
       </c>
       <c r="D217" t="n">
-        <v>1.794</v>
+        <v>1.796</v>
       </c>
       <c r="E217" t="n">
-        <v>1.794</v>
+        <v>1.795</v>
       </c>
       <c r="F217" t="n">
-        <v>2931907.528644593</v>
+        <v>23351.5204</v>
       </c>
       <c r="G217" t="n">
-        <v>1.784233333333332</v>
+        <v>1.784083333333332</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8293,11 +8211,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8307,22 +8221,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="C218" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="D218" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="E218" t="n">
-        <v>1.793</v>
+        <v>1.794</v>
       </c>
       <c r="F218" t="n">
-        <v>61349.69325153374</v>
+        <v>2931907.528644593</v>
       </c>
       <c r="G218" t="n">
-        <v>1.784616666666665</v>
+        <v>1.784233333333332</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8332,11 +8246,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8358,10 +8268,10 @@
         <v>1.793</v>
       </c>
       <c r="F219" t="n">
-        <v>127354.7537484663</v>
+        <v>61349.69325153374</v>
       </c>
       <c r="G219" t="n">
-        <v>1.784749999999999</v>
+        <v>1.784616666666665</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8371,11 +8281,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8388,19 +8294,19 @@
         <v>1.793</v>
       </c>
       <c r="C220" t="n">
-        <v>1.794</v>
+        <v>1.793</v>
       </c>
       <c r="D220" t="n">
-        <v>1.794</v>
+        <v>1.793</v>
       </c>
       <c r="E220" t="n">
         <v>1.793</v>
       </c>
       <c r="F220" t="n">
-        <v>83832.17075153375</v>
+        <v>127354.7537484663</v>
       </c>
       <c r="G220" t="n">
-        <v>1.785149999999999</v>
+        <v>1.784749999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8410,11 +8316,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8424,22 +8326,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.796</v>
+        <v>1.793</v>
       </c>
       <c r="C221" t="n">
-        <v>1.796</v>
+        <v>1.794</v>
       </c>
       <c r="D221" t="n">
-        <v>1.796</v>
+        <v>1.794</v>
       </c>
       <c r="E221" t="n">
-        <v>1.796</v>
+        <v>1.793</v>
       </c>
       <c r="F221" t="n">
-        <v>12157.0643</v>
+        <v>83832.17075153375</v>
       </c>
       <c r="G221" t="n">
-        <v>1.785349999999999</v>
+        <v>1.785149999999999</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8449,11 +8351,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8472,13 +8370,13 @@
         <v>1.796</v>
       </c>
       <c r="E222" t="n">
-        <v>1.78</v>
+        <v>1.796</v>
       </c>
       <c r="F222" t="n">
-        <v>42511.1706</v>
+        <v>12157.0643</v>
       </c>
       <c r="G222" t="n">
-        <v>1.785533333333332</v>
+        <v>1.785349999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8488,11 +8386,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8511,13 +8405,13 @@
         <v>1.796</v>
       </c>
       <c r="E223" t="n">
-        <v>1.796</v>
+        <v>1.78</v>
       </c>
       <c r="F223" t="n">
-        <v>32783.6417</v>
+        <v>42511.1706</v>
       </c>
       <c r="G223" t="n">
-        <v>1.785716666666666</v>
+        <v>1.785533333333332</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8527,11 +8421,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8541,22 +8431,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.78</v>
+        <v>1.796</v>
       </c>
       <c r="C224" t="n">
-        <v>1.778</v>
+        <v>1.796</v>
       </c>
       <c r="D224" t="n">
-        <v>1.795</v>
+        <v>1.796</v>
       </c>
       <c r="E224" t="n">
-        <v>1.777</v>
+        <v>1.796</v>
       </c>
       <c r="F224" t="n">
-        <v>2434602</v>
+        <v>32783.6417</v>
       </c>
       <c r="G224" t="n">
-        <v>1.785599999999999</v>
+        <v>1.785716666666666</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8566,11 +8456,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8580,10 +8466,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.795</v>
+        <v>1.78</v>
       </c>
       <c r="C225" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="D225" t="n">
         <v>1.795</v>
@@ -8592,10 +8478,10 @@
         <v>1.777</v>
       </c>
       <c r="F225" t="n">
-        <v>1406883</v>
+        <v>2434602</v>
       </c>
       <c r="G225" t="n">
-        <v>1.785716666666666</v>
+        <v>1.785599999999999</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8605,11 +8491,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8619,22 +8501,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.788</v>
+        <v>1.795</v>
       </c>
       <c r="C226" t="n">
-        <v>1.788</v>
+        <v>1.777</v>
       </c>
       <c r="D226" t="n">
-        <v>1.788</v>
+        <v>1.795</v>
       </c>
       <c r="E226" t="n">
-        <v>1.788</v>
+        <v>1.777</v>
       </c>
       <c r="F226" t="n">
-        <v>300</v>
+        <v>1406883</v>
       </c>
       <c r="G226" t="n">
-        <v>1.785766666666666</v>
+        <v>1.785716666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8644,11 +8526,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8658,22 +8536,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.778</v>
+        <v>1.788</v>
       </c>
       <c r="C227" t="n">
-        <v>1.777</v>
+        <v>1.788</v>
       </c>
       <c r="D227" t="n">
-        <v>1.778</v>
+        <v>1.788</v>
       </c>
       <c r="E227" t="n">
-        <v>1.777</v>
+        <v>1.788</v>
       </c>
       <c r="F227" t="n">
-        <v>11500</v>
+        <v>300</v>
       </c>
       <c r="G227" t="n">
-        <v>1.785633333333333</v>
+        <v>1.785766666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8683,11 +8561,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8697,22 +8571,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.79</v>
+        <v>1.778</v>
       </c>
       <c r="C228" t="n">
-        <v>1.79</v>
+        <v>1.777</v>
       </c>
       <c r="D228" t="n">
-        <v>1.79</v>
+        <v>1.778</v>
       </c>
       <c r="E228" t="n">
-        <v>1.79</v>
+        <v>1.777</v>
       </c>
       <c r="F228" t="n">
-        <v>582</v>
+        <v>11500</v>
       </c>
       <c r="G228" t="n">
-        <v>1.785699999999999</v>
+        <v>1.785633333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8722,11 +8596,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8736,22 +8606,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.792</v>
+        <v>1.79</v>
       </c>
       <c r="C229" t="n">
-        <v>1.796</v>
+        <v>1.79</v>
       </c>
       <c r="D229" t="n">
-        <v>1.796</v>
+        <v>1.79</v>
       </c>
       <c r="E229" t="n">
-        <v>1.792</v>
+        <v>1.79</v>
       </c>
       <c r="F229" t="n">
-        <v>14033.2082</v>
+        <v>582</v>
       </c>
       <c r="G229" t="n">
-        <v>1.7861</v>
+        <v>1.785699999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8761,11 +8631,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8775,7 +8641,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.796</v>
+        <v>1.792</v>
       </c>
       <c r="C230" t="n">
         <v>1.796</v>
@@ -8784,13 +8650,13 @@
         <v>1.796</v>
       </c>
       <c r="E230" t="n">
-        <v>1.796</v>
+        <v>1.792</v>
       </c>
       <c r="F230" t="n">
-        <v>3058.7051</v>
+        <v>14033.2082</v>
       </c>
       <c r="G230" t="n">
-        <v>1.7865</v>
+        <v>1.7861</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8800,11 +8666,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8817,19 +8679,19 @@
         <v>1.796</v>
       </c>
       <c r="C231" t="n">
-        <v>1.797</v>
+        <v>1.796</v>
       </c>
       <c r="D231" t="n">
-        <v>1.797</v>
+        <v>1.796</v>
       </c>
       <c r="E231" t="n">
         <v>1.796</v>
       </c>
       <c r="F231" t="n">
-        <v>283116.0662</v>
+        <v>3058.7051</v>
       </c>
       <c r="G231" t="n">
-        <v>1.7867</v>
+        <v>1.7865</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8839,11 +8701,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8853,7 +8711,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.797</v>
+        <v>1.796</v>
       </c>
       <c r="C232" t="n">
         <v>1.797</v>
@@ -8862,13 +8720,13 @@
         <v>1.797</v>
       </c>
       <c r="E232" t="n">
-        <v>1.797</v>
+        <v>1.796</v>
       </c>
       <c r="F232" t="n">
-        <v>48220.7434</v>
+        <v>283116.0662</v>
       </c>
       <c r="G232" t="n">
-        <v>1.786899999999999</v>
+        <v>1.7867</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8878,11 +8736,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8895,19 +8749,19 @@
         <v>1.797</v>
       </c>
       <c r="C233" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="D233" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="E233" t="n">
         <v>1.797</v>
       </c>
       <c r="F233" t="n">
-        <v>65431.2457</v>
+        <v>48220.7434</v>
       </c>
       <c r="G233" t="n">
-        <v>1.787099999999999</v>
+        <v>1.786899999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8917,11 +8771,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8931,22 +8781,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.798</v>
+        <v>1.797</v>
       </c>
       <c r="C234" t="n">
         <v>1.798</v>
       </c>
       <c r="D234" t="n">
-        <v>1.799</v>
+        <v>1.798</v>
       </c>
       <c r="E234" t="n">
-        <v>1.78</v>
+        <v>1.797</v>
       </c>
       <c r="F234" t="n">
-        <v>993820.3488</v>
+        <v>65431.2457</v>
       </c>
       <c r="G234" t="n">
-        <v>1.787299999999999</v>
+        <v>1.787099999999999</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8956,11 +8806,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8970,22 +8816,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="D235" t="n">
         <v>1.799</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1.8</v>
       </c>
       <c r="E235" t="n">
         <v>1.78</v>
       </c>
       <c r="F235" t="n">
-        <v>3881243.8453</v>
+        <v>993820.3488</v>
       </c>
       <c r="G235" t="n">
-        <v>1.787533333333333</v>
+        <v>1.787299999999999</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8995,11 +8841,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9009,22 +8851,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C236" t="n">
         <v>1.8</v>
       </c>
-      <c r="C236" t="n">
-        <v>1.802</v>
-      </c>
       <c r="D236" t="n">
-        <v>1.802</v>
+        <v>1.8</v>
       </c>
       <c r="E236" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="F236" t="n">
-        <v>63838.662</v>
+        <v>3881243.8453</v>
       </c>
       <c r="G236" t="n">
-        <v>1.788016666666666</v>
+        <v>1.787533333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9034,11 +8876,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9048,22 +8886,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C237" t="n">
         <v>1.802</v>
       </c>
-      <c r="C237" t="n">
-        <v>1.804</v>
-      </c>
       <c r="D237" t="n">
-        <v>1.804</v>
+        <v>1.802</v>
       </c>
       <c r="E237" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="F237" t="n">
-        <v>57072.9058</v>
+        <v>63838.662</v>
       </c>
       <c r="G237" t="n">
-        <v>1.788316666666666</v>
+        <v>1.788016666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9073,11 +8911,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9087,22 +8921,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.803</v>
+        <v>1.802</v>
       </c>
       <c r="C238" t="n">
-        <v>1.79</v>
+        <v>1.804</v>
       </c>
       <c r="D238" t="n">
-        <v>1.806</v>
+        <v>1.804</v>
       </c>
       <c r="E238" t="n">
-        <v>1.783</v>
+        <v>1.78</v>
       </c>
       <c r="F238" t="n">
-        <v>67085.6397</v>
+        <v>57072.9058</v>
       </c>
       <c r="G238" t="n">
-        <v>1.788383333333333</v>
+        <v>1.788316666666666</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9112,11 +8946,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9126,22 +8956,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.806</v>
+        <v>1.803</v>
       </c>
       <c r="C239" t="n">
-        <v>1.791</v>
+        <v>1.79</v>
       </c>
       <c r="D239" t="n">
         <v>1.806</v>
       </c>
       <c r="E239" t="n">
-        <v>1.791</v>
+        <v>1.783</v>
       </c>
       <c r="F239" t="n">
-        <v>196256.4796</v>
+        <v>67085.6397</v>
       </c>
       <c r="G239" t="n">
-        <v>1.788466666666666</v>
+        <v>1.788383333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9151,12 +8981,43 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F240" t="n">
+        <v>196256.4796</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.788466666666666</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest AOA.xlsx
+++ b/BackTest/2020-01-22 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:N250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>676770</v>
       </c>
       <c r="G2" t="n">
+        <v>1.7666</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.771266666666668</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>35333.2007</v>
       </c>
       <c r="G3" t="n">
+        <v>1.764466666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.770733333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>290</v>
       </c>
       <c r="G4" t="n">
+        <v>1.7644</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.770416666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>290</v>
       </c>
       <c r="G5" t="n">
+        <v>1.762999999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.770333333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>32710</v>
       </c>
       <c r="G6" t="n">
+        <v>1.761933333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.769816666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,22 +643,21 @@
         <v>290</v>
       </c>
       <c r="G7" t="n">
+        <v>1.761666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.769750000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.753</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -662,24 +681,21 @@
         <v>280602.0079</v>
       </c>
       <c r="G8" t="n">
+        <v>1.761466666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.769683333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>1.753</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -703,26 +719,21 @@
         <v>2638281</v>
       </c>
       <c r="G9" t="n">
+        <v>1.762733333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.769916666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.753</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,18 +757,21 @@
         <v>1357007.6812</v>
       </c>
       <c r="G10" t="n">
+        <v>1.763</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.769583333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,18 +795,21 @@
         <v>290</v>
       </c>
       <c r="G11" t="n">
+        <v>1.762733333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.769233333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,18 +833,21 @@
         <v>912883</v>
       </c>
       <c r="G12" t="n">
+        <v>1.764733333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.769200000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -851,18 +871,21 @@
         <v>2721241</v>
       </c>
       <c r="G13" t="n">
+        <v>1.764266666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.769083333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -886,18 +909,21 @@
         <v>648.6585</v>
       </c>
       <c r="G14" t="n">
+        <v>1.765266666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.769333333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -921,18 +947,21 @@
         <v>2401184.189568144</v>
       </c>
       <c r="G15" t="n">
+        <v>1.7672</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.769300000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,18 +985,21 @@
         <v>1305576</v>
       </c>
       <c r="G16" t="n">
+        <v>1.766933333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.769216666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,18 +1023,21 @@
         <v>285</v>
       </c>
       <c r="G17" t="n">
+        <v>1.768866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.76945</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,18 +1061,21 @@
         <v>673118</v>
       </c>
       <c r="G18" t="n">
+        <v>1.7708</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.7694</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +1099,21 @@
         <v>3173780</v>
       </c>
       <c r="G19" t="n">
+        <v>1.771866666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.7696</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,18 +1137,21 @@
         <v>496280</v>
       </c>
       <c r="G20" t="n">
+        <v>1.771866666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.769516666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,18 +1175,21 @@
         <v>285</v>
       </c>
       <c r="G21" t="n">
+        <v>1.773666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.7697</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,18 +1213,21 @@
         <v>99461.825</v>
       </c>
       <c r="G22" t="n">
+        <v>1.774666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.769633333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,18 +1251,21 @@
         <v>285</v>
       </c>
       <c r="G23" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.769916666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,18 +1289,21 @@
         <v>1841328.2152</v>
       </c>
       <c r="G24" t="n">
+        <v>1.776066666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.769916666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,18 +1327,21 @@
         <v>1926579</v>
       </c>
       <c r="G25" t="n">
+        <v>1.777333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.770166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,18 +1365,21 @@
         <v>285</v>
       </c>
       <c r="G26" t="n">
+        <v>1.7786</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.77015</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,18 +1403,21 @@
         <v>1525852</v>
       </c>
       <c r="G27" t="n">
+        <v>1.7786</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.770383333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,18 +1441,21 @@
         <v>2144544</v>
       </c>
       <c r="G28" t="n">
+        <v>1.778866666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.770083333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,18 +1479,21 @@
         <v>5000</v>
       </c>
       <c r="G29" t="n">
+        <v>1.7788</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.770066666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1517,21 @@
         <v>130000</v>
       </c>
       <c r="G30" t="n">
+        <v>1.778933333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.770316666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1555,21 @@
         <v>3240239</v>
       </c>
       <c r="G31" t="n">
+        <v>1.7802</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.77055</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1593,21 @@
         <v>1126887</v>
       </c>
       <c r="G32" t="n">
+        <v>1.779133333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.7705</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1631,21 @@
         <v>704978</v>
       </c>
       <c r="G33" t="n">
+        <v>1.778133333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.7702</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1669,21 @@
         <v>2897626.2328</v>
       </c>
       <c r="G34" t="n">
+        <v>1.777133333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.770166666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1707,21 @@
         <v>1590180</v>
       </c>
       <c r="G35" t="n">
+        <v>1.778466666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.770433333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1745,21 @@
         <v>2064599</v>
       </c>
       <c r="G36" t="n">
+        <v>1.777533333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.7704</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1783,21 @@
         <v>38784.03</v>
       </c>
       <c r="G37" t="n">
+        <v>1.776466666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.77035</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1821,21 @@
         <v>772.371</v>
       </c>
       <c r="G38" t="n">
+        <v>1.774933333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.7703</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1859,21 @@
         <v>285</v>
       </c>
       <c r="G39" t="n">
+        <v>1.774866666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.7706</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +1897,21 @@
         <v>227267.3959</v>
       </c>
       <c r="G40" t="n">
+        <v>1.774866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.77095</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +1935,21 @@
         <v>3568356.7289</v>
       </c>
       <c r="G41" t="n">
+        <v>1.773733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.771033333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +1973,21 @@
         <v>287427.2711</v>
       </c>
       <c r="G42" t="n">
+        <v>1.773666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.771383333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2011,21 @@
         <v>4715</v>
       </c>
       <c r="G43" t="n">
+        <v>1.7748</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.77175</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2049,21 @@
         <v>638.9186999999999</v>
       </c>
       <c r="G44" t="n">
+        <v>1.774866666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.77175</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2087,21 @@
         <v>50322.2073</v>
       </c>
       <c r="G45" t="n">
+        <v>1.774866666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.772083333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2125,21 @@
         <v>75483.87149999999</v>
       </c>
       <c r="G46" t="n">
+        <v>1.774933333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.772383333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2163,21 @@
         <v>4926.2151</v>
       </c>
       <c r="G47" t="n">
+        <v>1.775199999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.77245</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2201,21 @@
         <v>1033.871</v>
       </c>
       <c r="G48" t="n">
+        <v>1.776333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.772433333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2239,21 @@
         <v>1214397.9177</v>
       </c>
       <c r="G49" t="n">
+        <v>1.776066666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.772366666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2277,21 @@
         <v>2103740</v>
       </c>
       <c r="G50" t="n">
-        <v>1.772</v>
+        <v>1.774666666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1.772</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2315,21 @@
         <v>2858986.761</v>
       </c>
       <c r="G51" t="n">
+        <v>1.7744</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.771883333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2353,21 @@
         <v>982.8407999999999</v>
       </c>
       <c r="G52" t="n">
+        <v>1.7756</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.7721</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2391,21 @@
         <v>1567835</v>
       </c>
       <c r="G53" t="n">
+        <v>1.7758</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.77205</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2429,21 @@
         <v>2160533</v>
       </c>
       <c r="G54" t="n">
+        <v>1.7746</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.772066666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2467,21 @@
         <v>283.3264</v>
       </c>
       <c r="G55" t="n">
+        <v>1.774466666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.772416666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2505,21 @@
         <v>292.5875</v>
       </c>
       <c r="G56" t="n">
+        <v>1.7756</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.772666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2543,21 @@
         <v>1512.6528</v>
       </c>
       <c r="G57" t="n">
+        <v>1.775666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.773166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2581,21 @@
         <v>1256.173</v>
       </c>
       <c r="G58" t="n">
+        <v>1.775666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.7734</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2619,21 @@
         <v>384.1614</v>
       </c>
       <c r="G59" t="n">
+        <v>1.7756</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.773633333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2657,21 @@
         <v>311.2878</v>
       </c>
       <c r="G60" t="n">
+        <v>1.775466666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.774116666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2695,21 @@
         <v>331.5647</v>
       </c>
       <c r="G61" t="n">
+        <v>1.775266666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.774333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2733,21 @@
         <v>697.3178</v>
       </c>
       <c r="G62" t="n">
+        <v>1.775933333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.774783333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2771,21 @@
         <v>447.1364</v>
       </c>
       <c r="G63" t="n">
+        <v>1.775666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.775233333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2809,21 @@
         <v>631.838</v>
       </c>
       <c r="G64" t="n">
+        <v>1.776733333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.77545</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +2847,21 @@
         <v>3791.7564</v>
       </c>
       <c r="G65" t="n">
+        <v>1.777666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.775666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +2885,21 @@
         <v>1375.6347</v>
       </c>
       <c r="G66" t="n">
+        <v>1.778533333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.776033333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +2923,21 @@
         <v>47878.5845</v>
       </c>
       <c r="G67" t="n">
+        <v>1.777866666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.77615</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,24 +2961,21 @@
         <v>62052.7896</v>
       </c>
       <c r="G68" t="n">
+        <v>1.778266666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.77625</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.772</v>
+        <v>0</v>
       </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2817,24 +2999,21 @@
         <v>10792.4518</v>
       </c>
       <c r="G69" t="n">
+        <v>1.7788</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.776083333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.771</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,22 +3037,21 @@
         <v>41326.0422</v>
       </c>
       <c r="G70" t="n">
+        <v>1.778333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.77625</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,22 +3075,21 @@
         <v>2874.3322</v>
       </c>
       <c r="G71" t="n">
+        <v>1.7778</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.776433333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2936,22 +3113,21 @@
         <v>4059.9225</v>
       </c>
       <c r="G72" t="n">
+        <v>1.776933333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.776216666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2975,22 +3151,21 @@
         <v>15287.2384</v>
       </c>
       <c r="G73" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.776333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,22 +3189,21 @@
         <v>2408.7643</v>
       </c>
       <c r="G74" t="n">
+        <v>1.774999999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.776066666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3053,22 +3227,21 @@
         <v>11829.5225</v>
       </c>
       <c r="G75" t="n">
+        <v>1.774133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.775850000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,22 +3265,21 @@
         <v>13335.5011</v>
       </c>
       <c r="G76" t="n">
+        <v>1.773666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.776016666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3131,22 +3303,21 @@
         <v>35932.7197</v>
       </c>
       <c r="G77" t="n">
+        <v>1.773266666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.775883333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3170,22 +3341,21 @@
         <v>150000</v>
       </c>
       <c r="G78" t="n">
+        <v>1.772999999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.775783333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3209,22 +3379,21 @@
         <v>133168.1377</v>
       </c>
       <c r="G79" t="n">
+        <v>1.772799999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.775683333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,22 +3417,21 @@
         <v>45340.4011</v>
       </c>
       <c r="G80" t="n">
+        <v>1.772666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.775866666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3287,22 +3455,21 @@
         <v>84999.2855</v>
       </c>
       <c r="G81" t="n">
+        <v>1.772666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.775783333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,22 +3493,21 @@
         <v>285</v>
       </c>
       <c r="G82" t="n">
+        <v>1.772999999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.775733333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3365,22 +3531,21 @@
         <v>54205.4637</v>
       </c>
       <c r="G83" t="n">
+        <v>1.773399999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.775600000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,22 +3569,21 @@
         <v>285</v>
       </c>
       <c r="G84" t="n">
+        <v>1.773733333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.775500000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,22 +3607,21 @@
         <v>71888.85430000001</v>
       </c>
       <c r="G85" t="n">
+        <v>1.773933333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.775400000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,22 +3645,21 @@
         <v>285</v>
       </c>
       <c r="G86" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.775283333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3521,22 +3683,21 @@
         <v>1462.7397</v>
       </c>
       <c r="G87" t="n">
+        <v>1.774333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.775150000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3560,22 +3721,21 @@
         <v>22261.0248</v>
       </c>
       <c r="G88" t="n">
+        <v>1.7744</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.775216666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,22 +3759,21 @@
         <v>568.5048</v>
       </c>
       <c r="G89" t="n">
+        <v>1.7744</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.774966666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,22 +3797,21 @@
         <v>27933</v>
       </c>
       <c r="G90" t="n">
+        <v>1.7744</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.774716666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,22 +3835,21 @@
         <v>10059.6462</v>
       </c>
       <c r="G91" t="n">
+        <v>1.774133333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.774500000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,22 +3873,25 @@
         <v>5560.6423</v>
       </c>
       <c r="G92" t="n">
+        <v>1.774199999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.774650000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,22 +3915,27 @@
         <v>67369.46000000001</v>
       </c>
       <c r="G93" t="n">
+        <v>1.773999999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.774750000000001</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,22 +3959,29 @@
         <v>28525.87</v>
       </c>
       <c r="G94" t="n">
+        <v>1.773799999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.774850000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3833,22 +4005,25 @@
         <v>18114.2732</v>
       </c>
       <c r="G95" t="n">
+        <v>1.773333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.774583333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,22 +4047,29 @@
         <v>36519.3326</v>
       </c>
       <c r="G96" t="n">
+        <v>1.772666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.774566666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3911,22 +4093,29 @@
         <v>25730.1217</v>
       </c>
       <c r="G97" t="n">
+        <v>1.771799999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.774566666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,22 +4139,29 @@
         <v>570</v>
       </c>
       <c r="G98" t="n">
+        <v>1.771466666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.774733333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3989,22 +4185,29 @@
         <v>1544.4579</v>
       </c>
       <c r="G99" t="n">
+        <v>1.770533333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.774416666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,22 +4231,29 @@
         <v>9774.646199999999</v>
       </c>
       <c r="G100" t="n">
+        <v>1.770133333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.774216666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4067,22 +4277,29 @@
         <v>9774.646199999999</v>
       </c>
       <c r="G101" t="n">
+        <v>1.769866666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.774316666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,22 +4323,27 @@
         <v>447992.1648</v>
       </c>
       <c r="G102" t="n">
+        <v>1.769866666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.774200000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4145,22 +4367,27 @@
         <v>35643.7708</v>
       </c>
       <c r="G103" t="n">
+        <v>1.770199999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.774066666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,22 +4411,27 @@
         <v>87403.17170000001</v>
       </c>
       <c r="G104" t="n">
+        <v>1.770666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.773916666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4223,22 +4455,27 @@
         <v>2252514.0367</v>
       </c>
       <c r="G105" t="n">
+        <v>1.771133333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.773783333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,22 +4499,27 @@
         <v>82933.9869</v>
       </c>
       <c r="G106" t="n">
+        <v>1.771933333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.77375</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,22 +4543,27 @@
         <v>285</v>
       </c>
       <c r="G107" t="n">
+        <v>1.772333333333332</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.773933333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,22 +4587,27 @@
         <v>285</v>
       </c>
       <c r="G108" t="n">
+        <v>1.772866666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.773883333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4379,22 +4631,27 @@
         <v>126857.4116</v>
       </c>
       <c r="G109" t="n">
+        <v>1.773133333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.774116666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,22 +4675,27 @@
         <v>32590.1602</v>
       </c>
       <c r="G110" t="n">
+        <v>1.773666666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.774333333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,22 +4719,27 @@
         <v>98129.3388</v>
       </c>
       <c r="G111" t="n">
+        <v>1.774399999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.774566666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,22 +4763,27 @@
         <v>961069.2446</v>
       </c>
       <c r="G112" t="n">
+        <v>1.775199999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.774466666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4535,22 +4807,27 @@
         <v>1282677.5028</v>
       </c>
       <c r="G113" t="n">
+        <v>1.775733333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.774716666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,22 +4851,27 @@
         <v>382274.4318</v>
       </c>
       <c r="G114" t="n">
+        <v>1.776799999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.774966666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,22 +4895,27 @@
         <v>313789.8423</v>
       </c>
       <c r="G115" t="n">
+        <v>1.777466666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.774966666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,22 +4939,27 @@
         <v>534758</v>
       </c>
       <c r="G116" t="n">
+        <v>1.7772</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.774716666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4691,22 +4983,27 @@
         <v>968.5774</v>
       </c>
       <c r="G117" t="n">
+        <v>1.777666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.7747</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,22 +5027,27 @@
         <v>455.3602</v>
       </c>
       <c r="G118" t="n">
+        <v>1.7782</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.7747</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,22 +5071,29 @@
         <v>559454.6093</v>
       </c>
       <c r="G119" t="n">
+        <v>1.778733333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.7747</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4806,18 +5115,27 @@
         <v>972.701</v>
       </c>
       <c r="G120" t="n">
+        <v>1.778266666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.774483333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5159,27 @@
         <v>402.0081</v>
       </c>
       <c r="G121" t="n">
+        <v>1.7774</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.774283333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5203,27 @@
         <v>620.7566</v>
       </c>
       <c r="G122" t="n">
+        <v>1.7766</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.7741</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5247,27 @@
         <v>196965.9921</v>
       </c>
       <c r="G123" t="n">
+        <v>1.7768</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.774166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5291,27 @@
         <v>288655.4093</v>
       </c>
       <c r="G124" t="n">
+        <v>1.776333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.774016666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5335,27 @@
         <v>10000</v>
       </c>
       <c r="G125" t="n">
+        <v>1.776733333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.7741</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5379,27 @@
         <v>285</v>
       </c>
       <c r="G126" t="n">
+        <v>1.7772</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.774233333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5423,27 @@
         <v>90000</v>
       </c>
       <c r="G127" t="n">
+        <v>1.7776</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.7744</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5467,27 @@
         <v>736.5389</v>
       </c>
       <c r="G128" t="n">
+        <v>1.7778</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.7746</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5511,27 @@
         <v>70000</v>
       </c>
       <c r="G129" t="n">
+        <v>1.777266666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.774583333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5555,27 @@
         <v>138582.1648906338</v>
       </c>
       <c r="G130" t="n">
+        <v>1.777333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.774716666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5599,27 @@
         <v>34975.8306</v>
       </c>
       <c r="G131" t="n">
+        <v>1.778333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.77485</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5643,27 @@
         <v>290376.9301</v>
       </c>
       <c r="G132" t="n">
+        <v>1.7784</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.775066666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5687,27 @@
         <v>77707.63219999999</v>
       </c>
       <c r="G133" t="n">
+        <v>1.7784</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.7753</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5731,27 @@
         <v>54317.5897</v>
       </c>
       <c r="G134" t="n">
+        <v>1.7784</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.77555</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5775,27 @@
         <v>52867.5727</v>
       </c>
       <c r="G135" t="n">
+        <v>1.779266666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.775766666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5819,27 @@
         <v>32732.6017</v>
       </c>
       <c r="G136" t="n">
+        <v>1.780133333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.7759</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +5863,27 @@
         <v>80165.08229999999</v>
       </c>
       <c r="G137" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.776033333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +5907,27 @@
         <v>694958.8753093663</v>
       </c>
       <c r="G138" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.776166666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +5951,27 @@
         <v>607635.7543906338</v>
       </c>
       <c r="G139" t="n">
+        <v>1.781933333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.7763</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +5995,27 @@
         <v>26992.4553</v>
       </c>
       <c r="G140" t="n">
+        <v>1.782200000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.776483333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6039,27 @@
         <v>982104.2226</v>
       </c>
       <c r="G141" t="n">
+        <v>1.782533333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.7767</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6083,27 @@
         <v>12381.1657</v>
       </c>
       <c r="G142" t="n">
+        <v>1.782933333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.776883333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6127,27 @@
         <v>25550.1915</v>
       </c>
       <c r="G143" t="n">
+        <v>1.783266666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.777066666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6171,27 @@
         <v>11557.4099</v>
       </c>
       <c r="G144" t="n">
+        <v>1.784333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.777233333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6215,27 @@
         <v>10890.1722</v>
       </c>
       <c r="G145" t="n">
+        <v>1.784666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.777399999999999</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6259,27 @@
         <v>7262.9653</v>
       </c>
       <c r="G146" t="n">
+        <v>1.785000000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.777599999999999</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6303,27 @@
         <v>5438.2675</v>
       </c>
       <c r="G147" t="n">
+        <v>1.785333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.777816666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6347,27 @@
         <v>5955.7557</v>
       </c>
       <c r="G148" t="n">
+        <v>1.785666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.778116666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6391,27 @@
         <v>1950.1201</v>
       </c>
       <c r="G149" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.778449999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6435,27 @@
         <v>1333538.2742</v>
       </c>
       <c r="G150" t="n">
+        <v>1.786333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.778749999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6479,27 @@
         <v>2310406</v>
       </c>
       <c r="G151" t="n">
+        <v>1.7856</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.778766666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6523,27 @@
         <v>2059266</v>
       </c>
       <c r="G152" t="n">
+        <v>1.784666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.778649999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6567,27 @@
         <v>1357488</v>
       </c>
       <c r="G153" t="n">
+        <v>1.783666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.778583333333332</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6611,27 @@
         <v>140890.2376</v>
       </c>
       <c r="G154" t="n">
+        <v>1.7828</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.778549999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6655,27 @@
         <v>3152058</v>
       </c>
       <c r="G155" t="n">
+        <v>1.7828</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.778849999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6699,27 @@
         <v>512214</v>
       </c>
       <c r="G156" t="n">
+        <v>1.781533333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.778916666666665</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6743,27 @@
         <v>663.9815</v>
       </c>
       <c r="G157" t="n">
+        <v>1.781333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.779266666666665</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6787,27 @@
         <v>50000</v>
       </c>
       <c r="G158" t="n">
+        <v>1.781133333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.779483333333332</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +6831,27 @@
         <v>2123657.4854</v>
       </c>
       <c r="G159" t="n">
+        <v>1.779933333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.779583333333332</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +6875,27 @@
         <v>299.3424</v>
       </c>
       <c r="G160" t="n">
+        <v>1.779733333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.779799999999998</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +6919,27 @@
         <v>7023.1094</v>
       </c>
       <c r="G161" t="n">
+        <v>1.778533333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.779766666666665</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +6963,27 @@
         <v>1027630.1384</v>
       </c>
       <c r="G162" t="n">
+        <v>1.778266666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.779916666666665</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +7007,27 @@
         <v>285</v>
       </c>
       <c r="G163" t="n">
+        <v>1.778066666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.780083333333331</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7051,27 @@
         <v>570</v>
       </c>
       <c r="G164" t="n">
+        <v>1.777866666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.780249999999998</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7095,27 @@
         <v>2000</v>
       </c>
       <c r="G165" t="n">
+        <v>1.777733333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.780399999999998</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7139,27 @@
         <v>476.5413</v>
       </c>
       <c r="G166" t="n">
+        <v>1.777666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.780199999999998</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7183,27 @@
         <v>427.3375</v>
       </c>
       <c r="G167" t="n">
+        <v>1.7788</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.780266666666665</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7227,27 @@
         <v>20806.7673</v>
       </c>
       <c r="G168" t="n">
+        <v>1.779933333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.780349999999998</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7271,27 @@
         <v>1000000</v>
       </c>
       <c r="G169" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.780516666666665</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7315,27 @@
         <v>3435.5179</v>
       </c>
       <c r="G170" t="n">
+        <v>1.780066666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.780449999999998</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7359,27 @@
         <v>1000</v>
       </c>
       <c r="G171" t="n">
+        <v>1.780266666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.780383333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7403,27 @@
         <v>290</v>
       </c>
       <c r="G172" t="n">
+        <v>1.780266666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.780533333333332</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7447,27 @@
         <v>112044.8179271709</v>
       </c>
       <c r="G173" t="n">
+        <v>1.780266666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.780616666666665</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7491,27 @@
         <v>58115.44132658053</v>
       </c>
       <c r="G174" t="n">
+        <v>1.781333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.780716666666665</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7535,27 @@
         <v>279955.2071668533</v>
       </c>
       <c r="G175" t="n">
+        <v>1.7814</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.780783333333332</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7579,27 @@
         <v>4911.7966</v>
       </c>
       <c r="G176" t="n">
+        <v>1.782466666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.781083333333332</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7623,27 @@
         <v>107772.0786</v>
       </c>
       <c r="G177" t="n">
+        <v>1.781733333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.780933333333331</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7667,27 @@
         <v>35878.6348</v>
       </c>
       <c r="G178" t="n">
+        <v>1.7818</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.780983333333332</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7711,27 @@
         <v>14447.8782</v>
       </c>
       <c r="G179" t="n">
+        <v>1.781866666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.781033333333332</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7755,27 @@
         <v>13231.7061</v>
       </c>
       <c r="G180" t="n">
+        <v>1.781933333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.781316666666665</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +7799,27 @@
         <v>12651.4797</v>
       </c>
       <c r="G181" t="n">
+        <v>1.783000000000001</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.781599999999998</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +7843,27 @@
         <v>48805.9764</v>
       </c>
       <c r="G182" t="n">
+        <v>1.783066666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.781883333333331</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +7887,27 @@
         <v>7889.3304</v>
       </c>
       <c r="G183" t="n">
+        <v>1.783133333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.781933333333331</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +7931,27 @@
         <v>55171.514</v>
       </c>
       <c r="G184" t="n">
+        <v>1.783133333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.782216666666665</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +7975,27 @@
         <v>17176.8827</v>
       </c>
       <c r="G185" t="n">
+        <v>1.784133333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>1.782299999999998</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,18 +8019,27 @@
         <v>23052.7831</v>
       </c>
       <c r="G186" t="n">
+        <v>1.785200000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>1.782383333333331</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,18 +8063,27 @@
         <v>19775.772</v>
       </c>
       <c r="G187" t="n">
+        <v>1.785400000000001</v>
+      </c>
+      <c r="H187" t="n">
         <v>1.782483333333331</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,18 +8107,27 @@
         <v>459541.6519</v>
       </c>
       <c r="G188" t="n">
+        <v>1.784733333333334</v>
+      </c>
+      <c r="H188" t="n">
         <v>1.782349999999998</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,18 +8151,27 @@
         <v>365.7737</v>
       </c>
       <c r="G189" t="n">
+        <v>1.784866666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>1.782616666666665</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,18 +8195,27 @@
         <v>500662.2855</v>
       </c>
       <c r="G190" t="n">
+        <v>1.784133333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>1.782483333333331</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,18 +8239,27 @@
         <v>223401.8484</v>
       </c>
       <c r="G191" t="n">
+        <v>1.784266666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>1.782566666666665</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,18 +8283,27 @@
         <v>363966.3665</v>
       </c>
       <c r="G192" t="n">
+        <v>1.785266666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>1.782649999999998</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,18 +8327,27 @@
         <v>146989.4763</v>
       </c>
       <c r="G193" t="n">
+        <v>1.7854</v>
+      </c>
+      <c r="H193" t="n">
         <v>1.782733333333331</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,18 +8371,27 @@
         <v>71331.6413</v>
       </c>
       <c r="G194" t="n">
+        <v>1.785533333333334</v>
+      </c>
+      <c r="H194" t="n">
         <v>1.782816666666664</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,18 +8415,27 @@
         <v>65264.3072</v>
       </c>
       <c r="G195" t="n">
+        <v>1.785666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>1.782916666666664</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,18 +8459,27 @@
         <v>701417.5868</v>
       </c>
       <c r="G196" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="H196" t="n">
         <v>1.782816666666664</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,18 +8503,27 @@
         <v>264784.17</v>
       </c>
       <c r="G197" t="n">
+        <v>1.785133333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>1.782916666666664</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,18 +8547,27 @@
         <v>83872.83259999999</v>
       </c>
       <c r="G198" t="n">
+        <v>1.785266666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>1.782999999999998</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,18 +8591,27 @@
         <v>267677.7627</v>
       </c>
       <c r="G199" t="n">
+        <v>1.7854</v>
+      </c>
+      <c r="H199" t="n">
         <v>1.783083333333331</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7606,18 +8635,27 @@
         <v>2138917.5426</v>
       </c>
       <c r="G200" t="n">
+        <v>1.784733333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>1.782933333333331</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7641,18 +8679,27 @@
         <v>2153939.1576</v>
       </c>
       <c r="G201" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="H201" t="n">
         <v>1.782749999999998</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7676,18 +8723,27 @@
         <v>676950.7306</v>
       </c>
       <c r="G202" t="n">
+        <v>1.7832</v>
+      </c>
+      <c r="H202" t="n">
         <v>1.782549999999998</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,18 +8767,27 @@
         <v>282.2394</v>
       </c>
       <c r="G203" t="n">
+        <v>1.7844</v>
+      </c>
+      <c r="H203" t="n">
         <v>1.782633333333331</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,18 +8811,27 @@
         <v>1141705.9855</v>
       </c>
       <c r="G204" t="n">
+        <v>1.783666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>1.782449999999998</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,18 +8855,27 @@
         <v>1345696</v>
       </c>
       <c r="G205" t="n">
+        <v>1.7838</v>
+      </c>
+      <c r="H205" t="n">
         <v>1.782266666666665</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7816,18 +8899,27 @@
         <v>1380136</v>
       </c>
       <c r="G206" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="H206" t="n">
         <v>1.782316666666665</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7851,18 +8943,27 @@
         <v>606456.5257</v>
       </c>
       <c r="G207" t="n">
+        <v>1.783133333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>1.782099999999998</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7886,18 +8987,27 @@
         <v>752545</v>
       </c>
       <c r="G208" t="n">
+        <v>1.782333333333334</v>
+      </c>
+      <c r="H208" t="n">
         <v>1.781899999999998</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7921,18 +9031,27 @@
         <v>113508.6181031267</v>
       </c>
       <c r="G209" t="n">
+        <v>1.782533333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>1.781949999999998</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7956,18 +9075,27 @@
         <v>111937.0929781791</v>
       </c>
       <c r="G210" t="n">
+        <v>1.7828</v>
+      </c>
+      <c r="H210" t="n">
         <v>1.782033333333331</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7991,18 +9119,27 @@
         <v>33482.70089285714</v>
       </c>
       <c r="G211" t="n">
+        <v>1.783866666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>1.782383333333331</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8026,18 +9163,27 @@
         <v>16741.07142857143</v>
       </c>
       <c r="G212" t="n">
+        <v>1.784133333333334</v>
+      </c>
+      <c r="H212" t="n">
         <v>1.782783333333331</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8061,18 +9207,27 @@
         <v>5888.7554</v>
       </c>
       <c r="G213" t="n">
+        <v>1.783600000000001</v>
+      </c>
+      <c r="H213" t="n">
         <v>1.782983333333331</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8096,18 +9251,27 @@
         <v>5634.1844</v>
       </c>
       <c r="G214" t="n">
+        <v>1.783866666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>1.783349999999998</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8131,18 +9295,27 @@
         <v>17028.10453831415</v>
       </c>
       <c r="G215" t="n">
+        <v>1.784933333333334</v>
+      </c>
+      <c r="H215" t="n">
         <v>1.783466666666665</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8166,18 +9339,27 @@
         <v>237643.5087589515</v>
       </c>
       <c r="G216" t="n">
+        <v>1.786133333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>1.783899999999998</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8201,18 +9383,27 @@
         <v>23351.5204</v>
       </c>
       <c r="G217" t="n">
+        <v>1.787466666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>1.784083333333332</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8236,18 +9427,27 @@
         <v>2931907.528644593</v>
       </c>
       <c r="G218" t="n">
+        <v>1.787533333333334</v>
+      </c>
+      <c r="H218" t="n">
         <v>1.784233333333332</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8271,18 +9471,27 @@
         <v>61349.69325153374</v>
       </c>
       <c r="G219" t="n">
+        <v>1.7886</v>
+      </c>
+      <c r="H219" t="n">
         <v>1.784616666666665</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8306,18 +9515,27 @@
         <v>127354.7537484663</v>
       </c>
       <c r="G220" t="n">
+        <v>1.789666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>1.784749999999999</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8341,18 +9559,27 @@
         <v>83832.17075153375</v>
       </c>
       <c r="G221" t="n">
+        <v>1.789866666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>1.785149999999999</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8376,19 +9603,28 @@
         <v>12157.0643</v>
       </c>
       <c r="G222" t="n">
+        <v>1.791266666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>1.785349999999999</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
+      <c r="L222" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1.008544018058691</v>
       </c>
     </row>
     <row r="223">
@@ -8411,18 +9647,21 @@
         <v>42511.1706</v>
       </c>
       <c r="G223" t="n">
+        <v>1.7926</v>
+      </c>
+      <c r="H223" t="n">
         <v>1.785533333333332</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8446,18 +9685,21 @@
         <v>32783.6417</v>
       </c>
       <c r="G224" t="n">
+        <v>1.792933333333334</v>
+      </c>
+      <c r="H224" t="n">
         <v>1.785716666666666</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8481,18 +9723,21 @@
         <v>2434602</v>
       </c>
       <c r="G225" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="H225" t="n">
         <v>1.785599999999999</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8516,18 +9761,21 @@
         <v>1406883</v>
       </c>
       <c r="G226" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="H226" t="n">
         <v>1.785716666666666</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8551,18 +9799,21 @@
         <v>300</v>
       </c>
       <c r="G227" t="n">
+        <v>1.790733333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>1.785766666666666</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8586,18 +9837,21 @@
         <v>11500</v>
       </c>
       <c r="G228" t="n">
+        <v>1.790533333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>1.785633333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8621,18 +9875,21 @@
         <v>582</v>
       </c>
       <c r="G229" t="n">
+        <v>1.7904</v>
+      </c>
+      <c r="H229" t="n">
         <v>1.785699999999999</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8656,18 +9913,21 @@
         <v>14033.2082</v>
       </c>
       <c r="G230" t="n">
+        <v>1.7906</v>
+      </c>
+      <c r="H230" t="n">
         <v>1.7861</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8691,18 +9951,21 @@
         <v>3058.7051</v>
       </c>
       <c r="G231" t="n">
+        <v>1.790666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>1.7865</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8726,18 +9989,21 @@
         <v>283116.0662</v>
       </c>
       <c r="G232" t="n">
+        <v>1.790733333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>1.7867</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,18 +10027,21 @@
         <v>48220.7434</v>
       </c>
       <c r="G233" t="n">
+        <v>1.790933333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>1.786899999999999</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8796,18 +10065,21 @@
         <v>65431.2457</v>
       </c>
       <c r="G234" t="n">
+        <v>1.791266666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>1.787099999999999</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8831,18 +10103,21 @@
         <v>993820.3488</v>
       </c>
       <c r="G235" t="n">
+        <v>1.7916</v>
+      </c>
+      <c r="H235" t="n">
         <v>1.787299999999999</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8866,18 +10141,21 @@
         <v>3881243.8453</v>
       </c>
       <c r="G236" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="H236" t="n">
         <v>1.787533333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8901,18 +10179,21 @@
         <v>63838.662</v>
       </c>
       <c r="G237" t="n">
+        <v>1.7924</v>
+      </c>
+      <c r="H237" t="n">
         <v>1.788016666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8936,18 +10217,21 @@
         <v>57072.9058</v>
       </c>
       <c r="G238" t="n">
+        <v>1.792933333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>1.788316666666666</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8971,18 +10255,21 @@
         <v>67085.6397</v>
       </c>
       <c r="G239" t="n">
+        <v>1.792533333333334</v>
+      </c>
+      <c r="H239" t="n">
         <v>1.788383333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9006,18 +10293,401 @@
         <v>196256.4796</v>
       </c>
       <c r="G240" t="n">
+        <v>1.7934</v>
+      </c>
+      <c r="H240" t="n">
         <v>1.788466666666666</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F241" t="n">
+        <v>24893.9816</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.794333333333334</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.78855</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.7885</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F243" t="n">
+        <v>4932.6503</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1.794933333333333</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.788583333333333</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F244" t="n">
+        <v>26506.2732</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.788666666666666</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F245" t="n">
+        <v>900</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1.794133333333334</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1.788599999999999</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F246" t="n">
+        <v>40856.5419</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1.793800000000001</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1.788649999999999</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F247" t="n">
+        <v>300</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1.792866666666667</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1.788566666666666</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F248" t="n">
+        <v>300</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1.791933333333334</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1.788699999999999</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F249" t="n">
+        <v>39246.908</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1.790933333333334</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1.788616666666666</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F250" t="n">
+        <v>600</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1.788766666666666</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest AOA.xlsx
+++ b/BackTest/2020-01-22 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N308"/>
+  <dimension ref="A1:M308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-18695696.611</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-17674925.611</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-18084873.611</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-18084873.611</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-15713404.611</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-17802355.611</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-17802355.611</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-17802355.611</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-17839348.1448</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-17853012.891</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-17452842.76359999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-18921071.76359999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-19020935.13109999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-20205212.32569999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,19 @@
         <v>-38557751.08366812</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>1.769</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.769</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4846,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4883,23 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1.774</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4926,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4959,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4992,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5025,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5056,19 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>1.777</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5093,23 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>1.777</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5134,23 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>1.778</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5175,19 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>1.778</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.778</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5214,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5251,23 @@
         <v>-38431189.84816812</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>1.775</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,22 +5292,15 @@
         <v>-38431758.35296812</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K147" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5716,110 +5325,101 @@
         <v>-38403825.35296812</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="J148" t="n">
         <v>1.768</v>
       </c>
-      <c r="K148" t="n">
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
         <v>1.77</v>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="C149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10059.6462</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-38393765.70676812</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5560.6423</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-38388205.06446812</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="n">
         <v>1.77</v>
       </c>
-      <c r="C149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10059.6462</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-38393765.70676812</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="J150" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5560.6423</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-38388205.06446812</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K150" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5844,110 +5444,99 @@
         <v>-38455574.52446812</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1.775</v>
       </c>
       <c r="J151" t="n">
         <v>1.775</v>
       </c>
-      <c r="K151" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F152" t="n">
+        <v>28525.87</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-38455574.52446812</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18114.2732</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-38473688.79766811</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" t="n">
         <v>1.772</v>
       </c>
-      <c r="C152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F152" t="n">
-        <v>28525.87</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-38455574.52446812</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K152" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="J153" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F153" t="n">
-        <v>18114.2732</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-38473688.79766811</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K153" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5972,26 +5561,23 @@
         <v>-38510208.13026811</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="J154" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="K154" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L154" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6016,26 +5602,23 @@
         <v>-38535938.25196811</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1.765</v>
       </c>
       <c r="J155" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="K155" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6060,26 +5643,23 @@
         <v>-38535368.25196811</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="J156" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="K156" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L156" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6104,26 +5684,23 @@
         <v>-38536912.70986811</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1.772</v>
       </c>
       <c r="J157" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K157" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L157" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6148,26 +5725,23 @@
         <v>-38527138.06366811</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="J158" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="K158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L158" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6194,24 +5768,19 @@
       <c r="H159" t="n">
         <v>1</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L159" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6236,26 +5805,23 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1.772</v>
       </c>
       <c r="J160" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K160" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6280,26 +5846,23 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1.775</v>
       </c>
       <c r="J161" t="n">
         <v>1.775</v>
       </c>
-      <c r="K161" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6324,26 +5887,23 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1.775</v>
       </c>
       <c r="J162" t="n">
         <v>1.775</v>
       </c>
-      <c r="K162" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6368,26 +5928,21 @@
         <v>-35826631.8621681</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>1.775</v>
       </c>
-      <c r="K163" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6414,24 +5969,19 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="K164" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6458,24 +6008,19 @@
       <c r="H165" t="n">
         <v>1</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="K165" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6500,24 +6045,21 @@
         <v>-35744267.8752681</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6542,24 +6084,21 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6584,24 +6123,21 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6628,24 +6164,19 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="K169" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6672,24 +6203,19 @@
       <c r="H170" t="n">
         <v>1</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="K170" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6716,24 +6242,19 @@
       <c r="H171" t="n">
         <v>1</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="K171" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>1.775</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6758,24 +6279,21 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6800,328 +6318,323 @@
         <v>-34274657.9417681</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F174" t="n">
+        <v>534758</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-34809415.9417681</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="F175" t="n">
+        <v>968.5774</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-34808447.3643681</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F176" t="n">
+        <v>455.3602</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-34807992.0041681</v>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1.000643340857788</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F174" t="n">
-        <v>534758</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-34809415.9417681</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="F175" t="n">
-        <v>968.5774</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-34808447.3643681</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="K175" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="F176" t="n">
-        <v>455.3602</v>
-      </c>
-      <c r="G176" t="n">
+      <c r="L176" t="n">
+        <v>0.9995070422535212</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F177" t="n">
+        <v>559454.6093</v>
+      </c>
+      <c r="G177" t="n">
         <v>-34807992.0041681</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F178" t="n">
+        <v>972.701</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-34808964.7051681</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F179" t="n">
+        <v>402.0081</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-34808964.7051681</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F180" t="n">
+        <v>620.7566</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-34808964.7051681</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="F177" t="n">
-        <v>559454.6093</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-34807992.0041681</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F181" t="n">
+        <v>196965.9921</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-34611998.7130681</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F178" t="n">
-        <v>972.701</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-34808964.7051681</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F179" t="n">
-        <v>402.0081</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-34808964.7051681</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F180" t="n">
-        <v>620.7566</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-34808964.7051681</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="F181" t="n">
-        <v>196965.9921</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-34611998.7130681</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7146,18 +6659,23 @@
         <v>-34900654.1223681</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>1.783</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7182,18 +6700,23 @@
         <v>-34890654.1223681</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>1.769</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7220,16 +6743,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7254,18 +6780,21 @@
         <v>-34980369.1223681</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7292,16 +6821,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7328,16 +6860,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7364,16 +6899,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7400,16 +6938,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7436,16 +6977,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7472,16 +7016,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7508,16 +7055,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7544,16 +7094,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7580,16 +7133,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7616,16 +7172,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7652,16 +7211,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7686,18 +7248,21 @@
         <v>-34268959.1159681</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1.002914075749011</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7722,18 +7287,15 @@
         <v>-34241966.6606681</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7758,18 +7320,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7794,18 +7353,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7830,18 +7386,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7866,18 +7419,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7902,18 +7452,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7938,18 +7485,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7974,18 +7518,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8010,18 +7551,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8046,18 +7584,15 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8082,18 +7617,15 @@
         <v>-34593400.7122681</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8118,18 +7650,15 @@
         <v>-36903806.7122681</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8154,18 +7683,15 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8190,18 +7716,15 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8228,16 +7751,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8264,16 +7784,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8300,16 +7817,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8336,16 +7850,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8372,16 +7883,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8408,16 +7916,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8444,16 +7949,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8480,16 +7982,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8516,16 +8015,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8552,16 +8048,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8588,16 +8081,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8624,16 +8114,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8660,16 +8147,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8696,16 +8180,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8732,16 +8213,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8768,16 +8246,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8804,16 +8279,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8840,16 +8312,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8876,16 +8345,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8912,16 +8378,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8948,16 +8411,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8984,16 +8444,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9020,16 +8477,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9054,18 +8508,15 @@
         <v>-36336991.96614151</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9092,16 +8543,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9126,18 +8574,15 @@
         <v>-36301113.33134151</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9162,18 +8607,15 @@
         <v>-36301113.33134151</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9198,18 +8640,15 @@
         <v>-36301113.33134151</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9236,16 +8675,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9270,18 +8706,15 @@
         <v>-36301113.33134151</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9308,16 +8741,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9344,16 +8774,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9380,16 +8807,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9416,16 +8840,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9452,16 +8873,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9486,18 +8904,15 @@
         <v>-36720059.5437415</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9524,16 +8939,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9560,16 +8972,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9596,16 +9005,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9632,16 +9038,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9668,16 +9071,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9704,16 +9104,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9740,16 +9137,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9776,16 +9170,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9812,16 +9203,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9848,16 +9236,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9884,16 +9269,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9920,16 +9302,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9956,16 +9335,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9992,16 +9368,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10028,16 +9401,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10064,16 +9434,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10100,16 +9467,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10136,16 +9500,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10172,16 +9533,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10208,16 +9566,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10244,16 +9599,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10280,16 +9632,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10316,16 +9665,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10352,16 +9698,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10388,16 +9731,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10424,16 +9764,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10460,16 +9797,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10496,16 +9830,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10532,16 +9863,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10566,18 +9894,15 @@
         <v>-42355063.89075906</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10602,18 +9927,15 @@
         <v>-42355063.89075906</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10638,18 +9960,15 @@
         <v>-42271231.72000752</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10674,18 +9993,15 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10710,18 +10026,15 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10746,18 +10059,15 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10782,18 +10092,15 @@
         <v>-44693676.65570752</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10820,16 +10127,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10856,16 +10160,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10892,16 +10193,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10928,16 +10226,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10964,16 +10259,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11000,16 +10292,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11036,16 +10325,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11072,16 +10358,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11106,18 +10389,15 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11142,18 +10422,15 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11178,18 +10455,15 @@
         <v>-41867353.29030752</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11214,18 +10488,15 @@
         <v>-41803514.62830752</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11250,18 +10521,15 @@
         <v>-41746441.72250752</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11288,16 +10556,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11324,16 +10589,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11360,16 +10622,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11396,16 +10655,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11432,16 +10688,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11468,16 +10721,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11504,16 +10754,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11540,16 +10787,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11576,16 +10820,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11612,16 +10853,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11648,16 +10886,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11684,18 +10919,15 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest AOA.xlsx
+++ b/BackTest/2020-01-22 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-17772064.0086</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-17772064.0086</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-17772064.0086</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-17771064.0086</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-17771064.0086</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-20727010.0086</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-19142305.0086</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-18752631.0086</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-19399968.0086</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-17484893.611</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-18695696.611</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-17674925.611</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-17674925.611</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-18084873.611</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-18084873.611</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-15713404.611</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17802355.611</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-17802355.611</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-17802355.611</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-17839348.1448</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-17853012.891</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-17853012.891</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-17452842.76359999</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-18921071.76359999</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-19020935.13109999</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-20205212.32569999</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -4807,14 +4807,10 @@
         <v>-38557751.08366812</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1.769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -4847,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4883,19 +4873,11 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1.774</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5056,14 +5038,10 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="J141" t="n">
-        <v>1.777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5093,19 +5071,11 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="J142" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5134,19 +5104,11 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="J143" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5175,14 +5137,10 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="J144" t="n">
-        <v>1.778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5215,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5251,19 +5203,11 @@
         <v>-38431189.84816812</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J146" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5325,14 +5269,10 @@
         <v>-38403825.35296812</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="J148" t="n">
-        <v>1.768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5362,19 +5302,11 @@
         <v>-38393765.70676812</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J149" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5403,19 +5335,11 @@
         <v>-38388205.06446812</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5444,14 +5368,10 @@
         <v>-38455574.52446812</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J151" t="n">
-        <v>1.775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5481,17 +5401,15 @@
         <v>-38455574.52446812</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.772</v>
+      </c>
       <c r="J152" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1.772</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5520,13 +5438,13 @@
         <v>-38473688.79766811</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>1.772</v>
       </c>
       <c r="J153" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5561,13 +5479,13 @@
         <v>-38510208.13026811</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>1.768</v>
       </c>
       <c r="J154" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5602,13 +5520,13 @@
         <v>-38535938.25196811</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>1.765</v>
       </c>
       <c r="J155" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5643,13 +5561,13 @@
         <v>-38535368.25196811</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>1.764</v>
       </c>
       <c r="J156" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5684,13 +5602,13 @@
         <v>-38536912.70986811</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>1.772</v>
       </c>
       <c r="J157" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5725,13 +5643,13 @@
         <v>-38527138.06366811</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>1.764</v>
       </c>
       <c r="J158" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5768,9 +5686,11 @@
       <c r="H159" t="n">
         <v>1</v>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>1.772</v>
+      </c>
       <c r="J159" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5805,13 +5725,13 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>1.772</v>
       </c>
       <c r="J160" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5846,13 +5766,13 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>1.775</v>
       </c>
       <c r="J161" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5887,13 +5807,13 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>1.775</v>
       </c>
       <c r="J162" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5928,11 +5848,13 @@
         <v>-35826631.8621681</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.775</v>
+      </c>
       <c r="J163" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5969,9 +5891,11 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J164" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6008,9 +5932,11 @@
       <c r="H165" t="n">
         <v>1</v>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>1.782</v>
+      </c>
       <c r="J165" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6047,9 +5973,11 @@
       <c r="H166" t="n">
         <v>1</v>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>1.781</v>
+      </c>
       <c r="J166" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6086,9 +6014,11 @@
       <c r="H167" t="n">
         <v>1</v>
       </c>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>1.78</v>
+      </c>
       <c r="J167" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6123,11 +6053,11 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6164,9 +6094,11 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J169" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6203,9 +6135,11 @@
       <c r="H170" t="n">
         <v>1</v>
       </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J170" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6242,9 +6176,11 @@
       <c r="H171" t="n">
         <v>1</v>
       </c>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J171" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6281,9 +6217,11 @@
       <c r="H172" t="n">
         <v>1</v>
       </c>
-      <c r="I172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>1.78</v>
+      </c>
       <c r="J172" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6320,9 +6258,11 @@
       <c r="H173" t="n">
         <v>1</v>
       </c>
-      <c r="I173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>1.78</v>
+      </c>
       <c r="J173" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6357,11 +6297,11 @@
         <v>-34809415.9417681</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6398,9 +6338,11 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>1.768</v>
+      </c>
       <c r="J175" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6435,19 +6377,21 @@
         <v>-34807992.0041681</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.782</v>
+      </c>
       <c r="J176" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>0.9995070422535212</v>
+        <v>1</v>
       </c>
       <c r="M176" t="inlineStr"/>
     </row>
@@ -6474,11 +6418,17 @@
         <v>-34807992.0041681</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6507,11 +6457,17 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6540,15 +6496,19 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>1.769</v>
       </c>
       <c r="J179" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+        <v>1.772</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6577,17 +6537,17 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>1.769</v>
       </c>
       <c r="J180" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6618,17 +6578,17 @@
         <v>-34611998.7130681</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>1.769</v>
       </c>
       <c r="J181" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6659,17 +6619,17 @@
         <v>-34900654.1223681</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>1.783</v>
       </c>
       <c r="J182" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6700,13 +6660,13 @@
         <v>-34890654.1223681</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>1.769</v>
       </c>
       <c r="J183" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6745,7 +6705,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6780,11 +6740,11 @@
         <v>-34980369.1223681</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6823,7 +6783,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6862,7 +6822,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6897,11 +6857,13 @@
         <v>-34911050.41857746</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.772</v>
+      </c>
       <c r="J188" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6940,7 +6902,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6979,7 +6941,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7018,7 +6980,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7057,7 +7019,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7096,7 +7058,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7135,7 +7097,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7174,7 +7136,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7213,7 +7175,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7248,19 +7210,19 @@
         <v>-34268959.1159681</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>1.769</v>
+        <v>1.772</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.002914075749011</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr"/>
     </row>
@@ -7287,11 +7249,17 @@
         <v>-34241966.6606681</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +7288,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7353,11 +7327,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7386,11 +7366,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7419,11 +7405,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7452,11 +7444,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7485,11 +7483,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7518,11 +7522,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7551,11 +7561,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7584,11 +7600,17 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7617,11 +7639,17 @@
         <v>-34593400.7122681</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +7678,17 @@
         <v>-36903806.7122681</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +7717,17 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +7756,17 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7752,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7785,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7818,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7851,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7884,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7917,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7950,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7983,8 +8071,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8016,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8049,8 +8149,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8082,8 +8188,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8115,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8148,8 +8266,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8181,8 +8305,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8214,8 +8344,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8247,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8280,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8313,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8346,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8379,8 +8539,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8412,8 +8578,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8445,8 +8617,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8478,8 +8656,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8508,11 +8692,17 @@
         <v>-36336991.96614151</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8544,8 +8734,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8574,11 +8770,17 @@
         <v>-36301113.33134151</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8607,11 +8809,17 @@
         <v>-36301113.33134151</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8640,11 +8848,17 @@
         <v>-36301113.33134151</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8676,8 +8890,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8706,11 +8926,17 @@
         <v>-36301113.33134151</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8742,8 +8968,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8775,8 +9007,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8808,8 +9046,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8841,8 +9085,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8874,8 +9124,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +9160,17 @@
         <v>-36720059.5437415</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8940,8 +9202,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8973,8 +9241,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9006,8 +9280,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9039,8 +9319,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9072,8 +9358,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9105,8 +9397,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9138,8 +9436,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9171,8 +9475,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9204,8 +9514,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9237,8 +9553,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9270,8 +9592,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9303,8 +9631,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9336,8 +9670,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9369,8 +9709,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9402,8 +9748,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9435,8 +9787,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9468,8 +9826,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9501,8 +9865,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9534,8 +9904,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9567,8 +9943,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9600,8 +9982,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9633,8 +10021,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9666,8 +10060,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9699,8 +10099,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9732,8 +10138,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9765,8 +10177,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9798,8 +10216,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9831,8 +10255,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9864,8 +10294,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +10330,17 @@
         <v>-42355063.89075906</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9927,11 +10369,17 @@
         <v>-42355063.89075906</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9960,11 +10408,17 @@
         <v>-42271231.72000752</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9993,11 +10447,17 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10026,11 +10486,17 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10059,11 +10525,17 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10092,11 +10564,17 @@
         <v>-44693676.65570752</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10128,8 +10606,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10161,8 +10645,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10194,8 +10684,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10227,8 +10723,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10260,8 +10762,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10293,8 +10801,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10326,8 +10840,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10359,8 +10879,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10389,11 +10915,17 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10422,11 +10954,17 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10455,11 +10993,17 @@
         <v>-41867353.29030752</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10488,11 +11032,17 @@
         <v>-41803514.62830752</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10521,11 +11071,17 @@
         <v>-41746441.72250752</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10557,8 +11113,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10590,8 +11152,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10623,8 +11191,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10656,8 +11230,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10689,8 +11269,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10722,8 +11308,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10755,8 +11347,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10788,8 +11386,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10821,8 +11425,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10854,8 +11464,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10887,8 +11503,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10920,14 +11542,20 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
       <c r="M308" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest AOA.xlsx
+++ b/BackTest/2020-01-22 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-17772064.0086</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-17772064.0086</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-17772064.0086</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-17771064.0086</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-17771064.0086</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-20727010.0086</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-19142305.0086</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-18752631.0086</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-19399968.0086</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-17484893.611</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-18695696.611</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-17674925.611</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-17674925.611</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-18084873.611</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-15713404.611</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-17802355.611</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-17839348.1448</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-17853012.891</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-17853012.891</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-34955947.49806813</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-34955947.49806813</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-34960873.71316813</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-34959839.84216813</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-36174237.75986813</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-34070497.75986813</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-36928501.68006813</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-38496336.68006813</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-38496336.68006813</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-38495760.76616813</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-38408928.82336812</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5401,14 +5401,10 @@
         <v>-38455574.52446812</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J152" t="n">
-        <v>1.772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
@@ -5438,429 +5434,361 @@
         <v>-38473688.79766811</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F154" t="n">
+        <v>36519.3326</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-38510208.13026811</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F155" t="n">
+        <v>25730.1217</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-38535938.25196811</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="C156" t="n">
         <v>1.772</v>
       </c>
-      <c r="J153" t="n">
+      <c r="D156" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="E156" t="n">
         <v>1.772</v>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="F156" t="n">
+        <v>570</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-38535368.25196811</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1544.4579</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-38536912.70986811</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9774.646199999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-38527138.06366811</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9774.646199999999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-38527138.06366811</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="F160" t="n">
+        <v>447992.1648</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-38079145.89886811</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F161" t="n">
+        <v>35643.7708</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-38079145.89886811</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F162" t="n">
+        <v>87403.17170000001</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-38079145.89886811</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C154" t="n">
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
         <v>1.765</v>
       </c>
-      <c r="D154" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E154" t="n">
+      <c r="C163" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="E163" t="n">
         <v>1.765</v>
       </c>
-      <c r="F154" t="n">
-        <v>36519.3326</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-38510208.13026811</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="F163" t="n">
+        <v>2252514.0367</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-35826631.8621681</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="F155" t="n">
-        <v>25730.1217</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-38535938.25196811</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="J155" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F156" t="n">
-        <v>570</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-38535368.25196811</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1544.4579</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-38536912.70986811</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F158" t="n">
-        <v>9774.646199999999</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-38527138.06366811</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9774.646199999999</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-38527138.06366811</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="F160" t="n">
-        <v>447992.1648</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-38079145.89886811</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F161" t="n">
-        <v>35643.7708</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-38079145.89886811</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F162" t="n">
-        <v>87403.17170000001</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-38079145.89886811</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2252514.0367</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-35826631.8621681</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J163" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5889,13 +5817,11 @@
         <v>-35743697.8752681</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5930,13 +5856,11 @@
         <v>-35743982.8752681</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1.782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5971,13 +5895,11 @@
         <v>-35744267.8752681</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1.781</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6012,13 +5934,11 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6057,7 +5977,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6092,13 +6012,11 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6133,13 +6051,11 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1.776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6174,13 +6090,11 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1.776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6215,13 +6129,11 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6256,13 +6168,11 @@
         <v>-34274657.9417681</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1.78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6301,7 +6211,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6336,13 +6246,11 @@
         <v>-34808447.3643681</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1.768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6377,13 +6285,11 @@
         <v>-34807992.0041681</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1.782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6422,7 +6328,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6461,7 +6367,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6496,13 +6402,11 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6537,13 +6441,11 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1.769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6578,13 +6480,11 @@
         <v>-34611998.7130681</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1.769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6619,13 +6519,11 @@
         <v>-34900654.1223681</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1.783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6660,13 +6558,11 @@
         <v>-34890654.1223681</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1.769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6705,7 +6601,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6744,7 +6640,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6783,7 +6679,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6818,19 +6714,19 @@
         <v>-35049632.58346809</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>1.772</v>
+        <v>1.775</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1</v>
+        <v>0.9933098591549296</v>
       </c>
       <c r="M187" t="inlineStr"/>
     </row>
@@ -6857,19 +6753,11 @@
         <v>-34911050.41857746</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J188" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6901,14 +6789,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6940,14 +6822,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6855,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7018,14 +6888,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +6921,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +6954,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7135,14 +6987,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7174,14 +7020,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7210,17 +7050,11 @@
         <v>-34268959.1159681</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7249,17 +7083,11 @@
         <v>-34241966.6606681</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7288,17 +7116,11 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7327,17 +7149,11 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +7185,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +7218,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7447,14 +7251,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7284,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7525,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7350,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7383,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7639,17 +7413,11 @@
         <v>-34593400.7122681</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7678,17 +7446,11 @@
         <v>-36903806.7122681</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7717,17 +7479,11 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7756,17 +7512,11 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7795,17 +7545,11 @@
         <v>-38822182.4746681</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7834,17 +7578,11 @@
         <v>-35670124.4746681</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7873,17 +7611,11 @@
         <v>-36182338.4746681</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7912,17 +7644,11 @@
         <v>-36181674.4931681</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7954,14 +7680,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7993,14 +7713,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8032,14 +7746,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8071,14 +7779,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8110,14 +7812,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8149,14 +7845,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8188,14 +7878,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +7911,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8266,14 +7944,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8305,14 +7977,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +8010,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +8043,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +8076,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +8109,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8500,14 +8142,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +8175,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +8208,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +8241,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +8274,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8307,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8734,14 +8340,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8773,14 +8373,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8812,14 +8406,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8851,14 +8439,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8890,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8929,14 +8505,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8538,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +8571,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9046,14 +8604,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8637,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9124,14 +8670,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9160,17 +8700,11 @@
         <v>-36720059.5437415</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9199,17 +8733,11 @@
         <v>-37220721.8292415</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9238,17 +8766,11 @@
         <v>-36997319.9808415</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9277,17 +8799,11 @@
         <v>-36997319.9808415</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9319,14 +8835,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9358,14 +8868,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9397,14 +8901,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9436,14 +8934,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9475,14 +8967,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9514,14 +9000,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9553,14 +9033,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9592,14 +9066,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9631,14 +9099,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9670,14 +9132,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9709,14 +9165,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9748,14 +9198,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9787,14 +9231,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9826,14 +9264,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9865,14 +9297,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9904,14 +9330,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9943,14 +9363,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9982,14 +9396,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +9429,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10060,14 +9462,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10099,14 +9495,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +9528,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10177,14 +9561,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10216,14 +9594,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10255,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10294,14 +9660,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10333,14 +9693,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10372,14 +9726,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10411,14 +9759,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10450,14 +9792,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10489,14 +9825,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10528,14 +9858,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10567,14 +9891,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10606,14 +9924,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10645,14 +9957,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10684,14 +9990,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10723,14 +10023,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10762,14 +10056,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10801,14 +10089,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10840,14 +10122,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10879,14 +10155,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10918,14 +10188,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10957,14 +10221,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10996,14 +10254,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11035,14 +10287,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11074,14 +10320,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11113,14 +10353,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11152,14 +10386,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11191,14 +10419,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11230,14 +10452,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11269,14 +10485,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11308,14 +10518,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11347,14 +10551,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11386,14 +10584,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11425,14 +10617,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11464,14 +10650,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11503,14 +10683,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11542,20 +10716,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
       <c r="M308" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest AOA.xlsx
+++ b/BackTest/2020-01-22 BackTest AOA.xlsx
@@ -3784,7 +3784,7 @@
         <v>-34955947.49806813</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-34955947.49806813</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-34960873.71316813</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-34959839.84216813</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-36174237.75986813</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-34070497.75986813</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-36928501.68006813</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-38496336.68006813</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-38496336.68006813</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-38495760.76616813</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-38408928.82336812</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5236,10 +5236,14 @@
         <v>-38431758.35296812</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.77</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5269,11 +5273,19 @@
         <v>-38403825.35296812</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5314,19 @@
         <v>-38393765.70676812</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,10 +5355,14 @@
         <v>-38388205.06446812</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.77</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5371,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5431,19 @@
         <v>-38455574.52446812</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,10 +5472,14 @@
         <v>-38473688.79766811</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5467,11 +5509,19 @@
         <v>-38510208.13026811</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5550,19 @@
         <v>-38535938.25196811</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5591,19 @@
         <v>-38535368.25196811</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5632,19 @@
         <v>-38536912.70986811</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5673,19 @@
         <v>-38527138.06366811</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5714,19 @@
         <v>-38527138.06366811</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5755,19 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5704,9 +5802,13 @@
         <v>1.775</v>
       </c>
       <c r="J161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+        <v>1.772</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5741,11 +5843,11 @@
         <v>1.775</v>
       </c>
       <c r="J162" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -5782,11 +5884,11 @@
         <v>1.775</v>
       </c>
       <c r="J163" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L163" t="n">
@@ -5817,11 +5919,13 @@
         <v>-35743697.8752681</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J164" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5856,11 +5960,13 @@
         <v>-35743982.8752681</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.782</v>
+      </c>
       <c r="J165" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5895,11 +6001,13 @@
         <v>-35744267.8752681</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.781</v>
+      </c>
       <c r="J166" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5934,11 +6042,13 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.78</v>
+      </c>
       <c r="J167" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -5973,11 +6083,13 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J168" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6012,11 +6124,13 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J169" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6051,11 +6165,13 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J170" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6090,11 +6206,13 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.776</v>
+      </c>
       <c r="J171" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6129,11 +6247,13 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.78</v>
+      </c>
       <c r="J172" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6168,11 +6288,13 @@
         <v>-34274657.9417681</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.78</v>
+      </c>
       <c r="J173" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6207,11 +6329,13 @@
         <v>-34809415.9417681</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.782</v>
+      </c>
       <c r="J174" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6246,11 +6370,13 @@
         <v>-34808447.3643681</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.768</v>
+      </c>
       <c r="J175" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6285,11 +6411,13 @@
         <v>-34807992.0041681</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.782</v>
+      </c>
       <c r="J176" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6324,19 +6452,19 @@
         <v>-34807992.0041681</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1.775</v>
+        <v>1.772</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>1.001207674943567</v>
       </c>
       <c r="M177" t="inlineStr"/>
     </row>
@@ -6363,17 +6491,11 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6402,17 +6524,15 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.769</v>
+      </c>
       <c r="J179" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.769</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6441,15 +6561,17 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.769</v>
+      </c>
       <c r="J180" t="n">
-        <v>1.775</v>
+        <v>1.769</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6480,15 +6602,17 @@
         <v>-34611998.7130681</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.769</v>
+      </c>
       <c r="J181" t="n">
-        <v>1.775</v>
+        <v>1.769</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6522,14 +6646,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6561,14 +6679,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6600,14 +6712,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6636,17 +6742,11 @@
         <v>-34980369.1223681</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6675,17 +6775,11 @@
         <v>-34979632.58346809</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6717,16 +6811,10 @@
         <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>0.9933098591549296</v>
+        <v>1</v>
       </c>
       <c r="M187" t="inlineStr"/>
     </row>
@@ -6753,7 +6841,7 @@
         <v>-34911050.41857746</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7050,7 +7138,7 @@
         <v>-34268959.1159681</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7083,7 +7171,7 @@
         <v>-34241966.6606681</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7116,7 +7204,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7182,7 +7270,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7215,7 +7303,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7248,7 +7336,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7281,7 +7369,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7314,7 +7402,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7347,7 +7435,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7380,7 +7468,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7446,7 +7534,7 @@
         <v>-36903806.7122681</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7479,7 +7567,7 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7512,7 +7600,7 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7545,7 +7633,7 @@
         <v>-38822182.4746681</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7578,7 +7666,7 @@
         <v>-35670124.4746681</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7611,7 +7699,7 @@
         <v>-36182338.4746681</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7644,7 +7732,7 @@
         <v>-36181674.4931681</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7677,7 +7765,7 @@
         <v>-36181674.4931681</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7710,7 +7798,7 @@
         <v>-38305331.9785681</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8700,7 +8788,7 @@
         <v>-36720059.5437415</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8733,7 +8821,7 @@
         <v>-37220721.8292415</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8766,7 +8854,7 @@
         <v>-36997319.9808415</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8799,7 +8887,7 @@
         <v>-36997319.9808415</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9690,7 +9778,7 @@
         <v>-42355063.89075906</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9855,7 +9943,7 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9888,7 +9976,7 @@
         <v>-44693676.65570752</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10086,7 +10174,7 @@
         <v>-46097144.44750752</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10119,7 +10207,7 @@
         <v>-45814028.38130752</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10152,7 +10240,7 @@
         <v>-45814028.38130752</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10185,7 +10273,7 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10218,7 +10306,7 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10251,7 +10339,7 @@
         <v>-41867353.29030752</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10284,7 +10372,7 @@
         <v>-41803514.62830752</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10317,7 +10405,7 @@
         <v>-41746441.72250752</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10350,7 +10438,7 @@
         <v>-41813527.36220752</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10416,7 +10504,7 @@
         <v>-41617270.88260753</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>

--- a/BackTest/2020-01-22 BackTest AOA.xlsx
+++ b/BackTest/2020-01-22 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M308"/>
+  <dimension ref="A1:L308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2964031.5582</v>
       </c>
       <c r="G2" t="n">
-        <v>-19792235.0086</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>442628</v>
       </c>
       <c r="G3" t="n">
-        <v>-20234863.0086</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3006763</v>
       </c>
       <c r="G4" t="n">
-        <v>-17228100.0086</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>543964</v>
       </c>
       <c r="G5" t="n">
-        <v>-17772064.0086</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2865146</v>
       </c>
       <c r="G6" t="n">
-        <v>-17772064.0086</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1320482</v>
       </c>
       <c r="G7" t="n">
-        <v>-17772064.0086</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1000</v>
       </c>
       <c r="G8" t="n">
-        <v>-17771064.0086</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>-17771064.0086</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1139.1912</v>
       </c>
       <c r="G10" t="n">
-        <v>-17771064.0086</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2955946</v>
       </c>
       <c r="G11" t="n">
-        <v>-20727010.0086</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>815775</v>
       </c>
       <c r="G12" t="n">
-        <v>-20727010.0086</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1584705</v>
       </c>
       <c r="G13" t="n">
-        <v>-19142305.0086</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2581010</v>
       </c>
       <c r="G14" t="n">
-        <v>-21723315.0086</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>600</v>
       </c>
       <c r="G15" t="n">
-        <v>-21723915.0086</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2971284</v>
       </c>
       <c r="G16" t="n">
-        <v>-18752631.0086</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>647337</v>
       </c>
       <c r="G17" t="n">
-        <v>-19399968.0086</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>15000</v>
       </c>
       <c r="G18" t="n">
-        <v>-19399968.0086</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>13218</v>
       </c>
       <c r="G19" t="n">
-        <v>-19399968.0086</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1558154</v>
       </c>
       <c r="G20" t="n">
-        <v>-17841814.0086</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2257993.6024</v>
       </c>
       <c r="G21" t="n">
-        <v>-20099807.611</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1596572</v>
       </c>
       <c r="G22" t="n">
-        <v>-18503235.611</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2022013</v>
       </c>
       <c r="G23" t="n">
-        <v>-20525248.611</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3040355</v>
       </c>
       <c r="G24" t="n">
-        <v>-17484893.611</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1210803</v>
       </c>
       <c r="G25" t="n">
-        <v>-18695696.611</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1020771</v>
       </c>
       <c r="G26" t="n">
-        <v>-17674925.611</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3007449</v>
       </c>
       <c r="G27" t="n">
-        <v>-17674925.611</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>409948</v>
       </c>
       <c r="G28" t="n">
-        <v>-18084873.611</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>752803</v>
       </c>
       <c r="G29" t="n">
-        <v>-18084873.611</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3079406</v>
       </c>
       <c r="G30" t="n">
-        <v>-18084873.611</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2371469</v>
       </c>
       <c r="G31" t="n">
-        <v>-15713404.611</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2088951</v>
       </c>
       <c r="G32" t="n">
-        <v>-17802355.611</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2981153</v>
       </c>
       <c r="G33" t="n">
-        <v>-17802355.611</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>770288</v>
       </c>
       <c r="G34" t="n">
-        <v>-17802355.611</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>36992.5338</v>
       </c>
       <c r="G35" t="n">
-        <v>-17839348.1448</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>13664.7462</v>
       </c>
       <c r="G36" t="n">
-        <v>-17853012.891</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>30000</v>
       </c>
       <c r="G37" t="n">
-        <v>-17853012.891</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>18363.4786</v>
       </c>
       <c r="G38" t="n">
-        <v>-17871376.36959999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1656898.0389</v>
       </c>
       <c r="G39" t="n">
-        <v>-19528274.40849999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2780716</v>
       </c>
       <c r="G40" t="n">
-        <v>-19528274.40849999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>30000</v>
       </c>
       <c r="G41" t="n">
-        <v>-19528274.40849999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2510715</v>
       </c>
       <c r="G42" t="n">
-        <v>-17017559.40849999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1833684</v>
       </c>
       <c r="G43" t="n">
-        <v>-18851243.40849999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1404457</v>
       </c>
       <c r="G44" t="n">
-        <v>-17446786.40849999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2777860</v>
       </c>
       <c r="G45" t="n">
-        <v>-17446786.40849999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1668743</v>
       </c>
       <c r="G46" t="n">
-        <v>-15778043.40849999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1690445</v>
       </c>
       <c r="G47" t="n">
-        <v>-17468488.40849999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>15645.6449</v>
       </c>
       <c r="G48" t="n">
-        <v>-17452842.76359999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1468229</v>
       </c>
       <c r="G49" t="n">
-        <v>-18921071.76359999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2213559</v>
       </c>
       <c r="G50" t="n">
-        <v>-18921071.76359999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>99863.36749999999</v>
       </c>
       <c r="G51" t="n">
-        <v>-19020935.13109999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>82206.5609</v>
       </c>
       <c r="G52" t="n">
-        <v>-19103141.69199999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>194775.695</v>
       </c>
       <c r="G53" t="n">
-        <v>-19297917.38699999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1687284.0399</v>
       </c>
       <c r="G54" t="n">
-        <v>-17610633.34709999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1768853</v>
       </c>
       <c r="G55" t="n">
-        <v>-19379486.34709999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>5181.0214</v>
       </c>
       <c r="G56" t="n">
-        <v>-19374305.32569999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>33000</v>
       </c>
       <c r="G57" t="n">
-        <v>-19374305.32569999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>830907</v>
       </c>
       <c r="G58" t="n">
-        <v>-20205212.32569999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>3176099</v>
       </c>
       <c r="G59" t="n">
-        <v>-17029113.32569999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>676770</v>
       </c>
       <c r="G60" t="n">
-        <v>-17705883.32569999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>35333.2007</v>
       </c>
       <c r="G61" t="n">
-        <v>-17741216.52639999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>290</v>
       </c>
       <c r="G62" t="n">
-        <v>-17740926.52639999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>290</v>
       </c>
       <c r="G63" t="n">
-        <v>-17741216.52639999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>32710</v>
       </c>
       <c r="G64" t="n">
-        <v>-17773926.52639999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>290</v>
       </c>
       <c r="G65" t="n">
-        <v>-17773636.52639999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>280602.0079</v>
       </c>
       <c r="G66" t="n">
-        <v>-17773636.52639999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2638281</v>
       </c>
       <c r="G67" t="n">
-        <v>-15135355.52639999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1357007.6812</v>
       </c>
       <c r="G68" t="n">
-        <v>-16492363.20759999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>290</v>
       </c>
       <c r="G69" t="n">
-        <v>-16492653.20759999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>912883</v>
       </c>
       <c r="G70" t="n">
-        <v>-15579770.20759999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>2721241</v>
       </c>
       <c r="G71" t="n">
-        <v>-18301011.20759999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>648.6585</v>
       </c>
       <c r="G72" t="n">
-        <v>-18300362.54909999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2401184.189568144</v>
       </c>
       <c r="G73" t="n">
-        <v>-20701546.73866813</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1305576</v>
       </c>
       <c r="G74" t="n">
-        <v>-22007122.73866813</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>285</v>
       </c>
       <c r="G75" t="n">
-        <v>-22006837.73866813</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>673118</v>
       </c>
       <c r="G76" t="n">
-        <v>-22679955.73866813</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3173780</v>
       </c>
       <c r="G77" t="n">
-        <v>-22679955.73866813</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>496280</v>
       </c>
       <c r="G78" t="n">
-        <v>-23176235.73866813</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>285</v>
       </c>
       <c r="G79" t="n">
-        <v>-23175950.73866813</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>99461.825</v>
       </c>
       <c r="G80" t="n">
-        <v>-23175950.73866813</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>285</v>
       </c>
       <c r="G81" t="n">
-        <v>-23175665.73866813</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1841328.2152</v>
       </c>
       <c r="G82" t="n">
-        <v>-25016993.95386813</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1926579</v>
       </c>
       <c r="G83" t="n">
-        <v>-25016993.95386813</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>285</v>
       </c>
       <c r="G84" t="n">
-        <v>-25017278.95386813</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1525852</v>
       </c>
       <c r="G85" t="n">
-        <v>-25017278.95386813</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2144544</v>
       </c>
       <c r="G86" t="n">
-        <v>-27161822.95386813</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>5000</v>
       </c>
       <c r="G87" t="n">
-        <v>-27156822.95386813</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>130000</v>
       </c>
       <c r="G88" t="n">
-        <v>-27026822.95386813</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>3240239</v>
       </c>
       <c r="G89" t="n">
-        <v>-30267061.95386813</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1126887</v>
       </c>
       <c r="G90" t="n">
-        <v>-31393948.95386813</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>704978</v>
       </c>
       <c r="G91" t="n">
-        <v>-31393948.95386813</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2897626.2328</v>
       </c>
       <c r="G92" t="n">
-        <v>-31393948.95386813</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1590180</v>
       </c>
       <c r="G93" t="n">
-        <v>-29803768.95386813</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>2064599</v>
       </c>
       <c r="G94" t="n">
-        <v>-31868367.95386813</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>38784.03</v>
       </c>
       <c r="G95" t="n">
-        <v>-31907151.98386813</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>772.371</v>
       </c>
       <c r="G96" t="n">
-        <v>-31907924.35486813</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>285</v>
       </c>
       <c r="G97" t="n">
-        <v>-31907639.35486813</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>227267.3959</v>
       </c>
       <c r="G98" t="n">
-        <v>-31680371.95896813</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>3568356.7289</v>
       </c>
       <c r="G99" t="n">
-        <v>-35248728.68786813</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>287427.2711</v>
       </c>
       <c r="G100" t="n">
-        <v>-34961301.41676813</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>4715</v>
       </c>
       <c r="G101" t="n">
-        <v>-34956586.41676813</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>638.9186999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-34955947.49806813</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>50322.2073</v>
       </c>
       <c r="G103" t="n">
-        <v>-34955947.49806813</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>75483.87149999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-34955947.49806813</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>4926.2151</v>
       </c>
       <c r="G105" t="n">
-        <v>-34960873.71316813</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1033.871</v>
       </c>
       <c r="G106" t="n">
-        <v>-34959839.84216813</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1214397.9177</v>
       </c>
       <c r="G107" t="n">
-        <v>-36174237.75986813</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>2103740</v>
       </c>
       <c r="G108" t="n">
-        <v>-34070497.75986813</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>2858986.761</v>
       </c>
       <c r="G109" t="n">
-        <v>-36929484.52086813</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>982.8407999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>-36928501.68006813</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1567835</v>
       </c>
       <c r="G111" t="n">
-        <v>-38496336.68006813</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2160533</v>
       </c>
       <c r="G112" t="n">
-        <v>-38496336.68006813</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>283.3264</v>
       </c>
       <c r="G113" t="n">
-        <v>-38496053.35366813</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>292.5875</v>
       </c>
       <c r="G114" t="n">
-        <v>-38495760.76616813</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1512.6528</v>
       </c>
       <c r="G115" t="n">
-        <v>-38495760.76616813</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1256.173</v>
       </c>
       <c r="G116" t="n">
-        <v>-38495760.76616813</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>384.1614</v>
       </c>
       <c r="G117" t="n">
-        <v>-38495760.76616813</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>311.2878</v>
       </c>
       <c r="G118" t="n">
-        <v>-38496072.05396813</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>331.5647</v>
       </c>
       <c r="G119" t="n">
-        <v>-38496403.61866813</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>697.3178</v>
       </c>
       <c r="G120" t="n">
-        <v>-38497100.93646813</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>447.1364</v>
       </c>
       <c r="G121" t="n">
-        <v>-38497548.07286813</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>631.838</v>
       </c>
       <c r="G122" t="n">
-        <v>-38498179.91086813</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>3791.7564</v>
       </c>
       <c r="G123" t="n">
-        <v>-38501971.66726813</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1375.6347</v>
       </c>
       <c r="G124" t="n">
-        <v>-38503347.30196813</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>47878.5845</v>
       </c>
       <c r="G125" t="n">
-        <v>-38551225.88646813</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>62052.7896</v>
       </c>
       <c r="G126" t="n">
-        <v>-38613278.67606813</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>10792.4518</v>
       </c>
       <c r="G127" t="n">
-        <v>-38602486.22426812</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>41326.0422</v>
       </c>
       <c r="G128" t="n">
-        <v>-38561160.18206812</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2874.3322</v>
       </c>
       <c r="G129" t="n">
-        <v>-38561160.18206812</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>4059.9225</v>
       </c>
       <c r="G130" t="n">
-        <v>-38565220.10456812</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>15287.2384</v>
       </c>
       <c r="G131" t="n">
-        <v>-38580507.34296812</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>2408.7643</v>
       </c>
       <c r="G132" t="n">
-        <v>-38582916.10726812</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>11829.5225</v>
       </c>
       <c r="G133" t="n">
-        <v>-38571086.58476812</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>13335.5011</v>
       </c>
       <c r="G134" t="n">
-        <v>-38557751.08366812</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>35932.7197</v>
       </c>
       <c r="G135" t="n">
-        <v>-38557751.08366812</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>150000</v>
       </c>
       <c r="G136" t="n">
-        <v>-38407751.08366812</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>133168.1377</v>
       </c>
       <c r="G137" t="n">
-        <v>-38407751.08366812</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>45340.4011</v>
       </c>
       <c r="G138" t="n">
-        <v>-38407751.08366812</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>84999.2855</v>
       </c>
       <c r="G139" t="n">
-        <v>-38407751.08366812</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>285</v>
       </c>
       <c r="G140" t="n">
-        <v>-38407466.08366812</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>54205.4637</v>
       </c>
       <c r="G141" t="n">
-        <v>-38407466.08366812</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>285</v>
       </c>
       <c r="G142" t="n">
-        <v>-38407181.08366812</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>71888.85430000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-38407181.08366812</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>285</v>
       </c>
       <c r="G144" t="n">
-        <v>-38407466.08366812</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>1462.7397</v>
       </c>
       <c r="G145" t="n">
-        <v>-38408928.82336812</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>22261.0248</v>
       </c>
       <c r="G146" t="n">
-        <v>-38431189.84816812</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,22 +4793,15 @@
         <v>568.5048</v>
       </c>
       <c r="G147" t="n">
-        <v>-38431758.35296812</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5270,877 +4823,731 @@
         <v>27933</v>
       </c>
       <c r="G148" t="n">
-        <v>-38403825.35296812</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10059.6462</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5560.6423</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F151" t="n">
+        <v>67369.46000000001</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F152" t="n">
+        <v>28525.87</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>1.768</v>
       </c>
-      <c r="J148" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K148" t="inlineStr">
+      <c r="C153" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18114.2732</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F154" t="n">
+        <v>36519.3326</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F155" t="n">
+        <v>25730.1217</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F156" t="n">
+        <v>570</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1544.4579</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9774.646199999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9774.646199999999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="F160" t="n">
+        <v>447992.1648</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F161" t="n">
+        <v>35643.7708</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F162" t="n">
+        <v>87403.17170000001</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2252514.0367</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F164" t="n">
+        <v>82933.9869</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="F165" t="n">
+        <v>285</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F166" t="n">
+        <v>285</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="F167" t="n">
+        <v>126857.4116</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="F168" t="n">
+        <v>32590.1602</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10059.6462</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-38393765.70676812</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J149" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K149" t="inlineStr">
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="F169" t="n">
+        <v>98129.3388</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5560.6423</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-38388205.06446812</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F151" t="n">
-        <v>67369.46000000001</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-38455574.52446812</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F152" t="n">
-        <v>28525.87</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-38455574.52446812</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J152" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F153" t="n">
-        <v>18114.2732</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-38473688.79766811</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J153" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F154" t="n">
-        <v>36519.3326</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-38510208.13026811</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="F155" t="n">
-        <v>25730.1217</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-38535938.25196811</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="J155" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F156" t="n">
-        <v>570</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-38535368.25196811</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1544.4579</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-38536912.70986811</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F158" t="n">
-        <v>9774.646199999999</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-38527138.06366811</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9774.646199999999</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-38527138.06366811</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.773</v>
-      </c>
-      <c r="F160" t="n">
-        <v>447992.1648</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-38079145.89886811</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F161" t="n">
-        <v>35643.7708</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-38079145.89886811</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F162" t="n">
-        <v>87403.17170000001</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-38079145.89886811</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2252514.0367</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-35826631.8621681</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="J163" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="F164" t="n">
-        <v>82933.9869</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-35743697.8752681</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="J164" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="F165" t="n">
-        <v>285</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-35743982.8752681</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="J165" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F166" t="n">
-        <v>285</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-35744267.8752681</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="J166" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="F167" t="n">
-        <v>126857.4116</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-35871125.2868681</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="F168" t="n">
-        <v>32590.1602</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-35871125.2868681</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="F169" t="n">
-        <v>98129.3388</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-35871125.2868681</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6162,26 +5569,15 @@
         <v>961069.2446</v>
       </c>
       <c r="G170" t="n">
-        <v>-35871125.2868681</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6203,26 +5599,15 @@
         <v>1282677.5028</v>
       </c>
       <c r="G171" t="n">
-        <v>-34588447.7840681</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6244,26 +5629,15 @@
         <v>382274.4318</v>
       </c>
       <c r="G172" t="n">
-        <v>-34588447.7840681</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6285,26 +5659,15 @@
         <v>313789.8423</v>
       </c>
       <c r="G173" t="n">
-        <v>-34274657.9417681</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6326,26 +5689,15 @@
         <v>534758</v>
       </c>
       <c r="G174" t="n">
-        <v>-34809415.9417681</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6367,26 +5719,15 @@
         <v>968.5774</v>
       </c>
       <c r="G175" t="n">
-        <v>-34808447.3643681</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6408,26 +5749,15 @@
         <v>455.3602</v>
       </c>
       <c r="G176" t="n">
-        <v>-34807992.0041681</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6449,24 +5779,15 @@
         <v>559454.6093</v>
       </c>
       <c r="G177" t="n">
-        <v>-34807992.0041681</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1.001207674943567</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6488,18 +5809,15 @@
         <v>972.701</v>
       </c>
       <c r="G178" t="n">
-        <v>-34808964.7051681</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6521,22 +5839,15 @@
         <v>402.0081</v>
       </c>
       <c r="G179" t="n">
-        <v>-34808964.7051681</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6558,26 +5869,15 @@
         <v>620.7566</v>
       </c>
       <c r="G180" t="n">
-        <v>-34808964.7051681</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6599,26 +5899,15 @@
         <v>196965.9921</v>
       </c>
       <c r="G181" t="n">
-        <v>-34611998.7130681</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6640,18 +5929,15 @@
         <v>288655.4093</v>
       </c>
       <c r="G182" t="n">
-        <v>-34900654.1223681</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6673,18 +5959,15 @@
         <v>10000</v>
       </c>
       <c r="G183" t="n">
-        <v>-34890654.1223681</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6706,18 +5989,15 @@
         <v>285</v>
       </c>
       <c r="G184" t="n">
-        <v>-34890369.1223681</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6739,18 +6019,15 @@
         <v>90000</v>
       </c>
       <c r="G185" t="n">
-        <v>-34980369.1223681</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6772,18 +6049,15 @@
         <v>736.5389</v>
       </c>
       <c r="G186" t="n">
-        <v>-34979632.58346809</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6805,18 +6079,15 @@
         <v>70000</v>
       </c>
       <c r="G187" t="n">
-        <v>-35049632.58346809</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6838,18 +6109,15 @@
         <v>138582.1648906338</v>
       </c>
       <c r="G188" t="n">
-        <v>-34911050.41857746</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6871,18 +6139,15 @@
         <v>34975.8306</v>
       </c>
       <c r="G189" t="n">
-        <v>-34911050.41857746</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6904,18 +6169,15 @@
         <v>290376.9301</v>
       </c>
       <c r="G190" t="n">
-        <v>-34911050.41857746</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6937,18 +6199,15 @@
         <v>77707.63219999999</v>
       </c>
       <c r="G191" t="n">
-        <v>-34911050.41857746</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6970,18 +6229,15 @@
         <v>54317.5897</v>
       </c>
       <c r="G192" t="n">
-        <v>-34911050.41857746</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7003,18 +6259,15 @@
         <v>52867.5727</v>
       </c>
       <c r="G193" t="n">
-        <v>-34963917.99127746</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7036,18 +6289,15 @@
         <v>32732.6017</v>
       </c>
       <c r="G194" t="n">
-        <v>-34963917.99127746</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7069,18 +6319,15 @@
         <v>80165.08229999999</v>
       </c>
       <c r="G195" t="n">
-        <v>-34963917.99127746</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7102,18 +6349,15 @@
         <v>694958.8753093663</v>
       </c>
       <c r="G196" t="n">
-        <v>-34268959.1159681</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7135,18 +6379,15 @@
         <v>607635.7543906338</v>
       </c>
       <c r="G197" t="n">
-        <v>-34268959.1159681</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7168,18 +6409,15 @@
         <v>26992.4553</v>
       </c>
       <c r="G198" t="n">
-        <v>-34241966.6606681</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7201,18 +6439,15 @@
         <v>982104.2226</v>
       </c>
       <c r="G199" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7234,18 +6469,15 @@
         <v>12381.1657</v>
       </c>
       <c r="G200" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7267,18 +6499,15 @@
         <v>25550.1915</v>
       </c>
       <c r="G201" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7300,18 +6529,15 @@
         <v>11557.4099</v>
       </c>
       <c r="G202" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7333,18 +6559,15 @@
         <v>10890.1722</v>
       </c>
       <c r="G203" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7366,18 +6589,15 @@
         <v>7262.9653</v>
       </c>
       <c r="G204" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7399,18 +6619,15 @@
         <v>5438.2675</v>
       </c>
       <c r="G205" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7432,18 +6649,15 @@
         <v>5955.7557</v>
       </c>
       <c r="G206" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H206" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7465,18 +6679,15 @@
         <v>1950.1201</v>
       </c>
       <c r="G207" t="n">
-        <v>-33259862.4380681</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7498,18 +6709,15 @@
         <v>1333538.2742</v>
       </c>
       <c r="G208" t="n">
-        <v>-34593400.7122681</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7531,18 +6739,15 @@
         <v>2310406</v>
       </c>
       <c r="G209" t="n">
-        <v>-36903806.7122681</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7564,18 +6769,15 @@
         <v>2059266</v>
       </c>
       <c r="G210" t="n">
-        <v>-38963072.7122681</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7597,18 +6799,15 @@
         <v>1357488</v>
       </c>
       <c r="G211" t="n">
-        <v>-38963072.7122681</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7630,18 +6829,15 @@
         <v>140890.2376</v>
       </c>
       <c r="G212" t="n">
-        <v>-38822182.4746681</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7663,18 +6859,15 @@
         <v>3152058</v>
       </c>
       <c r="G213" t="n">
-        <v>-35670124.4746681</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7696,18 +6889,15 @@
         <v>512214</v>
       </c>
       <c r="G214" t="n">
-        <v>-36182338.4746681</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7729,18 +6919,15 @@
         <v>663.9815</v>
       </c>
       <c r="G215" t="n">
-        <v>-36181674.4931681</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7762,18 +6949,15 @@
         <v>50000</v>
       </c>
       <c r="G216" t="n">
-        <v>-36181674.4931681</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7795,18 +6979,15 @@
         <v>2123657.4854</v>
       </c>
       <c r="G217" t="n">
-        <v>-38305331.9785681</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7828,18 +7009,15 @@
         <v>299.3424</v>
       </c>
       <c r="G218" t="n">
-        <v>-38305032.6361681</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7861,18 +7039,15 @@
         <v>7023.1094</v>
       </c>
       <c r="G219" t="n">
-        <v>-38312055.7455681</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7894,18 +7069,15 @@
         <v>1027630.1384</v>
       </c>
       <c r="G220" t="n">
-        <v>-37284425.60716809</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7927,18 +7099,15 @@
         <v>285</v>
       </c>
       <c r="G221" t="n">
-        <v>-37284140.60716809</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7960,18 +7129,15 @@
         <v>570</v>
       </c>
       <c r="G222" t="n">
-        <v>-37284140.60716809</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7993,18 +7159,15 @@
         <v>2000</v>
       </c>
       <c r="G223" t="n">
-        <v>-37284140.60716809</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8026,18 +7189,15 @@
         <v>476.5413</v>
       </c>
       <c r="G224" t="n">
-        <v>-37284617.14846809</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8059,18 +7219,15 @@
         <v>427.3375</v>
       </c>
       <c r="G225" t="n">
-        <v>-37284189.81096809</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8092,18 +7249,15 @@
         <v>20806.7673</v>
       </c>
       <c r="G226" t="n">
-        <v>-37284189.81096809</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8125,18 +7279,15 @@
         <v>1000000</v>
       </c>
       <c r="G227" t="n">
-        <v>-36284189.81096809</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8158,18 +7309,15 @@
         <v>3435.5179</v>
       </c>
       <c r="G228" t="n">
-        <v>-36287625.32886809</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8191,18 +7339,15 @@
         <v>1000</v>
       </c>
       <c r="G229" t="n">
-        <v>-36287625.32886809</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8224,18 +7369,15 @@
         <v>290</v>
       </c>
       <c r="G230" t="n">
-        <v>-36287335.32886809</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8257,18 +7399,15 @@
         <v>112044.8179271709</v>
       </c>
       <c r="G231" t="n">
-        <v>-36287335.32886809</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8290,18 +7429,15 @@
         <v>58115.44132658053</v>
       </c>
       <c r="G232" t="n">
-        <v>-36229219.88754151</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8323,18 +7459,15 @@
         <v>279955.2071668533</v>
       </c>
       <c r="G233" t="n">
-        <v>-36229219.88754151</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8356,18 +7489,15 @@
         <v>4911.7966</v>
       </c>
       <c r="G234" t="n">
-        <v>-36229219.88754151</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8389,18 +7519,15 @@
         <v>107772.0786</v>
       </c>
       <c r="G235" t="n">
-        <v>-36336991.96614151</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8422,18 +7549,15 @@
         <v>35878.6348</v>
       </c>
       <c r="G236" t="n">
-        <v>-36301113.33134151</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8455,18 +7579,15 @@
         <v>14447.8782</v>
       </c>
       <c r="G237" t="n">
-        <v>-36301113.33134151</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8488,18 +7609,15 @@
         <v>13231.7061</v>
       </c>
       <c r="G238" t="n">
-        <v>-36301113.33134151</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8521,18 +7639,15 @@
         <v>12651.4797</v>
       </c>
       <c r="G239" t="n">
-        <v>-36301113.33134151</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8554,18 +7669,15 @@
         <v>48805.9764</v>
       </c>
       <c r="G240" t="n">
-        <v>-36301113.33134151</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8587,18 +7699,15 @@
         <v>7889.3304</v>
       </c>
       <c r="G241" t="n">
-        <v>-36301113.33134151</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8620,18 +7729,15 @@
         <v>55171.514</v>
       </c>
       <c r="G242" t="n">
-        <v>-36301113.33134151</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8653,18 +7759,15 @@
         <v>17176.8827</v>
       </c>
       <c r="G243" t="n">
-        <v>-36283936.4486415</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8686,18 +7789,15 @@
         <v>23052.7831</v>
       </c>
       <c r="G244" t="n">
-        <v>-36260883.6655415</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8719,18 +7819,15 @@
         <v>19775.772</v>
       </c>
       <c r="G245" t="n">
-        <v>-36260883.6655415</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8752,18 +7849,15 @@
         <v>459541.6519</v>
       </c>
       <c r="G246" t="n">
-        <v>-36720425.3174415</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8785,18 +7879,15 @@
         <v>365.7737</v>
       </c>
       <c r="G247" t="n">
-        <v>-36720059.5437415</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8818,18 +7909,15 @@
         <v>500662.2855</v>
       </c>
       <c r="G248" t="n">
-        <v>-37220721.8292415</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8851,18 +7939,15 @@
         <v>223401.8484</v>
       </c>
       <c r="G249" t="n">
-        <v>-36997319.9808415</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8884,18 +7969,15 @@
         <v>363966.3665</v>
       </c>
       <c r="G250" t="n">
-        <v>-36997319.9808415</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8917,18 +7999,15 @@
         <v>146989.4763</v>
       </c>
       <c r="G251" t="n">
-        <v>-36997319.9808415</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8950,18 +8029,15 @@
         <v>71331.6413</v>
       </c>
       <c r="G252" t="n">
-        <v>-36997319.9808415</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8983,18 +8059,15 @@
         <v>65264.3072</v>
       </c>
       <c r="G253" t="n">
-        <v>-36997319.9808415</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9016,18 +8089,15 @@
         <v>701417.5868</v>
       </c>
       <c r="G254" t="n">
-        <v>-37698737.5676415</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9049,18 +8119,15 @@
         <v>264784.17</v>
       </c>
       <c r="G255" t="n">
-        <v>-37433953.3976415</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9082,18 +8149,15 @@
         <v>83872.83259999999</v>
       </c>
       <c r="G256" t="n">
-        <v>-37433953.3976415</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9115,18 +8179,15 @@
         <v>267677.7627</v>
       </c>
       <c r="G257" t="n">
-        <v>-37433953.3976415</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9148,18 +8209,15 @@
         <v>2138917.5426</v>
       </c>
       <c r="G258" t="n">
-        <v>-39572870.9402415</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9181,18 +8239,15 @@
         <v>2153939.1576</v>
       </c>
       <c r="G259" t="n">
-        <v>-39572870.9402415</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9214,18 +8269,15 @@
         <v>676950.7306</v>
       </c>
       <c r="G260" t="n">
-        <v>-40249821.6708415</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9247,18 +8299,15 @@
         <v>282.2394</v>
       </c>
       <c r="G261" t="n">
-        <v>-40249539.4314415</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9280,18 +8329,15 @@
         <v>1141705.9855</v>
       </c>
       <c r="G262" t="n">
-        <v>-41391245.4169415</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9313,18 +8359,15 @@
         <v>1345696</v>
       </c>
       <c r="G263" t="n">
-        <v>-41391245.4169415</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9346,18 +8389,15 @@
         <v>1380136</v>
       </c>
       <c r="G264" t="n">
-        <v>-40011109.4169415</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9379,18 +8419,15 @@
         <v>606456.5257</v>
       </c>
       <c r="G265" t="n">
-        <v>-40617565.9426415</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9412,18 +8449,15 @@
         <v>752545</v>
       </c>
       <c r="G266" t="n">
-        <v>-39865020.9426415</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9445,18 +8479,15 @@
         <v>113508.6181031267</v>
       </c>
       <c r="G267" t="n">
-        <v>-39751512.32453838</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9478,18 +8509,15 @@
         <v>111937.0929781791</v>
       </c>
       <c r="G268" t="n">
-        <v>-39639575.2315602</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9511,18 +8539,15 @@
         <v>33482.70089285714</v>
       </c>
       <c r="G269" t="n">
-        <v>-39639575.2315602</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9544,18 +8569,15 @@
         <v>16741.07142857143</v>
       </c>
       <c r="G270" t="n">
-        <v>-39639575.2315602</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9577,18 +8599,15 @@
         <v>5888.7554</v>
       </c>
       <c r="G271" t="n">
-        <v>-39645463.9869602</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9610,18 +8629,15 @@
         <v>5634.1844</v>
       </c>
       <c r="G272" t="n">
-        <v>-39639829.8025602</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9643,18 +8659,15 @@
         <v>17028.10453831415</v>
       </c>
       <c r="G273" t="n">
-        <v>-39622801.69802189</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9676,18 +8689,15 @@
         <v>237643.5087589515</v>
       </c>
       <c r="G274" t="n">
-        <v>-39385158.18926293</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9709,18 +8719,15 @@
         <v>23351.5204</v>
       </c>
       <c r="G275" t="n">
-        <v>-39361806.66886293</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9742,18 +8749,15 @@
         <v>2931907.528644593</v>
       </c>
       <c r="G276" t="n">
-        <v>-42293714.19750752</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9775,18 +8779,15 @@
         <v>61349.69325153374</v>
       </c>
       <c r="G277" t="n">
-        <v>-42355063.89075906</v>
-      </c>
-      <c r="H277" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9808,18 +8809,15 @@
         <v>127354.7537484663</v>
       </c>
       <c r="G278" t="n">
-        <v>-42355063.89075906</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9841,18 +8839,15 @@
         <v>83832.17075153375</v>
       </c>
       <c r="G279" t="n">
-        <v>-42271231.72000752</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9874,18 +8869,15 @@
         <v>12157.0643</v>
       </c>
       <c r="G280" t="n">
-        <v>-42259074.65570752</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9907,18 +8899,15 @@
         <v>42511.1706</v>
       </c>
       <c r="G281" t="n">
-        <v>-42259074.65570752</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9940,18 +8929,15 @@
         <v>32783.6417</v>
       </c>
       <c r="G282" t="n">
-        <v>-42259074.65570752</v>
-      </c>
-      <c r="H282" t="n">
         <v>2</v>
       </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9973,18 +8959,15 @@
         <v>2434602</v>
       </c>
       <c r="G283" t="n">
-        <v>-44693676.65570752</v>
-      </c>
-      <c r="H283" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10006,18 +8989,15 @@
         <v>1406883</v>
       </c>
       <c r="G284" t="n">
-        <v>-46100559.65570752</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10039,18 +9019,15 @@
         <v>300</v>
       </c>
       <c r="G285" t="n">
-        <v>-46100259.65570752</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10072,18 +9049,15 @@
         <v>11500</v>
       </c>
       <c r="G286" t="n">
-        <v>-46111759.65570752</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10105,18 +9079,15 @@
         <v>582</v>
       </c>
       <c r="G287" t="n">
-        <v>-46111177.65570752</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10138,18 +9109,15 @@
         <v>14033.2082</v>
       </c>
       <c r="G288" t="n">
-        <v>-46097144.44750752</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10171,18 +9139,15 @@
         <v>3058.7051</v>
       </c>
       <c r="G289" t="n">
-        <v>-46097144.44750752</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10204,18 +9169,15 @@
         <v>283116.0662</v>
       </c>
       <c r="G290" t="n">
-        <v>-45814028.38130752</v>
-      </c>
-      <c r="H290" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10237,18 +9199,15 @@
         <v>48220.7434</v>
       </c>
       <c r="G291" t="n">
-        <v>-45814028.38130752</v>
-      </c>
-      <c r="H291" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10270,18 +9229,15 @@
         <v>65431.2457</v>
       </c>
       <c r="G292" t="n">
-        <v>-45748597.13560752</v>
-      </c>
-      <c r="H292" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10303,18 +9259,15 @@
         <v>993820.3488</v>
       </c>
       <c r="G293" t="n">
-        <v>-45748597.13560752</v>
-      </c>
-      <c r="H293" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10336,18 +9289,15 @@
         <v>3881243.8453</v>
       </c>
       <c r="G294" t="n">
-        <v>-41867353.29030752</v>
-      </c>
-      <c r="H294" t="n">
         <v>2</v>
       </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10369,18 +9319,15 @@
         <v>63838.662</v>
       </c>
       <c r="G295" t="n">
-        <v>-41803514.62830752</v>
-      </c>
-      <c r="H295" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10402,18 +9349,15 @@
         <v>57072.9058</v>
       </c>
       <c r="G296" t="n">
-        <v>-41746441.72250752</v>
-      </c>
-      <c r="H296" t="n">
         <v>2</v>
       </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10435,18 +9379,15 @@
         <v>67085.6397</v>
       </c>
       <c r="G297" t="n">
-        <v>-41813527.36220752</v>
-      </c>
-      <c r="H297" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10468,18 +9409,15 @@
         <v>196256.4796</v>
       </c>
       <c r="G298" t="n">
-        <v>-41617270.88260753</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10501,18 +9439,15 @@
         <v>24893.9816</v>
       </c>
       <c r="G299" t="n">
-        <v>-41617270.88260753</v>
-      </c>
-      <c r="H299" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10534,18 +9469,15 @@
         <v>1000</v>
       </c>
       <c r="G300" t="n">
-        <v>-41618270.88260753</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10567,18 +9499,15 @@
         <v>4932.6503</v>
       </c>
       <c r="G301" t="n">
-        <v>-41613338.23230752</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10600,18 +9529,15 @@
         <v>26506.2732</v>
       </c>
       <c r="G302" t="n">
-        <v>-41613338.23230752</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10633,18 +9559,15 @@
         <v>900</v>
       </c>
       <c r="G303" t="n">
-        <v>-41614238.23230752</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10666,18 +9589,15 @@
         <v>40856.5419</v>
       </c>
       <c r="G304" t="n">
-        <v>-41573381.69040752</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10699,18 +9619,15 @@
         <v>300</v>
       </c>
       <c r="G305" t="n">
-        <v>-41573681.69040752</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10732,18 +9649,15 @@
         <v>300</v>
       </c>
       <c r="G306" t="n">
-        <v>-41573681.69040752</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10765,18 +9679,15 @@
         <v>39246.908</v>
       </c>
       <c r="G307" t="n">
-        <v>-41573681.69040752</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10798,18 +9709,15 @@
         <v>600</v>
       </c>
       <c r="G308" t="n">
-        <v>-41573081.69040752</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
